--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>178.57177734375</v>
+        <v>190.5570983886719</v>
       </c>
       <c r="H2" t="n">
-        <v>42.24055480957031</v>
+        <v>44.5086669921875</v>
       </c>
       <c r="I2" t="n">
-        <v>907.8527221679688</v>
+        <v>906.07958984375</v>
       </c>
       <c r="J2" t="n">
-        <v>59.85321044921875</v>
+        <v>53.88256072998047</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>254.6157073974609</v>
+        <v>256.6379699707031</v>
       </c>
       <c r="H3" t="n">
-        <v>38.58133316040039</v>
+        <v>42.90547180175781</v>
       </c>
       <c r="I3" t="n">
-        <v>915.0493774414062</v>
+        <v>914.3421630859375</v>
       </c>
       <c r="J3" t="n">
-        <v>57.74346160888672</v>
+        <v>56.77479934692383</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>294.701171875</v>
+        <v>291.7877197265625</v>
       </c>
       <c r="H4" t="n">
-        <v>52.32814788818359</v>
+        <v>51.62703704833984</v>
       </c>
       <c r="I4" t="n">
-        <v>923.3017578125</v>
+        <v>920.8945922851562</v>
       </c>
       <c r="J4" t="n">
-        <v>59.59706497192383</v>
+        <v>61.65137100219727</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>343.8537902832031</v>
+        <v>341.1329040527344</v>
       </c>
       <c r="H5" t="n">
-        <v>87.93609619140625</v>
+        <v>86.34221649169922</v>
       </c>
       <c r="I5" t="n">
-        <v>922.193359375</v>
+        <v>923.310302734375</v>
       </c>
       <c r="J5" t="n">
-        <v>65.07459259033203</v>
+        <v>64.58016204833984</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>423.7035827636719</v>
+        <v>423.6623840332031</v>
       </c>
       <c r="H6" t="n">
-        <v>136.5807800292969</v>
+        <v>144.6688842773438</v>
       </c>
       <c r="I6" t="n">
-        <v>918.316162109375</v>
+        <v>926.5293579101562</v>
       </c>
       <c r="J6" t="n">
-        <v>72.57563018798828</v>
+        <v>72.20227813720703</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>115.2295989990234</v>
+        <v>131.2296295166016</v>
       </c>
       <c r="H7" t="n">
-        <v>48.5048828125</v>
+        <v>47.09479522705078</v>
       </c>
       <c r="I7" t="n">
-        <v>960.0204467773438</v>
+        <v>940.3801879882812</v>
       </c>
       <c r="J7" t="n">
-        <v>71.51470184326172</v>
+        <v>63.76465606689453</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>129.0963745117188</v>
+        <v>143.3772125244141</v>
       </c>
       <c r="H8" t="n">
-        <v>46.13498687744141</v>
+        <v>46.19000625610352</v>
       </c>
       <c r="I8" t="n">
-        <v>944.3256225585938</v>
+        <v>930.6473999023438</v>
       </c>
       <c r="J8" t="n">
-        <v>64.18356323242188</v>
+        <v>58.46880722045898</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>178.1696014404297</v>
+        <v>186.5694274902344</v>
       </c>
       <c r="H9" t="n">
-        <v>46.57723236083984</v>
+        <v>43.31081008911133</v>
       </c>
       <c r="I9" t="n">
-        <v>924.713134765625</v>
+        <v>919.1615600585938</v>
       </c>
       <c r="J9" t="n">
-        <v>58.22619247436523</v>
+        <v>59.35943222045898</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>230.8677825927734</v>
+        <v>237.1212463378906</v>
       </c>
       <c r="H10" t="n">
-        <v>45.05698776245117</v>
+        <v>46.07174682617188</v>
       </c>
       <c r="I10" t="n">
-        <v>915.7371826171875</v>
+        <v>916.41552734375</v>
       </c>
       <c r="J10" t="n">
-        <v>57.27037048339844</v>
+        <v>58.52397155761719</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>290.1063537597656</v>
+        <v>304.0728759765625</v>
       </c>
       <c r="H11" t="n">
-        <v>53.62406539916992</v>
+        <v>67.00502777099609</v>
       </c>
       <c r="I11" t="n">
-        <v>919.6539306640625</v>
+        <v>919.0399169921875</v>
       </c>
       <c r="J11" t="n">
-        <v>58.76022720336914</v>
+        <v>63.86981201171875</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>384.0779113769531</v>
+        <v>383.336669921875</v>
       </c>
       <c r="H12" t="n">
-        <v>127.055534362793</v>
+        <v>116.1648941040039</v>
       </c>
       <c r="I12" t="n">
-        <v>912.2583618164062</v>
+        <v>914.5789794921875</v>
       </c>
       <c r="J12" t="n">
-        <v>69.358642578125</v>
+        <v>70.23545074462891</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>550.0236206054688</v>
+        <v>540.4661865234375</v>
       </c>
       <c r="H13" t="n">
-        <v>172.4068908691406</v>
+        <v>162.6154479980469</v>
       </c>
       <c r="I13" t="n">
-        <v>904.7902221679688</v>
+        <v>901.5203247070312</v>
       </c>
       <c r="J13" t="n">
-        <v>83.63275909423828</v>
+        <v>79.74324798583984</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>108.475227355957</v>
+        <v>126.082145690918</v>
       </c>
       <c r="H14" t="n">
-        <v>56.08508682250977</v>
+        <v>51.23978424072266</v>
       </c>
       <c r="I14" t="n">
-        <v>722.2567749023438</v>
+        <v>644.3804931640625</v>
       </c>
       <c r="J14" t="n">
-        <v>167.8630218505859</v>
+        <v>175.1992034912109</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>113.4764099121094</v>
+        <v>131.0480804443359</v>
       </c>
       <c r="H15" t="n">
-        <v>52.64824295043945</v>
+        <v>47.89157485961914</v>
       </c>
       <c r="I15" t="n">
-        <v>980.892822265625</v>
+        <v>973.8770751953125</v>
       </c>
       <c r="J15" t="n">
-        <v>78.02360534667969</v>
+        <v>72.03907012939453</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>129.8769989013672</v>
+        <v>143.222412109375</v>
       </c>
       <c r="H16" t="n">
-        <v>46.64376831054688</v>
+        <v>47.28067779541016</v>
       </c>
       <c r="I16" t="n">
-        <v>974.90478515625</v>
+        <v>960.3300170898438</v>
       </c>
       <c r="J16" t="n">
-        <v>66.051513671875</v>
+        <v>59.87472152709961</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>145.8440551757812</v>
+        <v>155.8025207519531</v>
       </c>
       <c r="H17" t="n">
-        <v>42.83999633789062</v>
+        <v>41.978759765625</v>
       </c>
       <c r="I17" t="n">
-        <v>961.762939453125</v>
+        <v>958.9613647460938</v>
       </c>
       <c r="J17" t="n">
-        <v>63.8847541809082</v>
+        <v>62.11565780639648</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>179.5485687255859</v>
+        <v>186.2499084472656</v>
       </c>
       <c r="H18" t="n">
-        <v>42.48003005981445</v>
+        <v>41.85485076904297</v>
       </c>
       <c r="I18" t="n">
-        <v>946.7584228515625</v>
+        <v>935.1311645507812</v>
       </c>
       <c r="J18" t="n">
-        <v>63.41906356811523</v>
+        <v>62.30810546875</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>244.0326232910156</v>
+        <v>249.9897918701172</v>
       </c>
       <c r="H19" t="n">
-        <v>51.20869445800781</v>
+        <v>54.81775283813477</v>
       </c>
       <c r="I19" t="n">
-        <v>925.5005493164062</v>
+        <v>915.5447998046875</v>
       </c>
       <c r="J19" t="n">
-        <v>62.04512405395508</v>
+        <v>66.10990905761719</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>319.1233825683594</v>
+        <v>337.7881469726562</v>
       </c>
       <c r="H20" t="n">
-        <v>79.765869140625</v>
+        <v>84.15147399902344</v>
       </c>
       <c r="I20" t="n">
-        <v>915.4094848632812</v>
+        <v>903.4345703125</v>
       </c>
       <c r="J20" t="n">
-        <v>69.79422760009766</v>
+        <v>69.58509826660156</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>515.2257080078125</v>
+        <v>525.891357421875</v>
       </c>
       <c r="H21" t="n">
-        <v>168.3383483886719</v>
+        <v>158.9022216796875</v>
       </c>
       <c r="I21" t="n">
-        <v>906.9495849609375</v>
+        <v>896.1694946289062</v>
       </c>
       <c r="J21" t="n">
-        <v>80.24957275390625</v>
+        <v>90.66259765625</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>707.329833984375</v>
+        <v>728.4784545898438</v>
       </c>
       <c r="H22" t="n">
-        <v>112.3226013183594</v>
+        <v>87.02964782714844</v>
       </c>
       <c r="I22" t="n">
-        <v>899</v>
+        <v>888.8060302734375</v>
       </c>
       <c r="J22" t="n">
-        <v>91.50732421875</v>
+        <v>99.33882904052734</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>111.603630065918</v>
+        <v>125.9435119628906</v>
       </c>
       <c r="H23" t="n">
-        <v>57.66070938110352</v>
+        <v>52.52104187011719</v>
       </c>
       <c r="I23" t="n">
-        <v>255.3009948730469</v>
+        <v>234.8028411865234</v>
       </c>
       <c r="J23" t="n">
-        <v>116.4700469970703</v>
+        <v>98.52035522460938</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>125.5243606567383</v>
+        <v>139.8216400146484</v>
       </c>
       <c r="H24" t="n">
-        <v>51.97011184692383</v>
+        <v>48.04789733886719</v>
       </c>
       <c r="I24" t="n">
-        <v>443.7652587890625</v>
+        <v>402.5595092773438</v>
       </c>
       <c r="J24" t="n">
-        <v>187.0582580566406</v>
+        <v>177.0386810302734</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>130.1946411132812</v>
+        <v>147.7711181640625</v>
       </c>
       <c r="H25" t="n">
-        <v>48.12734222412109</v>
+        <v>45.18737030029297</v>
       </c>
       <c r="I25" t="n">
-        <v>900.002197265625</v>
+        <v>888.0232543945312</v>
       </c>
       <c r="J25" t="n">
-        <v>99.77143096923828</v>
+        <v>120.1643447875977</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>144.1361999511719</v>
+        <v>156.5833282470703</v>
       </c>
       <c r="H26" t="n">
-        <v>44.71955490112305</v>
+        <v>44.03215408325195</v>
       </c>
       <c r="I26" t="n">
-        <v>976.9742431640625</v>
+        <v>973.8922119140625</v>
       </c>
       <c r="J26" t="n">
-        <v>70.62953186035156</v>
+        <v>69.92922973632812</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>169.6503601074219</v>
+        <v>174.9142456054688</v>
       </c>
       <c r="H27" t="n">
-        <v>41.82693099975586</v>
+        <v>40.52222061157227</v>
       </c>
       <c r="I27" t="n">
-        <v>967.51708984375</v>
+        <v>965.5714721679688</v>
       </c>
       <c r="J27" t="n">
-        <v>66.40425872802734</v>
+        <v>63.89983367919922</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>216.7882995605469</v>
+        <v>217.7478485107422</v>
       </c>
       <c r="H28" t="n">
-        <v>43.12606048583984</v>
+        <v>44.68672180175781</v>
       </c>
       <c r="I28" t="n">
-        <v>935.8554077148438</v>
+        <v>928.400390625</v>
       </c>
       <c r="J28" t="n">
-        <v>66.40415954589844</v>
+        <v>69.47385406494141</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>293.6795959472656</v>
+        <v>290.8000793457031</v>
       </c>
       <c r="H29" t="n">
-        <v>66.44774627685547</v>
+        <v>68.09462738037109</v>
       </c>
       <c r="I29" t="n">
-        <v>909.4873657226562</v>
+        <v>897.3119506835938</v>
       </c>
       <c r="J29" t="n">
-        <v>83.64035034179688</v>
+        <v>82.70510864257812</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>478.3020935058594</v>
+        <v>526.4876098632812</v>
       </c>
       <c r="H30" t="n">
-        <v>144.8247222900391</v>
+        <v>152.2035980224609</v>
       </c>
       <c r="I30" t="n">
-        <v>895.6339721679688</v>
+        <v>855.1376953125</v>
       </c>
       <c r="J30" t="n">
-        <v>93.95703125</v>
+        <v>117.1057357788086</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>690.16943359375</v>
+        <v>739.2528076171875</v>
       </c>
       <c r="H31" t="n">
-        <v>105.4479217529297</v>
+        <v>78.80813598632812</v>
       </c>
       <c r="I31" t="n">
-        <v>869.0269165039062</v>
+        <v>825.2564086914062</v>
       </c>
       <c r="J31" t="n">
-        <v>119.6623306274414</v>
+        <v>161.5985870361328</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>111.6943206787109</v>
+        <v>122.6314163208008</v>
       </c>
       <c r="H32" t="n">
-        <v>53.39619445800781</v>
+        <v>52.68232727050781</v>
       </c>
       <c r="I32" t="n">
-        <v>146.0959930419922</v>
+        <v>141.8733520507812</v>
       </c>
       <c r="J32" t="n">
-        <v>70.08088684082031</v>
+        <v>53.07429504394531</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>121.3792724609375</v>
+        <v>140.294677734375</v>
       </c>
       <c r="H33" t="n">
-        <v>52.76310729980469</v>
+        <v>48.21649169921875</v>
       </c>
       <c r="I33" t="n">
-        <v>205.1971282958984</v>
+        <v>189.582275390625</v>
       </c>
       <c r="J33" t="n">
-        <v>92.79983520507812</v>
+        <v>77.30365753173828</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4765472412109</v>
+        <v>150.4322662353516</v>
       </c>
       <c r="H34" t="n">
-        <v>51.4260368347168</v>
+        <v>45.84540557861328</v>
       </c>
       <c r="I34" t="n">
-        <v>332.1226806640625</v>
+        <v>312.4635009765625</v>
       </c>
       <c r="J34" t="n">
-        <v>155.7886962890625</v>
+        <v>146.3202972412109</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>155.5842437744141</v>
+        <v>162.9038238525391</v>
       </c>
       <c r="H35" t="n">
-        <v>46.36705780029297</v>
+        <v>45.63894271850586</v>
       </c>
       <c r="I35" t="n">
-        <v>527.8698120117188</v>
+        <v>494.5294799804688</v>
       </c>
       <c r="J35" t="n">
-        <v>203.7642974853516</v>
+        <v>192.0014190673828</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>174.4313049316406</v>
+        <v>178.4787139892578</v>
       </c>
       <c r="H36" t="n">
-        <v>42.45143508911133</v>
+        <v>43.07077789306641</v>
       </c>
       <c r="I36" t="n">
-        <v>824.08984375</v>
+        <v>781.1138305664062</v>
       </c>
       <c r="J36" t="n">
-        <v>131.2391815185547</v>
+        <v>166.4664459228516</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>199.0417633056641</v>
+        <v>203.0848236083984</v>
       </c>
       <c r="H37" t="n">
-        <v>42.44927597045898</v>
+        <v>40.23530578613281</v>
       </c>
       <c r="I37" t="n">
-        <v>838.6141967773438</v>
+        <v>798.9779663085938</v>
       </c>
       <c r="J37" t="n">
-        <v>120.7204742431641</v>
+        <v>151.1628112792969</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>276.0400695800781</v>
+        <v>280.3902893066406</v>
       </c>
       <c r="H38" t="n">
-        <v>54.39449310302734</v>
+        <v>59.53712844848633</v>
       </c>
       <c r="I38" t="n">
-        <v>855.7075805664062</v>
+        <v>793.904296875</v>
       </c>
       <c r="J38" t="n">
-        <v>112.0246887207031</v>
+        <v>142.3821868896484</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>448.2039489746094</v>
+        <v>492.2409362792969</v>
       </c>
       <c r="H39" t="n">
-        <v>127.4712905883789</v>
+        <v>131.8982696533203</v>
       </c>
       <c r="I39" t="n">
-        <v>832.0374145507812</v>
+        <v>725.100341796875</v>
       </c>
       <c r="J39" t="n">
-        <v>136.7571258544922</v>
+        <v>177.3806610107422</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>665.9765014648438</v>
+        <v>725.27490234375</v>
       </c>
       <c r="H40" t="n">
-        <v>105.6677093505859</v>
+        <v>82.63242340087891</v>
       </c>
       <c r="I40" t="n">
-        <v>749.7431640625</v>
+        <v>626.2892456054688</v>
       </c>
       <c r="J40" t="n">
-        <v>185.6460876464844</v>
+        <v>291.7157592773438</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>115.1577072143555</v>
+        <v>128.9814300537109</v>
       </c>
       <c r="H41" t="n">
-        <v>54.23997116088867</v>
+        <v>51.76584243774414</v>
       </c>
       <c r="I41" t="n">
-        <v>110.8863296508789</v>
+        <v>107.695556640625</v>
       </c>
       <c r="J41" t="n">
-        <v>48.54080200195312</v>
+        <v>44.76172256469727</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>130.7054595947266</v>
+        <v>141.7453002929688</v>
       </c>
       <c r="H42" t="n">
-        <v>49.92279815673828</v>
+        <v>46.06900024414062</v>
       </c>
       <c r="I42" t="n">
-        <v>137.5897369384766</v>
+        <v>128.6381378173828</v>
       </c>
       <c r="J42" t="n">
-        <v>56.94795989990234</v>
+        <v>51.25927734375</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>135.1947784423828</v>
+        <v>154.7103729248047</v>
       </c>
       <c r="H43" t="n">
-        <v>50.67985534667969</v>
+        <v>46.48904800415039</v>
       </c>
       <c r="I43" t="n">
-        <v>163.3593444824219</v>
+        <v>149.5421142578125</v>
       </c>
       <c r="J43" t="n">
-        <v>70.81643676757812</v>
+        <v>58.73150634765625</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>153.4851837158203</v>
+        <v>163.9954986572266</v>
       </c>
       <c r="H44" t="n">
-        <v>47.5640754699707</v>
+        <v>45.06397247314453</v>
       </c>
       <c r="I44" t="n">
-        <v>234.1321411132812</v>
+        <v>210.5914154052734</v>
       </c>
       <c r="J44" t="n">
-        <v>95.56074523925781</v>
+        <v>84.22647094726562</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>166.1315460205078</v>
+        <v>176.4312896728516</v>
       </c>
       <c r="H45" t="n">
-        <v>44.84220123291016</v>
+        <v>41.97482681274414</v>
       </c>
       <c r="I45" t="n">
-        <v>281.7762145996094</v>
+        <v>263.333740234375</v>
       </c>
       <c r="J45" t="n">
-        <v>114.5314254760742</v>
+        <v>112.6230773925781</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>189.3253784179688</v>
+        <v>192.3553619384766</v>
       </c>
       <c r="H46" t="n">
-        <v>42.56935882568359</v>
+        <v>40.39397811889648</v>
       </c>
       <c r="I46" t="n">
-        <v>395.2745971679688</v>
+        <v>334.1996765136719</v>
       </c>
       <c r="J46" t="n">
-        <v>142.2489166259766</v>
+        <v>137.4553833007812</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>241.5335083007812</v>
+        <v>251.6656188964844</v>
       </c>
       <c r="H47" t="n">
-        <v>46.80729675292969</v>
+        <v>45.69876861572266</v>
       </c>
       <c r="I47" t="n">
-        <v>495.8414001464844</v>
+        <v>398.2618713378906</v>
       </c>
       <c r="J47" t="n">
-        <v>193.4324645996094</v>
+        <v>156.0868072509766</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>417.9830322265625</v>
+        <v>444.7678527832031</v>
       </c>
       <c r="H48" t="n">
-        <v>120.755241394043</v>
+        <v>112.1182327270508</v>
       </c>
       <c r="I48" t="n">
-        <v>618.4696044921875</v>
+        <v>463.9300537109375</v>
       </c>
       <c r="J48" t="n">
-        <v>196.2283782958984</v>
+        <v>205.6936492919922</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>626.9683837890625</v>
+        <v>687.3934936523438</v>
       </c>
       <c r="H49" t="n">
-        <v>120.96875</v>
+        <v>86.67390441894531</v>
       </c>
       <c r="I49" t="n">
-        <v>657.5800170898438</v>
+        <v>479.4442138671875</v>
       </c>
       <c r="J49" t="n">
-        <v>211.9485626220703</v>
+        <v>274.040283203125</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>122.1352462768555</v>
+        <v>138.0269775390625</v>
       </c>
       <c r="H50" t="n">
-        <v>54.3268928527832</v>
+        <v>48.23524475097656</v>
       </c>
       <c r="I50" t="n">
-        <v>77.52324676513672</v>
+        <v>74.36405944824219</v>
       </c>
       <c r="J50" t="n">
-        <v>47.95822143554688</v>
+        <v>50.18596649169922</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>134.8819427490234</v>
+        <v>148.8330535888672</v>
       </c>
       <c r="H51" t="n">
-        <v>49.05092239379883</v>
+        <v>44.96327972412109</v>
       </c>
       <c r="I51" t="n">
-        <v>92.95182037353516</v>
+        <v>88.41018676757812</v>
       </c>
       <c r="J51" t="n">
-        <v>48.09648132324219</v>
+        <v>51.11635208129883</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>144.2522277832031</v>
+        <v>160.0399322509766</v>
       </c>
       <c r="H52" t="n">
-        <v>48.71050262451172</v>
+        <v>45.55806350708008</v>
       </c>
       <c r="I52" t="n">
-        <v>103.05078125</v>
+        <v>102.6102294921875</v>
       </c>
       <c r="J52" t="n">
-        <v>52.64572525024414</v>
+        <v>53.79276275634766</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>154.8381652832031</v>
+        <v>169.2417144775391</v>
       </c>
       <c r="H53" t="n">
-        <v>47.3184700012207</v>
+        <v>43.22829818725586</v>
       </c>
       <c r="I53" t="n">
-        <v>134.9884338378906</v>
+        <v>124.7872543334961</v>
       </c>
       <c r="J53" t="n">
-        <v>55.56484985351562</v>
+        <v>55.74140167236328</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>166.5520782470703</v>
+        <v>178.1856079101562</v>
       </c>
       <c r="H54" t="n">
-        <v>46.41905975341797</v>
+        <v>41.05684280395508</v>
       </c>
       <c r="I54" t="n">
-        <v>158.0304870605469</v>
+        <v>151.1592407226562</v>
       </c>
       <c r="J54" t="n">
-        <v>57.29022979736328</v>
+        <v>56.65120315551758</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>188.8433227539062</v>
+        <v>195.2085571289062</v>
       </c>
       <c r="H55" t="n">
-        <v>42.81085586547852</v>
+        <v>40.79156875610352</v>
       </c>
       <c r="I55" t="n">
-        <v>193.2525787353516</v>
+        <v>178.2038726806641</v>
       </c>
       <c r="J55" t="n">
-        <v>62.3320198059082</v>
+        <v>52.38750839233398</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>222.1359100341797</v>
+        <v>225.5430145263672</v>
       </c>
       <c r="H56" t="n">
-        <v>44.98593139648438</v>
+        <v>41.436767578125</v>
       </c>
       <c r="I56" t="n">
-        <v>222.4590606689453</v>
+        <v>193.1410217285156</v>
       </c>
       <c r="J56" t="n">
-        <v>84.29442596435547</v>
+        <v>64.23291778564453</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>330.7807922363281</v>
+        <v>356.0606384277344</v>
       </c>
       <c r="H57" t="n">
-        <v>96.50402069091797</v>
+        <v>87.32253265380859</v>
       </c>
       <c r="I57" t="n">
-        <v>348.7457580566406</v>
+        <v>254.2553405761719</v>
       </c>
       <c r="J57" t="n">
-        <v>167.4589233398438</v>
+        <v>146.56298828125</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>600.4747314453125</v>
+        <v>647.0537719726562</v>
       </c>
       <c r="H58" t="n">
-        <v>114.2862930297852</v>
+        <v>98.86194610595703</v>
       </c>
       <c r="I58" t="n">
-        <v>459.6832275390625</v>
+        <v>308.6244506835938</v>
       </c>
       <c r="J58" t="n">
-        <v>214.6874237060547</v>
+        <v>218.4461975097656</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>145.108642578125</v>
+        <v>156.5770721435547</v>
       </c>
       <c r="H59" t="n">
-        <v>51.34175109863281</v>
+        <v>45.48776626586914</v>
       </c>
       <c r="I59" t="n">
-        <v>30.97154998779297</v>
+        <v>30.7699146270752</v>
       </c>
       <c r="J59" t="n">
-        <v>58.2659797668457</v>
+        <v>68.68955230712891</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>153.1024322509766</v>
+        <v>166.0554809570312</v>
       </c>
       <c r="H60" t="n">
-        <v>50.25167083740234</v>
+        <v>43.44415664672852</v>
       </c>
       <c r="I60" t="n">
-        <v>44.0018310546875</v>
+        <v>46.18649291992188</v>
       </c>
       <c r="J60" t="n">
-        <v>60.57883071899414</v>
+        <v>69.52492523193359</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>161.1835327148438</v>
+        <v>175.5572204589844</v>
       </c>
       <c r="H61" t="n">
-        <v>48.22932052612305</v>
+        <v>42.36516571044922</v>
       </c>
       <c r="I61" t="n">
-        <v>65.38412475585938</v>
+        <v>66.67496490478516</v>
       </c>
       <c r="J61" t="n">
-        <v>59.95257949829102</v>
+        <v>67.80522155761719</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>171.2285614013672</v>
+        <v>181.8677978515625</v>
       </c>
       <c r="H62" t="n">
-        <v>47.68164825439453</v>
+        <v>41.49343872070312</v>
       </c>
       <c r="I62" t="n">
-        <v>91.03678894042969</v>
+        <v>91.67958068847656</v>
       </c>
       <c r="J62" t="n">
-        <v>58.76779937744141</v>
+        <v>64.09169769287109</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>181.9742431640625</v>
+        <v>191.2855987548828</v>
       </c>
       <c r="H63" t="n">
-        <v>45.25075912475586</v>
+        <v>41.98916244506836</v>
       </c>
       <c r="I63" t="n">
-        <v>123.3867416381836</v>
+        <v>120.4582824707031</v>
       </c>
       <c r="J63" t="n">
-        <v>55.38201904296875</v>
+        <v>59.98715972900391</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>215.1854858398438</v>
+        <v>220.5223236083984</v>
       </c>
       <c r="H64" t="n">
-        <v>47.5526008605957</v>
+        <v>47.462646484375</v>
       </c>
       <c r="I64" t="n">
-        <v>148.0352935791016</v>
+        <v>133.7661743164062</v>
       </c>
       <c r="J64" t="n">
-        <v>57.91493606567383</v>
+        <v>62.70095825195312</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>318.1781616210938</v>
+        <v>340.0088500976562</v>
       </c>
       <c r="H65" t="n">
-        <v>89.62105560302734</v>
+        <v>86.76331329345703</v>
       </c>
       <c r="I65" t="n">
-        <v>223.184814453125</v>
+        <v>160.8648529052734</v>
       </c>
       <c r="J65" t="n">
-        <v>98.96224975585938</v>
+        <v>94.71366882324219</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>166.0250854492188</v>
+        <v>178.2180480957031</v>
       </c>
       <c r="H66" t="n">
-        <v>51.20440673828125</v>
+        <v>43.46586608886719</v>
       </c>
       <c r="I66" t="n">
-        <v>-22.05154800415039</v>
+        <v>-23.76745223999023</v>
       </c>
       <c r="J66" t="n">
-        <v>71.95675659179688</v>
+        <v>82.65358734130859</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>173.5759582519531</v>
+        <v>187.6451568603516</v>
       </c>
       <c r="H67" t="n">
-        <v>48.09639739990234</v>
+        <v>43.19243240356445</v>
       </c>
       <c r="I67" t="n">
-        <v>-11.76690101623535</v>
+        <v>-11.46993923187256</v>
       </c>
       <c r="J67" t="n">
-        <v>75.08165740966797</v>
+        <v>82.67946624755859</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>182.9187622070312</v>
+        <v>191.5939025878906</v>
       </c>
       <c r="H68" t="n">
-        <v>47.79265594482422</v>
+        <v>39.43454360961914</v>
       </c>
       <c r="I68" t="n">
-        <v>36.75546264648438</v>
+        <v>35.51797866821289</v>
       </c>
       <c r="J68" t="n">
-        <v>69.79082489013672</v>
+        <v>77.16551208496094</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>190.8986663818359</v>
+        <v>197.8126678466797</v>
       </c>
       <c r="H69" t="n">
-        <v>46.10031890869141</v>
+        <v>41.37660980224609</v>
       </c>
       <c r="I69" t="n">
-        <v>66.10140228271484</v>
+        <v>59.07971954345703</v>
       </c>
       <c r="J69" t="n">
-        <v>64.526123046875</v>
+        <v>72.95965576171875</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>215.8912048339844</v>
+        <v>224.880859375</v>
       </c>
       <c r="H70" t="n">
-        <v>52.07862854003906</v>
+        <v>48.85426712036133</v>
       </c>
       <c r="I70" t="n">
-        <v>114.7064437866211</v>
+        <v>93.63181304931641</v>
       </c>
       <c r="J70" t="n">
-        <v>63.57033920288086</v>
+        <v>74.04723358154297</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>190.5570983886719</v>
+        <v>170.8307189941406</v>
       </c>
       <c r="H2" t="n">
-        <v>44.5086669921875</v>
+        <v>44.1763801574707</v>
       </c>
       <c r="I2" t="n">
-        <v>906.07958984375</v>
+        <v>901.5726318359375</v>
       </c>
       <c r="J2" t="n">
-        <v>53.88256072998047</v>
+        <v>58.90743637084961</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>256.6379699707031</v>
+        <v>242.9822845458984</v>
       </c>
       <c r="H3" t="n">
-        <v>42.90547180175781</v>
+        <v>41.58612442016602</v>
       </c>
       <c r="I3" t="n">
-        <v>914.3421630859375</v>
+        <v>907.2510375976562</v>
       </c>
       <c r="J3" t="n">
-        <v>56.77479934692383</v>
+        <v>55.811767578125</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>291.7877197265625</v>
+        <v>282.1012573242188</v>
       </c>
       <c r="H4" t="n">
-        <v>51.62703704833984</v>
+        <v>54.61222839355469</v>
       </c>
       <c r="I4" t="n">
-        <v>920.8945922851562</v>
+        <v>907.3975830078125</v>
       </c>
       <c r="J4" t="n">
-        <v>61.65137100219727</v>
+        <v>56.91176986694336</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>341.1329040527344</v>
+        <v>342.3510131835938</v>
       </c>
       <c r="H5" t="n">
-        <v>86.34221649169922</v>
+        <v>102.8026657104492</v>
       </c>
       <c r="I5" t="n">
-        <v>923.310302734375</v>
+        <v>908.3995971679688</v>
       </c>
       <c r="J5" t="n">
-        <v>64.58016204833984</v>
+        <v>60.58989715576172</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>423.6623840332031</v>
+        <v>447.7955627441406</v>
       </c>
       <c r="H6" t="n">
-        <v>144.6688842773438</v>
+        <v>154.8281097412109</v>
       </c>
       <c r="I6" t="n">
-        <v>926.5293579101562</v>
+        <v>906.0601806640625</v>
       </c>
       <c r="J6" t="n">
-        <v>72.20227813720703</v>
+        <v>65.38249969482422</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>131.2296295166016</v>
+        <v>124.2844924926758</v>
       </c>
       <c r="H7" t="n">
-        <v>47.09479522705078</v>
+        <v>46.71272659301758</v>
       </c>
       <c r="I7" t="n">
-        <v>940.3801879882812</v>
+        <v>945.9302978515625</v>
       </c>
       <c r="J7" t="n">
-        <v>63.76465606689453</v>
+        <v>64.77147674560547</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>143.3772125244141</v>
+        <v>130.5209045410156</v>
       </c>
       <c r="H8" t="n">
-        <v>46.19000625610352</v>
+        <v>46.61532211303711</v>
       </c>
       <c r="I8" t="n">
-        <v>930.6473999023438</v>
+        <v>931.41845703125</v>
       </c>
       <c r="J8" t="n">
-        <v>58.46880722045898</v>
+        <v>57.50507736206055</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>186.5694274902344</v>
+        <v>163.1915740966797</v>
       </c>
       <c r="H9" t="n">
-        <v>43.31081008911133</v>
+        <v>41.32862091064453</v>
       </c>
       <c r="I9" t="n">
-        <v>919.1615600585938</v>
+        <v>919.09033203125</v>
       </c>
       <c r="J9" t="n">
-        <v>59.35943222045898</v>
+        <v>55.66511535644531</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>237.1212463378906</v>
+        <v>209.75634765625</v>
       </c>
       <c r="H10" t="n">
-        <v>46.07174682617188</v>
+        <v>43.89032363891602</v>
       </c>
       <c r="I10" t="n">
-        <v>916.41552734375</v>
+        <v>917.8173217773438</v>
       </c>
       <c r="J10" t="n">
-        <v>58.52397155761719</v>
+        <v>57.56718063354492</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>304.0728759765625</v>
+        <v>275.1221618652344</v>
       </c>
       <c r="H11" t="n">
-        <v>67.00502777099609</v>
+        <v>60.49631500244141</v>
       </c>
       <c r="I11" t="n">
-        <v>919.0399169921875</v>
+        <v>914.326904296875</v>
       </c>
       <c r="J11" t="n">
-        <v>63.86981201171875</v>
+        <v>60.06322479248047</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>383.336669921875</v>
+        <v>386.8444519042969</v>
       </c>
       <c r="H12" t="n">
-        <v>116.1648941040039</v>
+        <v>137.6927490234375</v>
       </c>
       <c r="I12" t="n">
-        <v>914.5789794921875</v>
+        <v>911.4744873046875</v>
       </c>
       <c r="J12" t="n">
-        <v>70.23545074462891</v>
+        <v>73.76152801513672</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>540.4661865234375</v>
+        <v>563.3062744140625</v>
       </c>
       <c r="H13" t="n">
-        <v>162.6154479980469</v>
+        <v>180.0437164306641</v>
       </c>
       <c r="I13" t="n">
-        <v>901.5203247070312</v>
+        <v>895.7352905273438</v>
       </c>
       <c r="J13" t="n">
-        <v>79.74324798583984</v>
+        <v>99.49322509765625</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>126.082145690918</v>
+        <v>117.982536315918</v>
       </c>
       <c r="H14" t="n">
-        <v>51.23978424072266</v>
+        <v>55.33396148681641</v>
       </c>
       <c r="I14" t="n">
-        <v>644.3804931640625</v>
+        <v>746.3978881835938</v>
       </c>
       <c r="J14" t="n">
-        <v>175.1992034912109</v>
+        <v>161.343505859375</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>131.0480804443359</v>
+        <v>120.6298675537109</v>
       </c>
       <c r="H15" t="n">
-        <v>47.89157485961914</v>
+        <v>50.29581832885742</v>
       </c>
       <c r="I15" t="n">
-        <v>973.8770751953125</v>
+        <v>977.9140625</v>
       </c>
       <c r="J15" t="n">
-        <v>72.03907012939453</v>
+        <v>67.22707366943359</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>143.222412109375</v>
+        <v>132.6430816650391</v>
       </c>
       <c r="H16" t="n">
-        <v>47.28067779541016</v>
+        <v>45.42176055908203</v>
       </c>
       <c r="I16" t="n">
-        <v>960.3300170898438</v>
+        <v>969.5864868164062</v>
       </c>
       <c r="J16" t="n">
-        <v>59.87472152709961</v>
+        <v>64.26864624023438</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>155.8025207519531</v>
+        <v>143.4985504150391</v>
       </c>
       <c r="H17" t="n">
-        <v>41.978759765625</v>
+        <v>44.88511276245117</v>
       </c>
       <c r="I17" t="n">
-        <v>958.9613647460938</v>
+        <v>966.9832153320312</v>
       </c>
       <c r="J17" t="n">
-        <v>62.11565780639648</v>
+        <v>60.96110534667969</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>186.2499084472656</v>
+        <v>164.2631072998047</v>
       </c>
       <c r="H18" t="n">
-        <v>41.85485076904297</v>
+        <v>42.51115036010742</v>
       </c>
       <c r="I18" t="n">
-        <v>935.1311645507812</v>
+        <v>947.389404296875</v>
       </c>
       <c r="J18" t="n">
-        <v>62.30810546875</v>
+        <v>62.24238967895508</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>249.9897918701172</v>
+        <v>212.6512451171875</v>
       </c>
       <c r="H19" t="n">
-        <v>54.81775283813477</v>
+        <v>49.84231567382812</v>
       </c>
       <c r="I19" t="n">
-        <v>915.5447998046875</v>
+        <v>928.818359375</v>
       </c>
       <c r="J19" t="n">
-        <v>66.10990905761719</v>
+        <v>70.32589721679688</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>337.7881469726562</v>
+        <v>305.9601135253906</v>
       </c>
       <c r="H20" t="n">
-        <v>84.15147399902344</v>
+        <v>115.0372543334961</v>
       </c>
       <c r="I20" t="n">
-        <v>903.4345703125</v>
+        <v>918.376953125</v>
       </c>
       <c r="J20" t="n">
-        <v>69.58509826660156</v>
+        <v>81.10529327392578</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>525.891357421875</v>
+        <v>521.9503784179688</v>
       </c>
       <c r="H21" t="n">
-        <v>158.9022216796875</v>
+        <v>165.7979888916016</v>
       </c>
       <c r="I21" t="n">
-        <v>896.1694946289062</v>
+        <v>896.9488525390625</v>
       </c>
       <c r="J21" t="n">
-        <v>90.66259765625</v>
+        <v>108.9244384765625</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>728.4784545898438</v>
+        <v>744.7293090820312</v>
       </c>
       <c r="H22" t="n">
-        <v>87.02964782714844</v>
+        <v>81.86146545410156</v>
       </c>
       <c r="I22" t="n">
-        <v>888.8060302734375</v>
+        <v>891.3956298828125</v>
       </c>
       <c r="J22" t="n">
-        <v>99.33882904052734</v>
+        <v>127.6055679321289</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>125.9435119628906</v>
+        <v>119.0003356933594</v>
       </c>
       <c r="H23" t="n">
-        <v>52.52104187011719</v>
+        <v>53.62120819091797</v>
       </c>
       <c r="I23" t="n">
-        <v>234.8028411865234</v>
+        <v>272.7918701171875</v>
       </c>
       <c r="J23" t="n">
-        <v>98.52035522460938</v>
+        <v>105.0390319824219</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>139.8216400146484</v>
+        <v>128.9875640869141</v>
       </c>
       <c r="H24" t="n">
-        <v>48.04789733886719</v>
+        <v>52.26095962524414</v>
       </c>
       <c r="I24" t="n">
-        <v>402.5595092773438</v>
+        <v>535.1990966796875</v>
       </c>
       <c r="J24" t="n">
-        <v>177.0386810302734</v>
+        <v>201.3132781982422</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>147.7711181640625</v>
+        <v>136.7416381835938</v>
       </c>
       <c r="H25" t="n">
-        <v>45.18737030029297</v>
+        <v>48.27529144287109</v>
       </c>
       <c r="I25" t="n">
-        <v>888.0232543945312</v>
+        <v>921.952392578125</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1643447875977</v>
+        <v>104.6534423828125</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>156.5833282470703</v>
+        <v>146.6435852050781</v>
       </c>
       <c r="H26" t="n">
-        <v>44.03215408325195</v>
+        <v>45.25444412231445</v>
       </c>
       <c r="I26" t="n">
-        <v>973.8922119140625</v>
+        <v>987.3726806640625</v>
       </c>
       <c r="J26" t="n">
-        <v>69.92922973632812</v>
+        <v>71.02635192871094</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>174.9142456054688</v>
+        <v>161.6425323486328</v>
       </c>
       <c r="H27" t="n">
-        <v>40.52222061157227</v>
+        <v>42.44504928588867</v>
       </c>
       <c r="I27" t="n">
-        <v>965.5714721679688</v>
+        <v>985.7523803710938</v>
       </c>
       <c r="J27" t="n">
-        <v>63.89983367919922</v>
+        <v>68.57093811035156</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>217.7478485107422</v>
+        <v>195.9649658203125</v>
       </c>
       <c r="H28" t="n">
-        <v>44.68672180175781</v>
+        <v>40.13895416259766</v>
       </c>
       <c r="I28" t="n">
-        <v>928.400390625</v>
+        <v>960.0321044921875</v>
       </c>
       <c r="J28" t="n">
-        <v>69.47385406494141</v>
+        <v>74.78118133544922</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>290.8000793457031</v>
+        <v>243.8405456542969</v>
       </c>
       <c r="H29" t="n">
-        <v>68.09462738037109</v>
+        <v>51.76501846313477</v>
       </c>
       <c r="I29" t="n">
-        <v>897.3119506835938</v>
+        <v>919.8663330078125</v>
       </c>
       <c r="J29" t="n">
-        <v>82.70510864257812</v>
+        <v>93.72386169433594</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>526.4876098632812</v>
+        <v>465.8415222167969</v>
       </c>
       <c r="H30" t="n">
-        <v>152.2035980224609</v>
+        <v>136.3156127929688</v>
       </c>
       <c r="I30" t="n">
-        <v>855.1376953125</v>
+        <v>881.2476806640625</v>
       </c>
       <c r="J30" t="n">
-        <v>117.1057357788086</v>
+        <v>124.7326965332031</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>739.2528076171875</v>
+        <v>706.0410766601562</v>
       </c>
       <c r="H31" t="n">
-        <v>78.80813598632812</v>
+        <v>76.44466400146484</v>
       </c>
       <c r="I31" t="n">
-        <v>825.2564086914062</v>
+        <v>859.0745849609375</v>
       </c>
       <c r="J31" t="n">
-        <v>161.5985870361328</v>
+        <v>169.2338256835938</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>122.6314163208008</v>
+        <v>117.4317855834961</v>
       </c>
       <c r="H32" t="n">
-        <v>52.68232727050781</v>
+        <v>51.24307250976562</v>
       </c>
       <c r="I32" t="n">
-        <v>141.8733520507812</v>
+        <v>151.4191741943359</v>
       </c>
       <c r="J32" t="n">
-        <v>53.07429504394531</v>
+        <v>57.09706878662109</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>140.294677734375</v>
+        <v>133.79248046875</v>
       </c>
       <c r="H33" t="n">
-        <v>48.21649169921875</v>
+        <v>48.78505325317383</v>
       </c>
       <c r="I33" t="n">
-        <v>189.582275390625</v>
+        <v>199.7888641357422</v>
       </c>
       <c r="J33" t="n">
-        <v>77.30365753173828</v>
+        <v>83.92885589599609</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>150.4322662353516</v>
+        <v>144.4893951416016</v>
       </c>
       <c r="H34" t="n">
-        <v>45.84540557861328</v>
+        <v>48.52182388305664</v>
       </c>
       <c r="I34" t="n">
-        <v>312.4635009765625</v>
+        <v>361.552001953125</v>
       </c>
       <c r="J34" t="n">
-        <v>146.3202972412109</v>
+        <v>179.8594970703125</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>162.9038238525391</v>
+        <v>157.9005584716797</v>
       </c>
       <c r="H35" t="n">
-        <v>45.63894271850586</v>
+        <v>47.50521850585938</v>
       </c>
       <c r="I35" t="n">
-        <v>494.5294799804688</v>
+        <v>556.5221557617188</v>
       </c>
       <c r="J35" t="n">
-        <v>192.0014190673828</v>
+        <v>213.5242919921875</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4787139892578</v>
+        <v>177.0549926757812</v>
       </c>
       <c r="H36" t="n">
-        <v>43.07077789306641</v>
+        <v>45.20053482055664</v>
       </c>
       <c r="I36" t="n">
-        <v>781.1138305664062</v>
+        <v>823.46728515625</v>
       </c>
       <c r="J36" t="n">
-        <v>166.4664459228516</v>
+        <v>172.5920562744141</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>203.0848236083984</v>
+        <v>202.2509307861328</v>
       </c>
       <c r="H37" t="n">
-        <v>40.23530578613281</v>
+        <v>43.85755920410156</v>
       </c>
       <c r="I37" t="n">
-        <v>798.9779663085938</v>
+        <v>830.0205078125</v>
       </c>
       <c r="J37" t="n">
-        <v>151.1628112792969</v>
+        <v>161.9253997802734</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>280.3902893066406</v>
+        <v>243.0118255615234</v>
       </c>
       <c r="H38" t="n">
-        <v>59.53712844848633</v>
+        <v>51.13967132568359</v>
       </c>
       <c r="I38" t="n">
-        <v>793.904296875</v>
+        <v>831.9791870117188</v>
       </c>
       <c r="J38" t="n">
-        <v>142.3821868896484</v>
+        <v>152.2840728759766</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>492.2409362792969</v>
+        <v>410.775390625</v>
       </c>
       <c r="H39" t="n">
-        <v>131.8982696533203</v>
+        <v>111.9225616455078</v>
       </c>
       <c r="I39" t="n">
-        <v>725.100341796875</v>
+        <v>808.3848266601562</v>
       </c>
       <c r="J39" t="n">
-        <v>177.3806610107422</v>
+        <v>178.8261108398438</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>725.27490234375</v>
+        <v>672.3562622070312</v>
       </c>
       <c r="H40" t="n">
-        <v>82.63242340087891</v>
+        <v>70.11756896972656</v>
       </c>
       <c r="I40" t="n">
-        <v>626.2892456054688</v>
+        <v>770.7989501953125</v>
       </c>
       <c r="J40" t="n">
-        <v>291.7157592773438</v>
+        <v>227.7690124511719</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>128.9814300537109</v>
+        <v>120.7614822387695</v>
       </c>
       <c r="H41" t="n">
-        <v>51.76584243774414</v>
+        <v>53.60889434814453</v>
       </c>
       <c r="I41" t="n">
-        <v>107.695556640625</v>
+        <v>114.1125106811523</v>
       </c>
       <c r="J41" t="n">
-        <v>44.76172256469727</v>
+        <v>48.50439834594727</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>141.7453002929688</v>
+        <v>132.8198089599609</v>
       </c>
       <c r="H42" t="n">
-        <v>46.06900024414062</v>
+        <v>49.98733901977539</v>
       </c>
       <c r="I42" t="n">
-        <v>128.6381378173828</v>
+        <v>130.8916778564453</v>
       </c>
       <c r="J42" t="n">
-        <v>51.25927734375</v>
+        <v>50.40501403808594</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>154.7103729248047</v>
+        <v>142.7483520507812</v>
       </c>
       <c r="H43" t="n">
-        <v>46.48904800415039</v>
+        <v>50.98217391967773</v>
       </c>
       <c r="I43" t="n">
-        <v>149.5421142578125</v>
+        <v>147.7174072265625</v>
       </c>
       <c r="J43" t="n">
-        <v>58.73150634765625</v>
+        <v>60.87825775146484</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>163.9954986572266</v>
+        <v>152.197509765625</v>
       </c>
       <c r="H44" t="n">
-        <v>45.06397247314453</v>
+        <v>47.18527603149414</v>
       </c>
       <c r="I44" t="n">
-        <v>210.5914154052734</v>
+        <v>224.9627380371094</v>
       </c>
       <c r="J44" t="n">
-        <v>84.22647094726562</v>
+        <v>100.442512512207</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>176.4312896728516</v>
+        <v>163.6324920654297</v>
       </c>
       <c r="H45" t="n">
-        <v>41.97482681274414</v>
+        <v>44.32172775268555</v>
       </c>
       <c r="I45" t="n">
-        <v>263.333740234375</v>
+        <v>287.4509887695312</v>
       </c>
       <c r="J45" t="n">
-        <v>112.6230773925781</v>
+        <v>118.7283554077148</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>192.3553619384766</v>
+        <v>188.8170776367188</v>
       </c>
       <c r="H46" t="n">
-        <v>40.39397811889648</v>
+        <v>41.48055648803711</v>
       </c>
       <c r="I46" t="n">
-        <v>334.1996765136719</v>
+        <v>383.2965087890625</v>
       </c>
       <c r="J46" t="n">
-        <v>137.4553833007812</v>
+        <v>148.9944458007812</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>251.6656188964844</v>
+        <v>232.0859832763672</v>
       </c>
       <c r="H47" t="n">
-        <v>45.69876861572266</v>
+        <v>49.55585861206055</v>
       </c>
       <c r="I47" t="n">
-        <v>398.2618713378906</v>
+        <v>488.5721435546875</v>
       </c>
       <c r="J47" t="n">
-        <v>156.0868072509766</v>
+        <v>194.6470184326172</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>444.7678527832031</v>
+        <v>411.5606079101562</v>
       </c>
       <c r="H48" t="n">
-        <v>112.1182327270508</v>
+        <v>109.10498046875</v>
       </c>
       <c r="I48" t="n">
-        <v>463.9300537109375</v>
+        <v>606.3827514648438</v>
       </c>
       <c r="J48" t="n">
-        <v>205.6936492919922</v>
+        <v>229.7241668701172</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>687.3934936523438</v>
+        <v>641.1128540039062</v>
       </c>
       <c r="H49" t="n">
-        <v>86.67390441894531</v>
+        <v>76.05707550048828</v>
       </c>
       <c r="I49" t="n">
-        <v>479.4442138671875</v>
+        <v>649.061279296875</v>
       </c>
       <c r="J49" t="n">
-        <v>274.040283203125</v>
+        <v>259.4492492675781</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>138.0269775390625</v>
+        <v>123.9150009155273</v>
       </c>
       <c r="H50" t="n">
-        <v>48.23524475097656</v>
+        <v>52.71977615356445</v>
       </c>
       <c r="I50" t="n">
-        <v>74.36405944824219</v>
+        <v>79.74993133544922</v>
       </c>
       <c r="J50" t="n">
-        <v>50.18596649169922</v>
+        <v>44.70833969116211</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>148.8330535888672</v>
+        <v>138.7603454589844</v>
       </c>
       <c r="H51" t="n">
-        <v>44.96327972412109</v>
+        <v>49.89307022094727</v>
       </c>
       <c r="I51" t="n">
-        <v>88.41018676757812</v>
+        <v>91.99303436279297</v>
       </c>
       <c r="J51" t="n">
-        <v>51.11635208129883</v>
+        <v>49.17291641235352</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>160.0399322509766</v>
+        <v>148.1548614501953</v>
       </c>
       <c r="H52" t="n">
-        <v>45.55806350708008</v>
+        <v>49.62110137939453</v>
       </c>
       <c r="I52" t="n">
-        <v>102.6102294921875</v>
+        <v>94.01702880859375</v>
       </c>
       <c r="J52" t="n">
-        <v>53.79276275634766</v>
+        <v>54.07321929931641</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>169.2417144775391</v>
+        <v>153.4843139648438</v>
       </c>
       <c r="H53" t="n">
-        <v>43.22829818725586</v>
+        <v>47.57033538818359</v>
       </c>
       <c r="I53" t="n">
-        <v>124.7872543334961</v>
+        <v>116.9915771484375</v>
       </c>
       <c r="J53" t="n">
-        <v>55.74140167236328</v>
+        <v>64.16162872314453</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>178.1856079101562</v>
+        <v>166.0680694580078</v>
       </c>
       <c r="H54" t="n">
-        <v>41.05684280395508</v>
+        <v>45.2523307800293</v>
       </c>
       <c r="I54" t="n">
-        <v>151.1592407226562</v>
+        <v>147.4705047607422</v>
       </c>
       <c r="J54" t="n">
-        <v>56.65120315551758</v>
+        <v>59.99576950073242</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>195.2085571289062</v>
+        <v>182.1017150878906</v>
       </c>
       <c r="H55" t="n">
-        <v>40.79156875610352</v>
+        <v>41.64591598510742</v>
       </c>
       <c r="I55" t="n">
-        <v>178.2038726806641</v>
+        <v>183.9934387207031</v>
       </c>
       <c r="J55" t="n">
-        <v>52.38750839233398</v>
+        <v>57.94321441650391</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>225.5430145263672</v>
+        <v>219.5467681884766</v>
       </c>
       <c r="H56" t="n">
-        <v>41.436767578125</v>
+        <v>44.83256149291992</v>
       </c>
       <c r="I56" t="n">
-        <v>193.1410217285156</v>
+        <v>198.8037414550781</v>
       </c>
       <c r="J56" t="n">
-        <v>64.23291778564453</v>
+        <v>68.85145568847656</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>356.0606384277344</v>
+        <v>340.1299133300781</v>
       </c>
       <c r="H57" t="n">
-        <v>87.32253265380859</v>
+        <v>102.3960266113281</v>
       </c>
       <c r="I57" t="n">
-        <v>254.2553405761719</v>
+        <v>300.3345031738281</v>
       </c>
       <c r="J57" t="n">
-        <v>146.56298828125</v>
+        <v>162.8891448974609</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>647.0537719726562</v>
+        <v>632.4443969726562</v>
       </c>
       <c r="H58" t="n">
-        <v>98.86194610595703</v>
+        <v>81.36225128173828</v>
       </c>
       <c r="I58" t="n">
-        <v>308.6244506835938</v>
+        <v>402.8795776367188</v>
       </c>
       <c r="J58" t="n">
-        <v>218.4461975097656</v>
+        <v>237.5090026855469</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>156.5770721435547</v>
+        <v>142.0254211425781</v>
       </c>
       <c r="H59" t="n">
-        <v>45.48776626586914</v>
+        <v>48.99907684326172</v>
       </c>
       <c r="I59" t="n">
-        <v>30.7699146270752</v>
+        <v>41.8028564453125</v>
       </c>
       <c r="J59" t="n">
-        <v>68.68955230712891</v>
+        <v>58.03659057617188</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>166.0554809570312</v>
+        <v>150.4657592773438</v>
       </c>
       <c r="H60" t="n">
-        <v>43.44415664672852</v>
+        <v>50.20510101318359</v>
       </c>
       <c r="I60" t="n">
-        <v>46.18649291992188</v>
+        <v>46.6182746887207</v>
       </c>
       <c r="J60" t="n">
-        <v>69.52492523193359</v>
+        <v>62.84212875366211</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>175.5572204589844</v>
+        <v>157.5832061767578</v>
       </c>
       <c r="H61" t="n">
-        <v>42.36516571044922</v>
+        <v>50.12161636352539</v>
       </c>
       <c r="I61" t="n">
-        <v>66.67496490478516</v>
+        <v>61.79262542724609</v>
       </c>
       <c r="J61" t="n">
-        <v>67.80522155761719</v>
+        <v>64.03256225585938</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>181.8677978515625</v>
+        <v>166.7953796386719</v>
       </c>
       <c r="H62" t="n">
-        <v>41.49343872070312</v>
+        <v>47.76846313476562</v>
       </c>
       <c r="I62" t="n">
-        <v>91.67958068847656</v>
+        <v>85.756103515625</v>
       </c>
       <c r="J62" t="n">
-        <v>64.09169769287109</v>
+        <v>64.92662811279297</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>191.2855987548828</v>
+        <v>177.2251892089844</v>
       </c>
       <c r="H63" t="n">
-        <v>41.98916244506836</v>
+        <v>44.1096305847168</v>
       </c>
       <c r="I63" t="n">
-        <v>120.4582824707031</v>
+        <v>117.4672622680664</v>
       </c>
       <c r="J63" t="n">
-        <v>59.98715972900391</v>
+        <v>63.68228912353516</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>220.5223236083984</v>
+        <v>209.9843902587891</v>
       </c>
       <c r="H64" t="n">
-        <v>47.462646484375</v>
+        <v>46.08185577392578</v>
       </c>
       <c r="I64" t="n">
-        <v>133.7661743164062</v>
+        <v>139.3438415527344</v>
       </c>
       <c r="J64" t="n">
-        <v>62.70095825195312</v>
+        <v>57.45806121826172</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>340.0088500976562</v>
+        <v>346.0210876464844</v>
       </c>
       <c r="H65" t="n">
-        <v>86.76331329345703</v>
+        <v>114.8041152954102</v>
       </c>
       <c r="I65" t="n">
-        <v>160.8648529052734</v>
+        <v>175.2415008544922</v>
       </c>
       <c r="J65" t="n">
-        <v>94.71366882324219</v>
+        <v>96.43814086914062</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>178.2180480957031</v>
+        <v>161.7938079833984</v>
       </c>
       <c r="H66" t="n">
-        <v>43.46586608886719</v>
+        <v>50.92514419555664</v>
       </c>
       <c r="I66" t="n">
-        <v>-23.76745223999023</v>
+        <v>-8.234078407287598</v>
       </c>
       <c r="J66" t="n">
-        <v>82.65358734130859</v>
+        <v>68.69439697265625</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>187.6451568603516</v>
+        <v>166.1698150634766</v>
       </c>
       <c r="H67" t="n">
-        <v>43.19243240356445</v>
+        <v>51.31232833862305</v>
       </c>
       <c r="I67" t="n">
-        <v>-11.46993923187256</v>
+        <v>4.080825328826904</v>
       </c>
       <c r="J67" t="n">
-        <v>82.67946624755859</v>
+        <v>73.076171875</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>191.5939025878906</v>
+        <v>177.5827484130859</v>
       </c>
       <c r="H68" t="n">
-        <v>39.43454360961914</v>
+        <v>51.32482147216797</v>
       </c>
       <c r="I68" t="n">
-        <v>35.51797866821289</v>
+        <v>37.66017532348633</v>
       </c>
       <c r="J68" t="n">
-        <v>77.16551208496094</v>
+        <v>70.66144561767578</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>197.8126678466797</v>
+        <v>186.1034851074219</v>
       </c>
       <c r="H69" t="n">
-        <v>41.37660980224609</v>
+        <v>47.43409729003906</v>
       </c>
       <c r="I69" t="n">
-        <v>59.07971954345703</v>
+        <v>56.22250747680664</v>
       </c>
       <c r="J69" t="n">
-        <v>72.95965576171875</v>
+        <v>69.46029663085938</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>224.880859375</v>
+        <v>211.27392578125</v>
       </c>
       <c r="H70" t="n">
-        <v>48.85426712036133</v>
+        <v>49.35981750488281</v>
       </c>
       <c r="I70" t="n">
-        <v>93.63181304931641</v>
+        <v>99.72943878173828</v>
       </c>
       <c r="J70" t="n">
-        <v>74.04723358154297</v>
+        <v>63.95038223266602</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>170.8307189941406</v>
+        <v>149.5930786132812</v>
       </c>
       <c r="H2" t="n">
-        <v>44.1763801574707</v>
+        <v>56.33085632324219</v>
       </c>
       <c r="I2" t="n">
-        <v>901.5726318359375</v>
+        <v>873.6610717773438</v>
       </c>
       <c r="J2" t="n">
-        <v>58.90743637084961</v>
+        <v>75.14371490478516</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>242.9822845458984</v>
+        <v>176.5021209716797</v>
       </c>
       <c r="H3" t="n">
-        <v>41.58612442016602</v>
+        <v>70.55750274658203</v>
       </c>
       <c r="I3" t="n">
-        <v>907.2510375976562</v>
+        <v>882.9088745117188</v>
       </c>
       <c r="J3" t="n">
-        <v>55.811767578125</v>
+        <v>81.98526763916016</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>282.1012573242188</v>
+        <v>210.97509765625</v>
       </c>
       <c r="H4" t="n">
-        <v>54.61222839355469</v>
+        <v>104.9109344482422</v>
       </c>
       <c r="I4" t="n">
-        <v>907.3975830078125</v>
+        <v>892.2263793945312</v>
       </c>
       <c r="J4" t="n">
-        <v>56.91176986694336</v>
+        <v>76.70329284667969</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3510131835938</v>
+        <v>268.4399108886719</v>
       </c>
       <c r="H5" t="n">
-        <v>102.8026657104492</v>
+        <v>139.1605834960938</v>
       </c>
       <c r="I5" t="n">
-        <v>908.3995971679688</v>
+        <v>891.141357421875</v>
       </c>
       <c r="J5" t="n">
-        <v>60.58989715576172</v>
+        <v>82.31859588623047</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>447.7955627441406</v>
+        <v>363.893798828125</v>
       </c>
       <c r="H6" t="n">
-        <v>154.8281097412109</v>
+        <v>173.5213470458984</v>
       </c>
       <c r="I6" t="n">
-        <v>906.0601806640625</v>
+        <v>888.6866455078125</v>
       </c>
       <c r="J6" t="n">
-        <v>65.38249969482422</v>
+        <v>79.56737518310547</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>124.2844924926758</v>
+        <v>133.1073913574219</v>
       </c>
       <c r="H7" t="n">
-        <v>46.71272659301758</v>
+        <v>48.33377075195312</v>
       </c>
       <c r="I7" t="n">
-        <v>945.9302978515625</v>
+        <v>945.0126342773438</v>
       </c>
       <c r="J7" t="n">
-        <v>64.77147674560547</v>
+        <v>68.74794006347656</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>130.5209045410156</v>
+        <v>145.4642944335938</v>
       </c>
       <c r="H8" t="n">
-        <v>46.61532211303711</v>
+        <v>48.9689826965332</v>
       </c>
       <c r="I8" t="n">
-        <v>931.41845703125</v>
+        <v>923.2810668945312</v>
       </c>
       <c r="J8" t="n">
-        <v>57.50507736206055</v>
+        <v>67.59063720703125</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>163.1915740966797</v>
+        <v>162.9749603271484</v>
       </c>
       <c r="H9" t="n">
-        <v>41.32862091064453</v>
+        <v>46.92147064208984</v>
       </c>
       <c r="I9" t="n">
-        <v>919.09033203125</v>
+        <v>908.89990234375</v>
       </c>
       <c r="J9" t="n">
-        <v>55.66511535644531</v>
+        <v>66.92915344238281</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>209.75634765625</v>
+        <v>186.1508636474609</v>
       </c>
       <c r="H10" t="n">
-        <v>43.89032363891602</v>
+        <v>56.4958610534668</v>
       </c>
       <c r="I10" t="n">
-        <v>917.8173217773438</v>
+        <v>904.6777954101562</v>
       </c>
       <c r="J10" t="n">
-        <v>57.56718063354492</v>
+        <v>72.54798889160156</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>275.1221618652344</v>
+        <v>243.0450286865234</v>
       </c>
       <c r="H11" t="n">
-        <v>60.49631500244141</v>
+        <v>102.2559509277344</v>
       </c>
       <c r="I11" t="n">
-        <v>914.326904296875</v>
+        <v>902.6644897460938</v>
       </c>
       <c r="J11" t="n">
-        <v>60.06322479248047</v>
+        <v>73.96546936035156</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>386.8444519042969</v>
+        <v>347.84423828125</v>
       </c>
       <c r="H12" t="n">
-        <v>137.6927490234375</v>
+        <v>170.3254699707031</v>
       </c>
       <c r="I12" t="n">
-        <v>911.4744873046875</v>
+        <v>893.6311645507812</v>
       </c>
       <c r="J12" t="n">
-        <v>73.76152801513672</v>
+        <v>77.63058471679688</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>563.3062744140625</v>
+        <v>509.7666015625</v>
       </c>
       <c r="H13" t="n">
-        <v>180.0437164306641</v>
+        <v>201.9098968505859</v>
       </c>
       <c r="I13" t="n">
-        <v>895.7352905273438</v>
+        <v>881.2866821289062</v>
       </c>
       <c r="J13" t="n">
-        <v>99.49322509765625</v>
+        <v>84.60145568847656</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>117.982536315918</v>
+        <v>135.0709533691406</v>
       </c>
       <c r="H14" t="n">
-        <v>55.33396148681641</v>
+        <v>50.45229721069336</v>
       </c>
       <c r="I14" t="n">
-        <v>746.3978881835938</v>
+        <v>687.2044677734375</v>
       </c>
       <c r="J14" t="n">
-        <v>161.343505859375</v>
+        <v>200.2727203369141</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>120.6298675537109</v>
+        <v>135.4882659912109</v>
       </c>
       <c r="H15" t="n">
-        <v>50.29581832885742</v>
+        <v>46.35207366943359</v>
       </c>
       <c r="I15" t="n">
-        <v>977.9140625</v>
+        <v>972.9713745117188</v>
       </c>
       <c r="J15" t="n">
-        <v>67.22707366943359</v>
+        <v>73.40884399414062</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>132.6430816650391</v>
+        <v>144.6133422851562</v>
       </c>
       <c r="H16" t="n">
-        <v>45.42176055908203</v>
+        <v>46.96025466918945</v>
       </c>
       <c r="I16" t="n">
-        <v>969.5864868164062</v>
+        <v>962.12353515625</v>
       </c>
       <c r="J16" t="n">
-        <v>64.26864624023438</v>
+        <v>70.64518737792969</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>143.4985504150391</v>
+        <v>158.6017456054688</v>
       </c>
       <c r="H17" t="n">
-        <v>44.88511276245117</v>
+        <v>43.50258255004883</v>
       </c>
       <c r="I17" t="n">
-        <v>966.9832153320312</v>
+        <v>956.4457397460938</v>
       </c>
       <c r="J17" t="n">
-        <v>60.96110534667969</v>
+        <v>64.16091918945312</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>164.2631072998047</v>
+        <v>177.0597076416016</v>
       </c>
       <c r="H18" t="n">
-        <v>42.51115036010742</v>
+        <v>43.80946731567383</v>
       </c>
       <c r="I18" t="n">
-        <v>947.389404296875</v>
+        <v>939.74560546875</v>
       </c>
       <c r="J18" t="n">
-        <v>62.24238967895508</v>
+        <v>66.76328277587891</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>212.6512451171875</v>
+        <v>225.5104217529297</v>
       </c>
       <c r="H19" t="n">
-        <v>49.84231567382812</v>
+        <v>61.89791488647461</v>
       </c>
       <c r="I19" t="n">
-        <v>928.818359375</v>
+        <v>926.7686157226562</v>
       </c>
       <c r="J19" t="n">
-        <v>70.32589721679688</v>
+        <v>75.56703186035156</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>305.9601135253906</v>
+        <v>302.3383178710938</v>
       </c>
       <c r="H20" t="n">
-        <v>115.0372543334961</v>
+        <v>126.5255279541016</v>
       </c>
       <c r="I20" t="n">
-        <v>918.376953125</v>
+        <v>903.639404296875</v>
       </c>
       <c r="J20" t="n">
-        <v>81.10529327392578</v>
+        <v>79.94386291503906</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>521.9503784179688</v>
+        <v>484.4425964355469</v>
       </c>
       <c r="H21" t="n">
-        <v>165.7979888916016</v>
+        <v>201.4697875976562</v>
       </c>
       <c r="I21" t="n">
-        <v>896.9488525390625</v>
+        <v>879.9146118164062</v>
       </c>
       <c r="J21" t="n">
-        <v>108.9244384765625</v>
+        <v>92.11599731445312</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>744.7293090820312</v>
+        <v>695.6476440429688</v>
       </c>
       <c r="H22" t="n">
-        <v>81.86146545410156</v>
+        <v>127.0970458984375</v>
       </c>
       <c r="I22" t="n">
-        <v>891.3956298828125</v>
+        <v>842.187744140625</v>
       </c>
       <c r="J22" t="n">
-        <v>127.6055679321289</v>
+        <v>118.6014709472656</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>119.0003356933594</v>
+        <v>135.80029296875</v>
       </c>
       <c r="H23" t="n">
-        <v>53.62120819091797</v>
+        <v>51.90636825561523</v>
       </c>
       <c r="I23" t="n">
-        <v>272.7918701171875</v>
+        <v>241.9087982177734</v>
       </c>
       <c r="J23" t="n">
-        <v>105.0390319824219</v>
+        <v>96.66371917724609</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>128.9875640869141</v>
+        <v>144.424072265625</v>
       </c>
       <c r="H24" t="n">
-        <v>52.26095962524414</v>
+        <v>48.17604064941406</v>
       </c>
       <c r="I24" t="n">
-        <v>535.1990966796875</v>
+        <v>438.6019897460938</v>
       </c>
       <c r="J24" t="n">
-        <v>201.3132781982422</v>
+        <v>183.2030639648438</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>136.7416381835938</v>
+        <v>153.5196838378906</v>
       </c>
       <c r="H25" t="n">
-        <v>48.27529144287109</v>
+        <v>44.10543823242188</v>
       </c>
       <c r="I25" t="n">
-        <v>921.952392578125</v>
+        <v>897.9586181640625</v>
       </c>
       <c r="J25" t="n">
-        <v>104.6534423828125</v>
+        <v>107.4607162475586</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>146.6435852050781</v>
+        <v>163.6117248535156</v>
       </c>
       <c r="H26" t="n">
-        <v>45.25444412231445</v>
+        <v>41.8122673034668</v>
       </c>
       <c r="I26" t="n">
-        <v>987.3726806640625</v>
+        <v>976.9983520507812</v>
       </c>
       <c r="J26" t="n">
-        <v>71.02635192871094</v>
+        <v>70.91751098632812</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>161.6425323486328</v>
+        <v>177.8462982177734</v>
       </c>
       <c r="H27" t="n">
-        <v>42.44504928588867</v>
+        <v>38.51500701904297</v>
       </c>
       <c r="I27" t="n">
-        <v>985.7523803710938</v>
+        <v>970.1943969726562</v>
       </c>
       <c r="J27" t="n">
-        <v>68.57093811035156</v>
+        <v>66.17915344238281</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>195.9649658203125</v>
+        <v>213.353515625</v>
       </c>
       <c r="H28" t="n">
-        <v>40.13895416259766</v>
+        <v>43.6988525390625</v>
       </c>
       <c r="I28" t="n">
-        <v>960.0321044921875</v>
+        <v>946.1578369140625</v>
       </c>
       <c r="J28" t="n">
-        <v>74.78118133544922</v>
+        <v>72.19952392578125</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>243.8405456542969</v>
+        <v>275.903076171875</v>
       </c>
       <c r="H29" t="n">
-        <v>51.76501846313477</v>
+        <v>75.27573394775391</v>
       </c>
       <c r="I29" t="n">
-        <v>919.8663330078125</v>
+        <v>902.8106079101562</v>
       </c>
       <c r="J29" t="n">
-        <v>93.72386169433594</v>
+        <v>92.18555450439453</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>465.8415222167969</v>
+        <v>466.1219177246094</v>
       </c>
       <c r="H30" t="n">
-        <v>136.3156127929688</v>
+        <v>178.1966247558594</v>
       </c>
       <c r="I30" t="n">
-        <v>881.2476806640625</v>
+        <v>848.9883422851562</v>
       </c>
       <c r="J30" t="n">
-        <v>124.7326965332031</v>
+        <v>117.1403961181641</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>706.0410766601562</v>
+        <v>697.0214233398438</v>
       </c>
       <c r="H31" t="n">
-        <v>76.44466400146484</v>
+        <v>92.41004180908203</v>
       </c>
       <c r="I31" t="n">
-        <v>859.0745849609375</v>
+        <v>787.4052734375</v>
       </c>
       <c r="J31" t="n">
-        <v>169.2338256835938</v>
+        <v>180.6876068115234</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>117.4317855834961</v>
+        <v>133.3348999023438</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24307250976562</v>
+        <v>51.92092895507812</v>
       </c>
       <c r="I32" t="n">
-        <v>151.4191741943359</v>
+        <v>141.9770660400391</v>
       </c>
       <c r="J32" t="n">
-        <v>57.09706878662109</v>
+        <v>59.87953567504883</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>133.79248046875</v>
+        <v>143.2712554931641</v>
       </c>
       <c r="H33" t="n">
-        <v>48.78505325317383</v>
+        <v>47.79478454589844</v>
       </c>
       <c r="I33" t="n">
-        <v>199.7888641357422</v>
+        <v>193.4806365966797</v>
       </c>
       <c r="J33" t="n">
-        <v>83.92885589599609</v>
+        <v>82.15825653076172</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>144.4893951416016</v>
+        <v>157.2175750732422</v>
       </c>
       <c r="H34" t="n">
-        <v>48.52182388305664</v>
+        <v>44.49493408203125</v>
       </c>
       <c r="I34" t="n">
-        <v>361.552001953125</v>
+        <v>314.8018188476562</v>
       </c>
       <c r="J34" t="n">
-        <v>179.8594970703125</v>
+        <v>153.8073120117188</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>157.9005584716797</v>
+        <v>173.2916564941406</v>
       </c>
       <c r="H35" t="n">
-        <v>47.50521850585938</v>
+        <v>43.68595886230469</v>
       </c>
       <c r="I35" t="n">
-        <v>556.5221557617188</v>
+        <v>526.8106689453125</v>
       </c>
       <c r="J35" t="n">
-        <v>213.5242919921875</v>
+        <v>198.0554351806641</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>177.0549926757812</v>
+        <v>191.6004486083984</v>
       </c>
       <c r="H36" t="n">
-        <v>45.20053482055664</v>
+        <v>39.43300247192383</v>
       </c>
       <c r="I36" t="n">
-        <v>823.46728515625</v>
+        <v>802.8055419921875</v>
       </c>
       <c r="J36" t="n">
-        <v>172.5920562744141</v>
+        <v>150.6242980957031</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>202.2509307861328</v>
+        <v>213.9683990478516</v>
       </c>
       <c r="H37" t="n">
-        <v>43.85755920410156</v>
+        <v>36.22784805297852</v>
       </c>
       <c r="I37" t="n">
-        <v>830.0205078125</v>
+        <v>807.4246215820312</v>
       </c>
       <c r="J37" t="n">
-        <v>161.9253997802734</v>
+        <v>140.4315185546875</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>243.0118255615234</v>
+        <v>272.8505859375</v>
       </c>
       <c r="H38" t="n">
-        <v>51.13967132568359</v>
+        <v>52.25247573852539</v>
       </c>
       <c r="I38" t="n">
-        <v>831.9791870117188</v>
+        <v>818.1425170898438</v>
       </c>
       <c r="J38" t="n">
-        <v>152.2840728759766</v>
+        <v>154.4414978027344</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>410.775390625</v>
+        <v>450.2463073730469</v>
       </c>
       <c r="H39" t="n">
-        <v>111.9225616455078</v>
+        <v>144.2139129638672</v>
       </c>
       <c r="I39" t="n">
-        <v>808.3848266601562</v>
+        <v>751.2308349609375</v>
       </c>
       <c r="J39" t="n">
-        <v>178.8261108398438</v>
+        <v>191.0722503662109</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>672.3562622070312</v>
+        <v>684.3006591796875</v>
       </c>
       <c r="H40" t="n">
-        <v>70.11756896972656</v>
+        <v>80.45807647705078</v>
       </c>
       <c r="I40" t="n">
-        <v>770.7989501953125</v>
+        <v>710.58154296875</v>
       </c>
       <c r="J40" t="n">
-        <v>227.7690124511719</v>
+        <v>218.8884887695312</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>120.7614822387695</v>
+        <v>129.0152587890625</v>
       </c>
       <c r="H41" t="n">
-        <v>53.60889434814453</v>
+        <v>53.61013793945312</v>
       </c>
       <c r="I41" t="n">
-        <v>114.1125106811523</v>
+        <v>106.7922744750977</v>
       </c>
       <c r="J41" t="n">
-        <v>48.50439834594727</v>
+        <v>45.04558563232422</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>132.8198089599609</v>
+        <v>141.2423248291016</v>
       </c>
       <c r="H42" t="n">
-        <v>49.98733901977539</v>
+        <v>49.63262176513672</v>
       </c>
       <c r="I42" t="n">
-        <v>130.8916778564453</v>
+        <v>129.2881317138672</v>
       </c>
       <c r="J42" t="n">
-        <v>50.40501403808594</v>
+        <v>52.53923797607422</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>142.7483520507812</v>
+        <v>151.6752014160156</v>
       </c>
       <c r="H43" t="n">
-        <v>50.98217391967773</v>
+        <v>46.94818115234375</v>
       </c>
       <c r="I43" t="n">
-        <v>147.7174072265625</v>
+        <v>150.74609375</v>
       </c>
       <c r="J43" t="n">
-        <v>60.87825775146484</v>
+        <v>62.63845062255859</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>152.197509765625</v>
+        <v>165.700927734375</v>
       </c>
       <c r="H44" t="n">
-        <v>47.18527603149414</v>
+        <v>45.11236572265625</v>
       </c>
       <c r="I44" t="n">
-        <v>224.9627380371094</v>
+        <v>237.7664794921875</v>
       </c>
       <c r="J44" t="n">
-        <v>100.442512512207</v>
+        <v>108.8067474365234</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>163.6324920654297</v>
+        <v>181.2759704589844</v>
       </c>
       <c r="H45" t="n">
-        <v>44.32172775268555</v>
+        <v>40.63103103637695</v>
       </c>
       <c r="I45" t="n">
-        <v>287.4509887695312</v>
+        <v>296.9949951171875</v>
       </c>
       <c r="J45" t="n">
-        <v>118.7283554077148</v>
+        <v>147.7950286865234</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>188.8170776367188</v>
+        <v>207.8882446289062</v>
       </c>
       <c r="H46" t="n">
-        <v>41.48055648803711</v>
+        <v>38.77446746826172</v>
       </c>
       <c r="I46" t="n">
-        <v>383.2965087890625</v>
+        <v>382.1753845214844</v>
       </c>
       <c r="J46" t="n">
-        <v>148.9944458007812</v>
+        <v>139.9912719726562</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>232.0859832763672</v>
+        <v>253.8854217529297</v>
       </c>
       <c r="H47" t="n">
-        <v>49.55585861206055</v>
+        <v>42.22163009643555</v>
       </c>
       <c r="I47" t="n">
-        <v>488.5721435546875</v>
+        <v>460.8810424804688</v>
       </c>
       <c r="J47" t="n">
-        <v>194.6470184326172</v>
+        <v>211.5670166015625</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>411.5606079101562</v>
+        <v>436.3111572265625</v>
       </c>
       <c r="H48" t="n">
-        <v>109.10498046875</v>
+        <v>117.7347869873047</v>
       </c>
       <c r="I48" t="n">
-        <v>606.3827514648438</v>
+        <v>556.5275268554688</v>
       </c>
       <c r="J48" t="n">
-        <v>229.7241668701172</v>
+        <v>260.2729187011719</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>641.1128540039062</v>
+        <v>644.6849975585938</v>
       </c>
       <c r="H49" t="n">
-        <v>76.05707550048828</v>
+        <v>95.50499725341797</v>
       </c>
       <c r="I49" t="n">
-        <v>649.061279296875</v>
+        <v>577.5098876953125</v>
       </c>
       <c r="J49" t="n">
-        <v>259.4492492675781</v>
+        <v>251.4844207763672</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>123.9150009155273</v>
+        <v>130.9426116943359</v>
       </c>
       <c r="H50" t="n">
-        <v>52.71977615356445</v>
+        <v>52.36981964111328</v>
       </c>
       <c r="I50" t="n">
-        <v>79.74993133544922</v>
+        <v>72.11103820800781</v>
       </c>
       <c r="J50" t="n">
-        <v>44.70833969116211</v>
+        <v>45.89780807495117</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>138.7603454589844</v>
+        <v>142.0056610107422</v>
       </c>
       <c r="H51" t="n">
-        <v>49.89307022094727</v>
+        <v>50.01837158203125</v>
       </c>
       <c r="I51" t="n">
-        <v>91.99303436279297</v>
+        <v>86.33456420898438</v>
       </c>
       <c r="J51" t="n">
-        <v>49.17291641235352</v>
+        <v>46.89628982543945</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>148.1548614501953</v>
+        <v>151.2962036132812</v>
       </c>
       <c r="H52" t="n">
-        <v>49.62110137939453</v>
+        <v>48.00667190551758</v>
       </c>
       <c r="I52" t="n">
-        <v>94.01702880859375</v>
+        <v>97.93488311767578</v>
       </c>
       <c r="J52" t="n">
-        <v>54.07321929931641</v>
+        <v>49.33027267456055</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>153.4843139648438</v>
+        <v>166.7982482910156</v>
       </c>
       <c r="H53" t="n">
-        <v>47.57033538818359</v>
+        <v>47.36638641357422</v>
       </c>
       <c r="I53" t="n">
-        <v>116.9915771484375</v>
+        <v>126.9194107055664</v>
       </c>
       <c r="J53" t="n">
-        <v>64.16162872314453</v>
+        <v>59.41568374633789</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>166.0680694580078</v>
+        <v>179.4427795410156</v>
       </c>
       <c r="H54" t="n">
-        <v>45.2523307800293</v>
+        <v>43.07497024536133</v>
       </c>
       <c r="I54" t="n">
-        <v>147.4705047607422</v>
+        <v>153.7786254882812</v>
       </c>
       <c r="J54" t="n">
-        <v>59.99576950073242</v>
+        <v>59.31459426879883</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>182.1017150878906</v>
+        <v>199.7009124755859</v>
       </c>
       <c r="H55" t="n">
-        <v>41.64591598510742</v>
+        <v>39.88875198364258</v>
       </c>
       <c r="I55" t="n">
-        <v>183.9934387207031</v>
+        <v>190.4671020507812</v>
       </c>
       <c r="J55" t="n">
-        <v>57.94321441650391</v>
+        <v>58.097412109375</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>219.5467681884766</v>
+        <v>241.313720703125</v>
       </c>
       <c r="H56" t="n">
-        <v>44.83256149291992</v>
+        <v>44.86104583740234</v>
       </c>
       <c r="I56" t="n">
-        <v>198.8037414550781</v>
+        <v>204.5900726318359</v>
       </c>
       <c r="J56" t="n">
-        <v>68.85145568847656</v>
+        <v>75.79307556152344</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>340.1299133300781</v>
+        <v>371.0311584472656</v>
       </c>
       <c r="H57" t="n">
-        <v>102.3960266113281</v>
+        <v>107.6125564575195</v>
       </c>
       <c r="I57" t="n">
-        <v>300.3345031738281</v>
+        <v>288.3507690429688</v>
       </c>
       <c r="J57" t="n">
-        <v>162.8891448974609</v>
+        <v>169.3838958740234</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>632.4443969726562</v>
+        <v>617.8223876953125</v>
       </c>
       <c r="H58" t="n">
-        <v>81.36225128173828</v>
+        <v>94.34037780761719</v>
       </c>
       <c r="I58" t="n">
-        <v>402.8795776367188</v>
+        <v>372.8930969238281</v>
       </c>
       <c r="J58" t="n">
-        <v>237.5090026855469</v>
+        <v>231.8861999511719</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>142.0254211425781</v>
+        <v>149.9632263183594</v>
       </c>
       <c r="H59" t="n">
-        <v>48.99907684326172</v>
+        <v>49.87351226806641</v>
       </c>
       <c r="I59" t="n">
-        <v>41.8028564453125</v>
+        <v>36.91277694702148</v>
       </c>
       <c r="J59" t="n">
-        <v>58.03659057617188</v>
+        <v>55.6201171875</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>150.4657592773438</v>
+        <v>158.5070648193359</v>
       </c>
       <c r="H60" t="n">
-        <v>50.20510101318359</v>
+        <v>50.64443588256836</v>
       </c>
       <c r="I60" t="n">
-        <v>46.6182746887207</v>
+        <v>45.91592407226562</v>
       </c>
       <c r="J60" t="n">
-        <v>62.84212875366211</v>
+        <v>55.64604949951172</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>157.5832061767578</v>
+        <v>166.4045715332031</v>
       </c>
       <c r="H61" t="n">
-        <v>50.12161636352539</v>
+        <v>47.19298934936523</v>
       </c>
       <c r="I61" t="n">
-        <v>61.79262542724609</v>
+        <v>59.80162811279297</v>
       </c>
       <c r="J61" t="n">
-        <v>64.03256225585938</v>
+        <v>58.12785339355469</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>166.7953796386719</v>
+        <v>177.9447784423828</v>
       </c>
       <c r="H62" t="n">
-        <v>47.76846313476562</v>
+        <v>46.21673965454102</v>
       </c>
       <c r="I62" t="n">
-        <v>85.756103515625</v>
+        <v>82.11543273925781</v>
       </c>
       <c r="J62" t="n">
-        <v>64.92662811279297</v>
+        <v>60.76541137695312</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>177.2251892089844</v>
+        <v>196.5634002685547</v>
       </c>
       <c r="H63" t="n">
-        <v>44.1096305847168</v>
+        <v>42.94133377075195</v>
       </c>
       <c r="I63" t="n">
-        <v>117.4672622680664</v>
+        <v>109.1885070800781</v>
       </c>
       <c r="J63" t="n">
-        <v>63.68228912353516</v>
+        <v>54.69685363769531</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>209.9843902587891</v>
+        <v>235.0810394287109</v>
       </c>
       <c r="H64" t="n">
-        <v>46.08185577392578</v>
+        <v>46.25088500976562</v>
       </c>
       <c r="I64" t="n">
-        <v>139.3438415527344</v>
+        <v>133.0704040527344</v>
       </c>
       <c r="J64" t="n">
-        <v>57.45806121826172</v>
+        <v>56.35438537597656</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>346.0210876464844</v>
+        <v>386.4186706542969</v>
       </c>
       <c r="H65" t="n">
-        <v>114.8041152954102</v>
+        <v>124.3056869506836</v>
       </c>
       <c r="I65" t="n">
-        <v>175.2415008544922</v>
+        <v>170.037353515625</v>
       </c>
       <c r="J65" t="n">
-        <v>96.43814086914062</v>
+        <v>94.79294586181641</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>161.7938079833984</v>
+        <v>173.5358428955078</v>
       </c>
       <c r="H66" t="n">
-        <v>50.92514419555664</v>
+        <v>45.92337036132812</v>
       </c>
       <c r="I66" t="n">
-        <v>-8.234078407287598</v>
+        <v>-25.61185073852539</v>
       </c>
       <c r="J66" t="n">
-        <v>68.69439697265625</v>
+        <v>67.17245483398438</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>166.1698150634766</v>
+        <v>179.8137359619141</v>
       </c>
       <c r="H67" t="n">
-        <v>51.31232833862305</v>
+        <v>48.17974090576172</v>
       </c>
       <c r="I67" t="n">
-        <v>4.080825328826904</v>
+        <v>-15.49668502807617</v>
       </c>
       <c r="J67" t="n">
-        <v>73.076171875</v>
+        <v>70.77094268798828</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>177.5827484130859</v>
+        <v>193.7220001220703</v>
       </c>
       <c r="H68" t="n">
-        <v>51.32482147216797</v>
+        <v>47.09123992919922</v>
       </c>
       <c r="I68" t="n">
-        <v>37.66017532348633</v>
+        <v>23.92398643493652</v>
       </c>
       <c r="J68" t="n">
-        <v>70.66144561767578</v>
+        <v>67.52377319335938</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>186.1034851074219</v>
+        <v>206.0434265136719</v>
       </c>
       <c r="H69" t="n">
-        <v>47.43409729003906</v>
+        <v>45.81241607666016</v>
       </c>
       <c r="I69" t="n">
-        <v>56.22250747680664</v>
+        <v>52.32902526855469</v>
       </c>
       <c r="J69" t="n">
-        <v>69.46029663085938</v>
+        <v>66.13067626953125</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>211.27392578125</v>
+        <v>240.6586761474609</v>
       </c>
       <c r="H70" t="n">
-        <v>49.35981750488281</v>
+        <v>53.73568725585938</v>
       </c>
       <c r="I70" t="n">
-        <v>99.72943878173828</v>
+        <v>98.37865447998047</v>
       </c>
       <c r="J70" t="n">
-        <v>63.95038223266602</v>
+        <v>64.092529296875</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>149.5930786132812</v>
+        <v>150.9337005615234</v>
       </c>
       <c r="H2" t="n">
-        <v>56.33085632324219</v>
+        <v>53.8475456237793</v>
       </c>
       <c r="I2" t="n">
-        <v>873.6610717773438</v>
+        <v>871.57568359375</v>
       </c>
       <c r="J2" t="n">
-        <v>75.14371490478516</v>
+        <v>75.23647308349609</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>176.5021209716797</v>
+        <v>179.9009094238281</v>
       </c>
       <c r="H3" t="n">
-        <v>70.55750274658203</v>
+        <v>73.88014984130859</v>
       </c>
       <c r="I3" t="n">
-        <v>882.9088745117188</v>
+        <v>878.1034545898438</v>
       </c>
       <c r="J3" t="n">
-        <v>81.98526763916016</v>
+        <v>82.36349487304688</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>210.97509765625</v>
+        <v>213.4489288330078</v>
       </c>
       <c r="H4" t="n">
-        <v>104.9109344482422</v>
+        <v>100.7029266357422</v>
       </c>
       <c r="I4" t="n">
-        <v>892.2263793945312</v>
+        <v>890.4705200195312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.70329284667969</v>
+        <v>82.93563842773438</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>268.4399108886719</v>
+        <v>263.1041259765625</v>
       </c>
       <c r="H5" t="n">
-        <v>139.1605834960938</v>
+        <v>126.2951202392578</v>
       </c>
       <c r="I5" t="n">
-        <v>891.141357421875</v>
+        <v>894.055908203125</v>
       </c>
       <c r="J5" t="n">
-        <v>82.31859588623047</v>
+        <v>84.08899688720703</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>363.893798828125</v>
+        <v>361.0043334960938</v>
       </c>
       <c r="H6" t="n">
-        <v>173.5213470458984</v>
+        <v>165.5689544677734</v>
       </c>
       <c r="I6" t="n">
-        <v>888.6866455078125</v>
+        <v>891.2073974609375</v>
       </c>
       <c r="J6" t="n">
-        <v>79.56737518310547</v>
+        <v>76.64186096191406</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1073913574219</v>
+        <v>136.7103576660156</v>
       </c>
       <c r="H7" t="n">
-        <v>48.33377075195312</v>
+        <v>47.49245834350586</v>
       </c>
       <c r="I7" t="n">
-        <v>945.0126342773438</v>
+        <v>944.9454345703125</v>
       </c>
       <c r="J7" t="n">
-        <v>68.74794006347656</v>
+        <v>69.94969177246094</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>145.4642944335938</v>
+        <v>141.6121368408203</v>
       </c>
       <c r="H8" t="n">
-        <v>48.9689826965332</v>
+        <v>46.90735626220703</v>
       </c>
       <c r="I8" t="n">
-        <v>923.2810668945312</v>
+        <v>921.686279296875</v>
       </c>
       <c r="J8" t="n">
-        <v>67.59063720703125</v>
+        <v>68.56342315673828</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>162.9749603271484</v>
+        <v>157.6006774902344</v>
       </c>
       <c r="H9" t="n">
-        <v>46.92147064208984</v>
+        <v>51.99420928955078</v>
       </c>
       <c r="I9" t="n">
-        <v>908.89990234375</v>
+        <v>909.4921875</v>
       </c>
       <c r="J9" t="n">
-        <v>66.92915344238281</v>
+        <v>67.94887542724609</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>186.1508636474609</v>
+        <v>182.503173828125</v>
       </c>
       <c r="H10" t="n">
-        <v>56.4958610534668</v>
+        <v>57.44336318969727</v>
       </c>
       <c r="I10" t="n">
-        <v>904.6777954101562</v>
+        <v>909.0989379882812</v>
       </c>
       <c r="J10" t="n">
-        <v>72.54798889160156</v>
+        <v>67.68412780761719</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>243.0450286865234</v>
+        <v>235.6336212158203</v>
       </c>
       <c r="H11" t="n">
-        <v>102.2559509277344</v>
+        <v>88.31935119628906</v>
       </c>
       <c r="I11" t="n">
-        <v>902.6644897460938</v>
+        <v>901.5504150390625</v>
       </c>
       <c r="J11" t="n">
-        <v>73.96546936035156</v>
+        <v>73.7890625</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>347.84423828125</v>
+        <v>346.1292724609375</v>
       </c>
       <c r="H12" t="n">
-        <v>170.3254699707031</v>
+        <v>169.2503356933594</v>
       </c>
       <c r="I12" t="n">
-        <v>893.6311645507812</v>
+        <v>894.3775024414062</v>
       </c>
       <c r="J12" t="n">
-        <v>77.63058471679688</v>
+        <v>76.02303314208984</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>509.7666015625</v>
+        <v>511.0900573730469</v>
       </c>
       <c r="H13" t="n">
-        <v>201.9098968505859</v>
+        <v>199.8746337890625</v>
       </c>
       <c r="I13" t="n">
-        <v>881.2866821289062</v>
+        <v>882.4933471679688</v>
       </c>
       <c r="J13" t="n">
-        <v>84.60145568847656</v>
+        <v>86.46798706054688</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>135.0709533691406</v>
+        <v>136.7140350341797</v>
       </c>
       <c r="H14" t="n">
-        <v>50.45229721069336</v>
+        <v>50.75782775878906</v>
       </c>
       <c r="I14" t="n">
-        <v>687.2044677734375</v>
+        <v>690.17822265625</v>
       </c>
       <c r="J14" t="n">
-        <v>200.2727203369141</v>
+        <v>204.0307922363281</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4882659912109</v>
+        <v>133.6263580322266</v>
       </c>
       <c r="H15" t="n">
-        <v>46.35207366943359</v>
+        <v>49.059326171875</v>
       </c>
       <c r="I15" t="n">
-        <v>972.9713745117188</v>
+        <v>974.2297973632812</v>
       </c>
       <c r="J15" t="n">
-        <v>73.40884399414062</v>
+        <v>70.19703674316406</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>144.6133422851562</v>
+        <v>144.6031494140625</v>
       </c>
       <c r="H16" t="n">
-        <v>46.96025466918945</v>
+        <v>46.32070922851562</v>
       </c>
       <c r="I16" t="n">
-        <v>962.12353515625</v>
+        <v>961.0165405273438</v>
       </c>
       <c r="J16" t="n">
-        <v>70.64518737792969</v>
+        <v>70.98085021972656</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>158.6017456054688</v>
+        <v>155.0972595214844</v>
       </c>
       <c r="H17" t="n">
-        <v>43.50258255004883</v>
+        <v>45.03501129150391</v>
       </c>
       <c r="I17" t="n">
-        <v>956.4457397460938</v>
+        <v>958.6913452148438</v>
       </c>
       <c r="J17" t="n">
-        <v>64.16091918945312</v>
+        <v>66.19084930419922</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>177.0597076416016</v>
+        <v>178.227294921875</v>
       </c>
       <c r="H18" t="n">
-        <v>43.80946731567383</v>
+        <v>44.4919319152832</v>
       </c>
       <c r="I18" t="n">
-        <v>939.74560546875</v>
+        <v>945.9074096679688</v>
       </c>
       <c r="J18" t="n">
-        <v>66.76328277587891</v>
+        <v>63.6595573425293</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>225.5104217529297</v>
+        <v>226.3475799560547</v>
       </c>
       <c r="H19" t="n">
-        <v>61.89791488647461</v>
+        <v>62.16849517822266</v>
       </c>
       <c r="I19" t="n">
-        <v>926.7686157226562</v>
+        <v>923.4886474609375</v>
       </c>
       <c r="J19" t="n">
-        <v>75.56703186035156</v>
+        <v>73.37316131591797</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>302.3383178710938</v>
+        <v>305.8831176757812</v>
       </c>
       <c r="H20" t="n">
-        <v>126.5255279541016</v>
+        <v>132.5109100341797</v>
       </c>
       <c r="I20" t="n">
-        <v>903.639404296875</v>
+        <v>903.9159545898438</v>
       </c>
       <c r="J20" t="n">
-        <v>79.94386291503906</v>
+        <v>83.11394500732422</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>484.4425964355469</v>
+        <v>486.6563415527344</v>
       </c>
       <c r="H21" t="n">
-        <v>201.4697875976562</v>
+        <v>201.1923217773438</v>
       </c>
       <c r="I21" t="n">
-        <v>879.9146118164062</v>
+        <v>882.5466918945312</v>
       </c>
       <c r="J21" t="n">
-        <v>92.11599731445312</v>
+        <v>92.78738403320312</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>695.6476440429688</v>
+        <v>696.4826049804688</v>
       </c>
       <c r="H22" t="n">
-        <v>127.0970458984375</v>
+        <v>126.4397048950195</v>
       </c>
       <c r="I22" t="n">
-        <v>842.187744140625</v>
+        <v>845.5181274414062</v>
       </c>
       <c r="J22" t="n">
-        <v>118.6014709472656</v>
+        <v>115.8093185424805</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>135.80029296875</v>
+        <v>136.5817108154297</v>
       </c>
       <c r="H23" t="n">
-        <v>51.90636825561523</v>
+        <v>51.39699172973633</v>
       </c>
       <c r="I23" t="n">
-        <v>241.9087982177734</v>
+        <v>242.0902557373047</v>
       </c>
       <c r="J23" t="n">
-        <v>96.66371917724609</v>
+        <v>100.2534255981445</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>144.424072265625</v>
+        <v>145.5710601806641</v>
       </c>
       <c r="H24" t="n">
-        <v>48.17604064941406</v>
+        <v>48.84431076049805</v>
       </c>
       <c r="I24" t="n">
-        <v>438.6019897460938</v>
+        <v>447.7377624511719</v>
       </c>
       <c r="J24" t="n">
-        <v>183.2030639648438</v>
+        <v>192.7003326416016</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>153.5196838378906</v>
+        <v>154.9176177978516</v>
       </c>
       <c r="H25" t="n">
-        <v>44.10543823242188</v>
+        <v>45.73987579345703</v>
       </c>
       <c r="I25" t="n">
-        <v>897.9586181640625</v>
+        <v>901.9547119140625</v>
       </c>
       <c r="J25" t="n">
-        <v>107.4607162475586</v>
+        <v>105.6580963134766</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>163.6117248535156</v>
+        <v>161.4868469238281</v>
       </c>
       <c r="H26" t="n">
-        <v>41.8122673034668</v>
+        <v>42.64792251586914</v>
       </c>
       <c r="I26" t="n">
-        <v>976.9983520507812</v>
+        <v>975.943359375</v>
       </c>
       <c r="J26" t="n">
-        <v>70.91751098632812</v>
+        <v>68.83861541748047</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>177.8462982177734</v>
+        <v>179.6389007568359</v>
       </c>
       <c r="H27" t="n">
-        <v>38.51500701904297</v>
+        <v>39.43315505981445</v>
       </c>
       <c r="I27" t="n">
-        <v>970.1943969726562</v>
+        <v>973.7034301757812</v>
       </c>
       <c r="J27" t="n">
-        <v>66.17915344238281</v>
+        <v>66.54647064208984</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>213.353515625</v>
+        <v>214.7851867675781</v>
       </c>
       <c r="H28" t="n">
-        <v>43.6988525390625</v>
+        <v>40.82145690917969</v>
       </c>
       <c r="I28" t="n">
-        <v>946.1578369140625</v>
+        <v>939.1203002929688</v>
       </c>
       <c r="J28" t="n">
-        <v>72.19952392578125</v>
+        <v>75.67993927001953</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>275.903076171875</v>
+        <v>278.3969421386719</v>
       </c>
       <c r="H29" t="n">
-        <v>75.27573394775391</v>
+        <v>77.76963043212891</v>
       </c>
       <c r="I29" t="n">
-        <v>902.8106079101562</v>
+        <v>898.0941772460938</v>
       </c>
       <c r="J29" t="n">
-        <v>92.18555450439453</v>
+        <v>100.3754653930664</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>466.1219177246094</v>
+        <v>468.2608337402344</v>
       </c>
       <c r="H30" t="n">
-        <v>178.1966247558594</v>
+        <v>181.7641754150391</v>
       </c>
       <c r="I30" t="n">
-        <v>848.9883422851562</v>
+        <v>853.3804931640625</v>
       </c>
       <c r="J30" t="n">
-        <v>117.1403961181641</v>
+        <v>111.577262878418</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>697.0214233398438</v>
+        <v>696.531005859375</v>
       </c>
       <c r="H31" t="n">
-        <v>92.41004180908203</v>
+        <v>90.04379272460938</v>
       </c>
       <c r="I31" t="n">
-        <v>787.4052734375</v>
+        <v>787.828369140625</v>
       </c>
       <c r="J31" t="n">
-        <v>180.6876068115234</v>
+        <v>179.1196136474609</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>133.3348999023438</v>
+        <v>133.5452117919922</v>
       </c>
       <c r="H32" t="n">
-        <v>51.92092895507812</v>
+        <v>51.83733749389648</v>
       </c>
       <c r="I32" t="n">
-        <v>141.9770660400391</v>
+        <v>144.1536254882812</v>
       </c>
       <c r="J32" t="n">
-        <v>59.87953567504883</v>
+        <v>57.60689926147461</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>143.2712554931641</v>
+        <v>145.0240173339844</v>
       </c>
       <c r="H33" t="n">
-        <v>47.79478454589844</v>
+        <v>47.03682327270508</v>
       </c>
       <c r="I33" t="n">
-        <v>193.4806365966797</v>
+        <v>191.6742706298828</v>
       </c>
       <c r="J33" t="n">
-        <v>82.15825653076172</v>
+        <v>86.58242797851562</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>157.2175750732422</v>
+        <v>158.2754821777344</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49493408203125</v>
+        <v>45.63894653320312</v>
       </c>
       <c r="I34" t="n">
-        <v>314.8018188476562</v>
+        <v>321.38037109375</v>
       </c>
       <c r="J34" t="n">
-        <v>153.8073120117188</v>
+        <v>156.5115509033203</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>173.2916564941406</v>
+        <v>173.4666290283203</v>
       </c>
       <c r="H35" t="n">
-        <v>43.68595886230469</v>
+        <v>42.59359359741211</v>
       </c>
       <c r="I35" t="n">
-        <v>526.8106689453125</v>
+        <v>520.6288452148438</v>
       </c>
       <c r="J35" t="n">
-        <v>198.0554351806641</v>
+        <v>195.1893005371094</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>191.6004486083984</v>
+        <v>193.39892578125</v>
       </c>
       <c r="H36" t="n">
-        <v>39.43300247192383</v>
+        <v>38.29827880859375</v>
       </c>
       <c r="I36" t="n">
-        <v>802.8055419921875</v>
+        <v>799.7498168945312</v>
       </c>
       <c r="J36" t="n">
-        <v>150.6242980957031</v>
+        <v>150.0937347412109</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>213.9683990478516</v>
+        <v>214.5268096923828</v>
       </c>
       <c r="H37" t="n">
-        <v>36.22784805297852</v>
+        <v>37.39419555664062</v>
       </c>
       <c r="I37" t="n">
-        <v>807.4246215820312</v>
+        <v>812.0051879882812</v>
       </c>
       <c r="J37" t="n">
-        <v>140.4315185546875</v>
+        <v>134.3064117431641</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>272.8505859375</v>
+        <v>272.7756652832031</v>
       </c>
       <c r="H38" t="n">
-        <v>52.25247573852539</v>
+        <v>55.62107467651367</v>
       </c>
       <c r="I38" t="n">
-        <v>818.1425170898438</v>
+        <v>820.01123046875</v>
       </c>
       <c r="J38" t="n">
-        <v>154.4414978027344</v>
+        <v>155.966552734375</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>450.2463073730469</v>
+        <v>454.2359924316406</v>
       </c>
       <c r="H39" t="n">
-        <v>144.2139129638672</v>
+        <v>144.4213256835938</v>
       </c>
       <c r="I39" t="n">
-        <v>751.2308349609375</v>
+        <v>755.1287231445312</v>
       </c>
       <c r="J39" t="n">
-        <v>191.0722503662109</v>
+        <v>193.7313079833984</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>684.3006591796875</v>
+        <v>684.354248046875</v>
       </c>
       <c r="H40" t="n">
-        <v>80.45807647705078</v>
+        <v>84.18399047851562</v>
       </c>
       <c r="I40" t="n">
-        <v>710.58154296875</v>
+        <v>711.2587280273438</v>
       </c>
       <c r="J40" t="n">
-        <v>218.8884887695312</v>
+        <v>222.2868957519531</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>129.0152587890625</v>
+        <v>129.8751068115234</v>
       </c>
       <c r="H41" t="n">
-        <v>53.61013793945312</v>
+        <v>51.24798965454102</v>
       </c>
       <c r="I41" t="n">
-        <v>106.7922744750977</v>
+        <v>102.5341720581055</v>
       </c>
       <c r="J41" t="n">
-        <v>45.04558563232422</v>
+        <v>46.26674652099609</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>141.2423248291016</v>
+        <v>142.3016204833984</v>
       </c>
       <c r="H42" t="n">
-        <v>49.63262176513672</v>
+        <v>49.15700149536133</v>
       </c>
       <c r="I42" t="n">
-        <v>129.2881317138672</v>
+        <v>128.2952117919922</v>
       </c>
       <c r="J42" t="n">
-        <v>52.53923797607422</v>
+        <v>55.02116394042969</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>151.6752014160156</v>
+        <v>150.7733154296875</v>
       </c>
       <c r="H43" t="n">
-        <v>46.94818115234375</v>
+        <v>47.96960067749023</v>
       </c>
       <c r="I43" t="n">
-        <v>150.74609375</v>
+        <v>152.3697357177734</v>
       </c>
       <c r="J43" t="n">
-        <v>62.63845062255859</v>
+        <v>63.99705123901367</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>165.700927734375</v>
+        <v>168.0506591796875</v>
       </c>
       <c r="H44" t="n">
-        <v>45.11236572265625</v>
+        <v>43.46299362182617</v>
       </c>
       <c r="I44" t="n">
-        <v>237.7664794921875</v>
+        <v>237.5940551757812</v>
       </c>
       <c r="J44" t="n">
-        <v>108.8067474365234</v>
+        <v>114.3599319458008</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>181.2759704589844</v>
+        <v>182.4960784912109</v>
       </c>
       <c r="H45" t="n">
-        <v>40.63103103637695</v>
+        <v>41.53039932250977</v>
       </c>
       <c r="I45" t="n">
-        <v>296.9949951171875</v>
+        <v>299.3722534179688</v>
       </c>
       <c r="J45" t="n">
-        <v>147.7950286865234</v>
+        <v>153.1337890625</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>207.8882446289062</v>
+        <v>206.9535064697266</v>
       </c>
       <c r="H46" t="n">
-        <v>38.77446746826172</v>
+        <v>38.07715606689453</v>
       </c>
       <c r="I46" t="n">
-        <v>382.1753845214844</v>
+        <v>370.705810546875</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9912719726562</v>
+        <v>138.8544464111328</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>253.8854217529297</v>
+        <v>253.9161224365234</v>
       </c>
       <c r="H47" t="n">
-        <v>42.22163009643555</v>
+        <v>42.05127334594727</v>
       </c>
       <c r="I47" t="n">
-        <v>460.8810424804688</v>
+        <v>463.502197265625</v>
       </c>
       <c r="J47" t="n">
-        <v>211.5670166015625</v>
+        <v>206.7187347412109</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>436.3111572265625</v>
+        <v>438.2373962402344</v>
       </c>
       <c r="H48" t="n">
-        <v>117.7347869873047</v>
+        <v>118.1740341186523</v>
       </c>
       <c r="I48" t="n">
-        <v>556.5275268554688</v>
+        <v>545.2593994140625</v>
       </c>
       <c r="J48" t="n">
-        <v>260.2729187011719</v>
+        <v>254.1587829589844</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>644.6849975585938</v>
+        <v>642.7620849609375</v>
       </c>
       <c r="H49" t="n">
-        <v>95.50499725341797</v>
+        <v>96.29444885253906</v>
       </c>
       <c r="I49" t="n">
-        <v>577.5098876953125</v>
+        <v>573.6220092773438</v>
       </c>
       <c r="J49" t="n">
-        <v>251.4844207763672</v>
+        <v>249.6372680664062</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>130.9426116943359</v>
+        <v>132.7110900878906</v>
       </c>
       <c r="H50" t="n">
-        <v>52.36981964111328</v>
+        <v>54.34273529052734</v>
       </c>
       <c r="I50" t="n">
-        <v>72.11103820800781</v>
+        <v>72.31291961669922</v>
       </c>
       <c r="J50" t="n">
-        <v>45.89780807495117</v>
+        <v>45.13079452514648</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>142.0056610107422</v>
+        <v>141.9562835693359</v>
       </c>
       <c r="H51" t="n">
-        <v>50.01837158203125</v>
+        <v>50.87416839599609</v>
       </c>
       <c r="I51" t="n">
-        <v>86.33456420898438</v>
+        <v>88.36286926269531</v>
       </c>
       <c r="J51" t="n">
-        <v>46.89628982543945</v>
+        <v>48.04621505737305</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>151.2962036132812</v>
+        <v>152.1708526611328</v>
       </c>
       <c r="H52" t="n">
-        <v>48.00667190551758</v>
+        <v>48.8934326171875</v>
       </c>
       <c r="I52" t="n">
-        <v>97.93488311767578</v>
+        <v>98.71694183349609</v>
       </c>
       <c r="J52" t="n">
-        <v>49.33027267456055</v>
+        <v>49.93492126464844</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>166.7982482910156</v>
+        <v>166.4725646972656</v>
       </c>
       <c r="H53" t="n">
-        <v>47.36638641357422</v>
+        <v>45.33382415771484</v>
       </c>
       <c r="I53" t="n">
-        <v>126.9194107055664</v>
+        <v>131.2720489501953</v>
       </c>
       <c r="J53" t="n">
-        <v>59.41568374633789</v>
+        <v>60.26680755615234</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>179.4427795410156</v>
+        <v>181.2176208496094</v>
       </c>
       <c r="H54" t="n">
-        <v>43.07497024536133</v>
+        <v>42.91034317016602</v>
       </c>
       <c r="I54" t="n">
-        <v>153.7786254882812</v>
+        <v>151.9829406738281</v>
       </c>
       <c r="J54" t="n">
-        <v>59.31459426879883</v>
+        <v>63.18581008911133</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>199.7009124755859</v>
+        <v>199.5915069580078</v>
       </c>
       <c r="H55" t="n">
-        <v>39.88875198364258</v>
+        <v>39.40000152587891</v>
       </c>
       <c r="I55" t="n">
-        <v>190.4671020507812</v>
+        <v>190.8480834960938</v>
       </c>
       <c r="J55" t="n">
-        <v>58.097412109375</v>
+        <v>62.97875595092773</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>241.313720703125</v>
+        <v>240.8209686279297</v>
       </c>
       <c r="H56" t="n">
-        <v>44.86104583740234</v>
+        <v>43.87435913085938</v>
       </c>
       <c r="I56" t="n">
-        <v>204.5900726318359</v>
+        <v>200.3068389892578</v>
       </c>
       <c r="J56" t="n">
-        <v>75.79307556152344</v>
+        <v>76.30535125732422</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>371.0311584472656</v>
+        <v>369.6659240722656</v>
       </c>
       <c r="H57" t="n">
-        <v>107.6125564575195</v>
+        <v>105.4753341674805</v>
       </c>
       <c r="I57" t="n">
-        <v>288.3507690429688</v>
+        <v>284.4927062988281</v>
       </c>
       <c r="J57" t="n">
-        <v>169.3838958740234</v>
+        <v>157.9992218017578</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>617.8223876953125</v>
+        <v>617.6217041015625</v>
       </c>
       <c r="H58" t="n">
-        <v>94.34037780761719</v>
+        <v>93.10592651367188</v>
       </c>
       <c r="I58" t="n">
-        <v>372.8930969238281</v>
+        <v>379.8287963867188</v>
       </c>
       <c r="J58" t="n">
-        <v>231.8861999511719</v>
+        <v>228.5902709960938</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>149.9632263183594</v>
+        <v>149.0487823486328</v>
       </c>
       <c r="H59" t="n">
-        <v>49.87351226806641</v>
+        <v>50.09343719482422</v>
       </c>
       <c r="I59" t="n">
-        <v>36.91277694702148</v>
+        <v>37.28384399414062</v>
       </c>
       <c r="J59" t="n">
-        <v>55.6201171875</v>
+        <v>55.97142028808594</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>158.5070648193359</v>
+        <v>158.0891418457031</v>
       </c>
       <c r="H60" t="n">
-        <v>50.64443588256836</v>
+        <v>49.65944671630859</v>
       </c>
       <c r="I60" t="n">
-        <v>45.91592407226562</v>
+        <v>42.18556594848633</v>
       </c>
       <c r="J60" t="n">
-        <v>55.64604949951172</v>
+        <v>55.47543716430664</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>166.4045715332031</v>
+        <v>166.3990783691406</v>
       </c>
       <c r="H61" t="n">
-        <v>47.19298934936523</v>
+        <v>47.23772430419922</v>
       </c>
       <c r="I61" t="n">
-        <v>59.80162811279297</v>
+        <v>61.91440200805664</v>
       </c>
       <c r="J61" t="n">
-        <v>58.12785339355469</v>
+        <v>58.70747756958008</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>177.9447784423828</v>
+        <v>179.7194213867188</v>
       </c>
       <c r="H62" t="n">
-        <v>46.21673965454102</v>
+        <v>46.66485595703125</v>
       </c>
       <c r="I62" t="n">
-        <v>82.11543273925781</v>
+        <v>81.34706115722656</v>
       </c>
       <c r="J62" t="n">
-        <v>60.76541137695312</v>
+        <v>58.62874221801758</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>196.5634002685547</v>
+        <v>195.5799865722656</v>
       </c>
       <c r="H63" t="n">
-        <v>42.94133377075195</v>
+        <v>42.0138053894043</v>
       </c>
       <c r="I63" t="n">
-        <v>109.1885070800781</v>
+        <v>113.1972427368164</v>
       </c>
       <c r="J63" t="n">
-        <v>54.69685363769531</v>
+        <v>53.96762466430664</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>235.0810394287109</v>
+        <v>235.1029663085938</v>
       </c>
       <c r="H64" t="n">
-        <v>46.25088500976562</v>
+        <v>47.56259155273438</v>
       </c>
       <c r="I64" t="n">
-        <v>133.0704040527344</v>
+        <v>134.4612426757812</v>
       </c>
       <c r="J64" t="n">
-        <v>56.35438537597656</v>
+        <v>59.91921234130859</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>386.4186706542969</v>
+        <v>383.675048828125</v>
       </c>
       <c r="H65" t="n">
-        <v>124.3056869506836</v>
+        <v>126.2281723022461</v>
       </c>
       <c r="I65" t="n">
-        <v>170.037353515625</v>
+        <v>170.7158660888672</v>
       </c>
       <c r="J65" t="n">
-        <v>94.79294586181641</v>
+        <v>90.32833099365234</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>173.5358428955078</v>
+        <v>173.6316375732422</v>
       </c>
       <c r="H66" t="n">
-        <v>45.92337036132812</v>
+        <v>48.42183303833008</v>
       </c>
       <c r="I66" t="n">
-        <v>-25.61185073852539</v>
+        <v>-23.23145294189453</v>
       </c>
       <c r="J66" t="n">
-        <v>67.17245483398438</v>
+        <v>66.66194152832031</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>179.8137359619141</v>
+        <v>182.3137969970703</v>
       </c>
       <c r="H67" t="n">
-        <v>48.17974090576172</v>
+        <v>47.87494659423828</v>
       </c>
       <c r="I67" t="n">
-        <v>-15.49668502807617</v>
+        <v>-12.33462905883789</v>
       </c>
       <c r="J67" t="n">
-        <v>70.77094268798828</v>
+        <v>69.48118591308594</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>193.7220001220703</v>
+        <v>194.5125427246094</v>
       </c>
       <c r="H68" t="n">
-        <v>47.09123992919922</v>
+        <v>46.02392196655273</v>
       </c>
       <c r="I68" t="n">
-        <v>23.92398643493652</v>
+        <v>24.1073112487793</v>
       </c>
       <c r="J68" t="n">
-        <v>67.52377319335938</v>
+        <v>68.08860778808594</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>206.0434265136719</v>
+        <v>204.9672546386719</v>
       </c>
       <c r="H69" t="n">
-        <v>45.81241607666016</v>
+        <v>46.48501586914062</v>
       </c>
       <c r="I69" t="n">
-        <v>52.32902526855469</v>
+        <v>49.81913375854492</v>
       </c>
       <c r="J69" t="n">
-        <v>66.13067626953125</v>
+        <v>64.33705139160156</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>240.6586761474609</v>
+        <v>239.2977294921875</v>
       </c>
       <c r="H70" t="n">
-        <v>53.73568725585938</v>
+        <v>55.65053558349609</v>
       </c>
       <c r="I70" t="n">
-        <v>98.37865447998047</v>
+        <v>96.73630523681641</v>
       </c>
       <c r="J70" t="n">
-        <v>64.092529296875</v>
+        <v>64.75165557861328</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>150.9337005615234</v>
+        <v>136.3410034179688</v>
       </c>
       <c r="H2" t="n">
-        <v>53.8475456237793</v>
+        <v>52.65165710449219</v>
       </c>
       <c r="I2" t="n">
-        <v>871.57568359375</v>
+        <v>878.447265625</v>
       </c>
       <c r="J2" t="n">
-        <v>75.23647308349609</v>
+        <v>74.36454772949219</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>179.9009094238281</v>
+        <v>161.1131286621094</v>
       </c>
       <c r="H3" t="n">
-        <v>73.88014984130859</v>
+        <v>55.37024307250977</v>
       </c>
       <c r="I3" t="n">
-        <v>878.1034545898438</v>
+        <v>873.2447509765625</v>
       </c>
       <c r="J3" t="n">
-        <v>82.36349487304688</v>
+        <v>82.43366241455078</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>213.4489288330078</v>
+        <v>190.7345733642578</v>
       </c>
       <c r="H4" t="n">
-        <v>100.7029266357422</v>
+        <v>63.18058395385742</v>
       </c>
       <c r="I4" t="n">
-        <v>890.4705200195312</v>
+        <v>883.732421875</v>
       </c>
       <c r="J4" t="n">
-        <v>82.93563842773438</v>
+        <v>83.68979644775391</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>263.1041259765625</v>
+        <v>225.8467407226562</v>
       </c>
       <c r="H5" t="n">
-        <v>126.2951202392578</v>
+        <v>75.57114410400391</v>
       </c>
       <c r="I5" t="n">
-        <v>894.055908203125</v>
+        <v>891.319091796875</v>
       </c>
       <c r="J5" t="n">
-        <v>84.08899688720703</v>
+        <v>91.89769744873047</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>361.0043334960938</v>
+        <v>294.2535705566406</v>
       </c>
       <c r="H6" t="n">
-        <v>165.5689544677734</v>
+        <v>121.6564559936523</v>
       </c>
       <c r="I6" t="n">
-        <v>891.2073974609375</v>
+        <v>894.9093627929688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.64186096191406</v>
+        <v>94.20968627929688</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>136.7103576660156</v>
+        <v>127.5538024902344</v>
       </c>
       <c r="H7" t="n">
-        <v>47.49245834350586</v>
+        <v>48.79465103149414</v>
       </c>
       <c r="I7" t="n">
-        <v>944.9454345703125</v>
+        <v>960.3126220703125</v>
       </c>
       <c r="J7" t="n">
-        <v>69.94969177246094</v>
+        <v>64.51645660400391</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>141.6121368408203</v>
+        <v>131.8121948242188</v>
       </c>
       <c r="H8" t="n">
-        <v>46.90735626220703</v>
+        <v>49.90777969360352</v>
       </c>
       <c r="I8" t="n">
-        <v>921.686279296875</v>
+        <v>933.8330078125</v>
       </c>
       <c r="J8" t="n">
-        <v>68.56342315673828</v>
+        <v>64.36833953857422</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>157.6006774902344</v>
+        <v>148.7989654541016</v>
       </c>
       <c r="H9" t="n">
-        <v>51.99420928955078</v>
+        <v>45.85380935668945</v>
       </c>
       <c r="I9" t="n">
-        <v>909.4921875</v>
+        <v>916.5557250976562</v>
       </c>
       <c r="J9" t="n">
-        <v>67.94887542724609</v>
+        <v>62.06507110595703</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>182.503173828125</v>
+        <v>170.9910278320312</v>
       </c>
       <c r="H10" t="n">
-        <v>57.44336318969727</v>
+        <v>49.28141403198242</v>
       </c>
       <c r="I10" t="n">
-        <v>909.0989379882812</v>
+        <v>905.8936157226562</v>
       </c>
       <c r="J10" t="n">
-        <v>67.68412780761719</v>
+        <v>72.14652252197266</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>235.6336212158203</v>
+        <v>210.2374877929688</v>
       </c>
       <c r="H11" t="n">
-        <v>88.31935119628906</v>
+        <v>62.23403549194336</v>
       </c>
       <c r="I11" t="n">
-        <v>901.5504150390625</v>
+        <v>900.3524780273438</v>
       </c>
       <c r="J11" t="n">
-        <v>73.7890625</v>
+        <v>73.43131256103516</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>346.1292724609375</v>
+        <v>276.6072692871094</v>
       </c>
       <c r="H12" t="n">
-        <v>169.2503356933594</v>
+        <v>109.8043670654297</v>
       </c>
       <c r="I12" t="n">
-        <v>894.3775024414062</v>
+        <v>896.93408203125</v>
       </c>
       <c r="J12" t="n">
-        <v>76.02303314208984</v>
+        <v>88.2742919921875</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>511.0900573730469</v>
+        <v>430.4528503417969</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8746337890625</v>
+        <v>184.6152038574219</v>
       </c>
       <c r="I13" t="n">
-        <v>882.4933471679688</v>
+        <v>896.088134765625</v>
       </c>
       <c r="J13" t="n">
-        <v>86.46798706054688</v>
+        <v>106.4817352294922</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>136.7140350341797</v>
+        <v>119.3372497558594</v>
       </c>
       <c r="H14" t="n">
-        <v>50.75782775878906</v>
+        <v>51.59273147583008</v>
       </c>
       <c r="I14" t="n">
-        <v>690.17822265625</v>
+        <v>615.0380249023438</v>
       </c>
       <c r="J14" t="n">
-        <v>204.0307922363281</v>
+        <v>209.9073333740234</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>133.6263580322266</v>
+        <v>122.4165344238281</v>
       </c>
       <c r="H15" t="n">
-        <v>49.059326171875</v>
+        <v>50.12100601196289</v>
       </c>
       <c r="I15" t="n">
-        <v>974.2297973632812</v>
+        <v>981.13916015625</v>
       </c>
       <c r="J15" t="n">
-        <v>70.19703674316406</v>
+        <v>72.75254058837891</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>144.6031494140625</v>
+        <v>136.5665130615234</v>
       </c>
       <c r="H16" t="n">
-        <v>46.32070922851562</v>
+        <v>49.44161605834961</v>
       </c>
       <c r="I16" t="n">
-        <v>961.0165405273438</v>
+        <v>968.9022827148438</v>
       </c>
       <c r="J16" t="n">
-        <v>70.98085021972656</v>
+        <v>66.7813720703125</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>155.0972595214844</v>
+        <v>151.3622131347656</v>
       </c>
       <c r="H17" t="n">
-        <v>45.03501129150391</v>
+        <v>45.19523239135742</v>
       </c>
       <c r="I17" t="n">
-        <v>958.6913452148438</v>
+        <v>968.7733154296875</v>
       </c>
       <c r="J17" t="n">
-        <v>66.19084930419922</v>
+        <v>65.06673431396484</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>178.227294921875</v>
+        <v>168.7087097167969</v>
       </c>
       <c r="H18" t="n">
-        <v>44.4919319152832</v>
+        <v>42.74385452270508</v>
       </c>
       <c r="I18" t="n">
-        <v>945.9074096679688</v>
+        <v>942.3414306640625</v>
       </c>
       <c r="J18" t="n">
-        <v>63.6595573425293</v>
+        <v>66.99798583984375</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>226.3475799560547</v>
+        <v>199.3941955566406</v>
       </c>
       <c r="H19" t="n">
-        <v>62.16849517822266</v>
+        <v>44.79945755004883</v>
       </c>
       <c r="I19" t="n">
-        <v>923.4886474609375</v>
+        <v>917.7775268554688</v>
       </c>
       <c r="J19" t="n">
-        <v>73.37316131591797</v>
+        <v>75.56712341308594</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>305.8831176757812</v>
+        <v>260.9797668457031</v>
       </c>
       <c r="H20" t="n">
-        <v>132.5109100341797</v>
+        <v>86.52943420410156</v>
       </c>
       <c r="I20" t="n">
-        <v>903.9159545898438</v>
+        <v>901.3560180664062</v>
       </c>
       <c r="J20" t="n">
-        <v>83.11394500732422</v>
+        <v>84.25152587890625</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>486.6563415527344</v>
+        <v>440.4602661132812</v>
       </c>
       <c r="H21" t="n">
-        <v>201.1923217773438</v>
+        <v>183.9896545410156</v>
       </c>
       <c r="I21" t="n">
-        <v>882.5466918945312</v>
+        <v>890.4138793945312</v>
       </c>
       <c r="J21" t="n">
-        <v>92.78738403320312</v>
+        <v>100.8125228881836</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>696.4826049804688</v>
+        <v>704.094970703125</v>
       </c>
       <c r="H22" t="n">
-        <v>126.4397048950195</v>
+        <v>127.9776840209961</v>
       </c>
       <c r="I22" t="n">
-        <v>845.5181274414062</v>
+        <v>909.3114624023438</v>
       </c>
       <c r="J22" t="n">
-        <v>115.8093185424805</v>
+        <v>103.4089126586914</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>136.5817108154297</v>
+        <v>113.5337371826172</v>
       </c>
       <c r="H23" t="n">
-        <v>51.39699172973633</v>
+        <v>54.16130828857422</v>
       </c>
       <c r="I23" t="n">
-        <v>242.0902557373047</v>
+        <v>246.0944061279297</v>
       </c>
       <c r="J23" t="n">
-        <v>100.2534255981445</v>
+        <v>96.36137390136719</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>145.5710601806641</v>
+        <v>130.2847442626953</v>
       </c>
       <c r="H24" t="n">
-        <v>48.84431076049805</v>
+        <v>49.04122924804688</v>
       </c>
       <c r="I24" t="n">
-        <v>447.7377624511719</v>
+        <v>398.6759948730469</v>
       </c>
       <c r="J24" t="n">
-        <v>192.7003326416016</v>
+        <v>158.0912628173828</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>154.9176177978516</v>
+        <v>140.6806945800781</v>
       </c>
       <c r="H25" t="n">
-        <v>45.73987579345703</v>
+        <v>46.57755279541016</v>
       </c>
       <c r="I25" t="n">
-        <v>901.9547119140625</v>
+        <v>889.0054931640625</v>
       </c>
       <c r="J25" t="n">
-        <v>105.6580963134766</v>
+        <v>118.0829544067383</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>161.4868469238281</v>
+        <v>151.9054260253906</v>
       </c>
       <c r="H26" t="n">
-        <v>42.64792251586914</v>
+        <v>43.39614105224609</v>
       </c>
       <c r="I26" t="n">
-        <v>975.943359375</v>
+        <v>974.2281494140625</v>
       </c>
       <c r="J26" t="n">
-        <v>68.83861541748047</v>
+        <v>79.59186553955078</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>179.6389007568359</v>
+        <v>170.3939666748047</v>
       </c>
       <c r="H27" t="n">
-        <v>39.43315505981445</v>
+        <v>39.67757034301758</v>
       </c>
       <c r="I27" t="n">
-        <v>973.7034301757812</v>
+        <v>965.4732055664062</v>
       </c>
       <c r="J27" t="n">
-        <v>66.54647064208984</v>
+        <v>72.56072998046875</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>214.7851867675781</v>
+        <v>203.8499450683594</v>
       </c>
       <c r="H28" t="n">
-        <v>40.82145690917969</v>
+        <v>38.42319107055664</v>
       </c>
       <c r="I28" t="n">
-        <v>939.1203002929688</v>
+        <v>935.197265625</v>
       </c>
       <c r="J28" t="n">
-        <v>75.67993927001953</v>
+        <v>78.84379577636719</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>278.3969421386719</v>
+        <v>255.2160186767578</v>
       </c>
       <c r="H29" t="n">
-        <v>77.76963043212891</v>
+        <v>57.29304122924805</v>
       </c>
       <c r="I29" t="n">
-        <v>898.0941772460938</v>
+        <v>896.44677734375</v>
       </c>
       <c r="J29" t="n">
-        <v>100.3754653930664</v>
+        <v>100.8295440673828</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>468.2608337402344</v>
+        <v>430.7633361816406</v>
       </c>
       <c r="H30" t="n">
-        <v>181.7641754150391</v>
+        <v>168.8925018310547</v>
       </c>
       <c r="I30" t="n">
-        <v>853.3804931640625</v>
+        <v>864.1962280273438</v>
       </c>
       <c r="J30" t="n">
-        <v>111.577262878418</v>
+        <v>116.269401550293</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>696.531005859375</v>
+        <v>732.4749755859375</v>
       </c>
       <c r="H31" t="n">
-        <v>90.04379272460938</v>
+        <v>79.58888244628906</v>
       </c>
       <c r="I31" t="n">
-        <v>787.828369140625</v>
+        <v>861.0138549804688</v>
       </c>
       <c r="J31" t="n">
-        <v>179.1196136474609</v>
+        <v>134.9515228271484</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>133.5452117919922</v>
+        <v>116.776123046875</v>
       </c>
       <c r="H32" t="n">
-        <v>51.83733749389648</v>
+        <v>54.69106292724609</v>
       </c>
       <c r="I32" t="n">
-        <v>144.1536254882812</v>
+        <v>146.3310241699219</v>
       </c>
       <c r="J32" t="n">
-        <v>57.60689926147461</v>
+        <v>60.12343978881836</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>145.0240173339844</v>
+        <v>134.2174682617188</v>
       </c>
       <c r="H33" t="n">
-        <v>47.03682327270508</v>
+        <v>50.22600173950195</v>
       </c>
       <c r="I33" t="n">
-        <v>191.6742706298828</v>
+        <v>191.5948028564453</v>
       </c>
       <c r="J33" t="n">
-        <v>86.58242797851562</v>
+        <v>75.64141082763672</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>158.2754821777344</v>
+        <v>147.0509948730469</v>
       </c>
       <c r="H34" t="n">
-        <v>45.63894653320312</v>
+        <v>46.16755294799805</v>
       </c>
       <c r="I34" t="n">
-        <v>321.38037109375</v>
+        <v>293.8063354492188</v>
       </c>
       <c r="J34" t="n">
-        <v>156.5115509033203</v>
+        <v>120.2167892456055</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>173.4666290283203</v>
+        <v>162.5257873535156</v>
       </c>
       <c r="H35" t="n">
-        <v>42.59359359741211</v>
+        <v>44.53075790405273</v>
       </c>
       <c r="I35" t="n">
-        <v>520.6288452148438</v>
+        <v>472.1900939941406</v>
       </c>
       <c r="J35" t="n">
-        <v>195.1893005371094</v>
+        <v>176.8208618164062</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>193.39892578125</v>
+        <v>181.8780822753906</v>
       </c>
       <c r="H36" t="n">
-        <v>38.29827880859375</v>
+        <v>40.96060943603516</v>
       </c>
       <c r="I36" t="n">
-        <v>799.7498168945312</v>
+        <v>800.0472412109375</v>
       </c>
       <c r="J36" t="n">
-        <v>150.0937347412109</v>
+        <v>146.2245635986328</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>214.5268096923828</v>
+        <v>210.9765167236328</v>
       </c>
       <c r="H37" t="n">
-        <v>37.39419555664062</v>
+        <v>41.46615982055664</v>
       </c>
       <c r="I37" t="n">
-        <v>812.0051879882812</v>
+        <v>803.8941650390625</v>
       </c>
       <c r="J37" t="n">
-        <v>134.3064117431641</v>
+        <v>152.5936431884766</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>272.7756652832031</v>
+        <v>271.022216796875</v>
       </c>
       <c r="H38" t="n">
-        <v>55.62107467651367</v>
+        <v>61.7601318359375</v>
       </c>
       <c r="I38" t="n">
-        <v>820.01123046875</v>
+        <v>801.936279296875</v>
       </c>
       <c r="J38" t="n">
-        <v>155.966552734375</v>
+        <v>156.9496765136719</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>454.2359924316406</v>
+        <v>413.4548034667969</v>
       </c>
       <c r="H39" t="n">
-        <v>144.4213256835938</v>
+        <v>128.2920532226562</v>
       </c>
       <c r="I39" t="n">
-        <v>755.1287231445312</v>
+        <v>767.7191772460938</v>
       </c>
       <c r="J39" t="n">
-        <v>193.7313079833984</v>
+        <v>190.2572174072266</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>684.354248046875</v>
+        <v>703.4468383789062</v>
       </c>
       <c r="H40" t="n">
-        <v>84.18399047851562</v>
+        <v>83.80948638916016</v>
       </c>
       <c r="I40" t="n">
-        <v>711.2587280273438</v>
+        <v>755.6876831054688</v>
       </c>
       <c r="J40" t="n">
-        <v>222.2868957519531</v>
+        <v>210.5121154785156</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>129.8751068115234</v>
+        <v>121.1906127929688</v>
       </c>
       <c r="H41" t="n">
-        <v>51.24798965454102</v>
+        <v>53.04346466064453</v>
       </c>
       <c r="I41" t="n">
-        <v>102.5341720581055</v>
+        <v>110.7553482055664</v>
       </c>
       <c r="J41" t="n">
-        <v>46.26674652099609</v>
+        <v>48.21770095825195</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>142.3016204833984</v>
+        <v>134.7263031005859</v>
       </c>
       <c r="H42" t="n">
-        <v>49.15700149536133</v>
+        <v>51.10170364379883</v>
       </c>
       <c r="I42" t="n">
-        <v>128.2952117919922</v>
+        <v>129.4790344238281</v>
       </c>
       <c r="J42" t="n">
-        <v>55.02116394042969</v>
+        <v>54.97693252563477</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>150.7733154296875</v>
+        <v>147.8089294433594</v>
       </c>
       <c r="H43" t="n">
-        <v>47.96960067749023</v>
+        <v>49.07461547851562</v>
       </c>
       <c r="I43" t="n">
-        <v>152.3697357177734</v>
+        <v>142.6087951660156</v>
       </c>
       <c r="J43" t="n">
-        <v>63.99705123901367</v>
+        <v>55.62273025512695</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>168.0506591796875</v>
+        <v>163.3995819091797</v>
       </c>
       <c r="H44" t="n">
-        <v>43.46299362182617</v>
+        <v>46.34974670410156</v>
       </c>
       <c r="I44" t="n">
-        <v>237.5940551757812</v>
+        <v>198.1104888916016</v>
       </c>
       <c r="J44" t="n">
-        <v>114.3599319458008</v>
+        <v>72.84185791015625</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>182.4960784912109</v>
+        <v>177.0353698730469</v>
       </c>
       <c r="H45" t="n">
-        <v>41.53039932250977</v>
+        <v>43.06673431396484</v>
       </c>
       <c r="I45" t="n">
-        <v>299.3722534179688</v>
+        <v>242.8330230712891</v>
       </c>
       <c r="J45" t="n">
-        <v>153.1337890625</v>
+        <v>102.2248764038086</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>206.9535064697266</v>
+        <v>201.0437927246094</v>
       </c>
       <c r="H46" t="n">
-        <v>38.07715606689453</v>
+        <v>39.3970947265625</v>
       </c>
       <c r="I46" t="n">
-        <v>370.705810546875</v>
+        <v>318.7034912109375</v>
       </c>
       <c r="J46" t="n">
-        <v>138.8544464111328</v>
+        <v>133.2052459716797</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>253.9161224365234</v>
+        <v>248.3706970214844</v>
       </c>
       <c r="H47" t="n">
-        <v>42.05127334594727</v>
+        <v>45.58113098144531</v>
       </c>
       <c r="I47" t="n">
-        <v>463.502197265625</v>
+        <v>413.4534301757812</v>
       </c>
       <c r="J47" t="n">
-        <v>206.7187347412109</v>
+        <v>177.7460021972656</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>438.2373962402344</v>
+        <v>401.6015930175781</v>
       </c>
       <c r="H48" t="n">
-        <v>118.1740341186523</v>
+        <v>114.1067581176758</v>
       </c>
       <c r="I48" t="n">
-        <v>545.2593994140625</v>
+        <v>568.7613525390625</v>
       </c>
       <c r="J48" t="n">
-        <v>254.1587829589844</v>
+        <v>216.6089019775391</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>642.7620849609375</v>
+        <v>657.6192626953125</v>
       </c>
       <c r="H49" t="n">
-        <v>96.29444885253906</v>
+        <v>95.85738372802734</v>
       </c>
       <c r="I49" t="n">
-        <v>573.6220092773438</v>
+        <v>631.9924926757812</v>
       </c>
       <c r="J49" t="n">
-        <v>249.6372680664062</v>
+        <v>230.1061553955078</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>132.7110900878906</v>
+        <v>125.1278228759766</v>
       </c>
       <c r="H50" t="n">
-        <v>54.34273529052734</v>
+        <v>51.2081413269043</v>
       </c>
       <c r="I50" t="n">
-        <v>72.31291961669922</v>
+        <v>77.36188507080078</v>
       </c>
       <c r="J50" t="n">
-        <v>45.13079452514648</v>
+        <v>46.52405166625977</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>141.9562835693359</v>
+        <v>140.1902008056641</v>
       </c>
       <c r="H51" t="n">
-        <v>50.87416839599609</v>
+        <v>49.31518936157227</v>
       </c>
       <c r="I51" t="n">
-        <v>88.36286926269531</v>
+        <v>85.21779632568359</v>
       </c>
       <c r="J51" t="n">
-        <v>48.04621505737305</v>
+        <v>48.35354995727539</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>152.1708526611328</v>
+        <v>152.9213714599609</v>
       </c>
       <c r="H52" t="n">
-        <v>48.8934326171875</v>
+        <v>45.70547866821289</v>
       </c>
       <c r="I52" t="n">
-        <v>98.71694183349609</v>
+        <v>96.86297607421875</v>
       </c>
       <c r="J52" t="n">
-        <v>49.93492126464844</v>
+        <v>51.01060485839844</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>166.4725646972656</v>
+        <v>166.0358734130859</v>
       </c>
       <c r="H53" t="n">
-        <v>45.33382415771484</v>
+        <v>46.02146148681641</v>
       </c>
       <c r="I53" t="n">
-        <v>131.2720489501953</v>
+        <v>116.7393264770508</v>
       </c>
       <c r="J53" t="n">
-        <v>60.26680755615234</v>
+        <v>52.55926132202148</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>181.2176208496094</v>
+        <v>178.0010223388672</v>
       </c>
       <c r="H54" t="n">
-        <v>42.91034317016602</v>
+        <v>43.10119247436523</v>
       </c>
       <c r="I54" t="n">
-        <v>151.9829406738281</v>
+        <v>139.5872344970703</v>
       </c>
       <c r="J54" t="n">
-        <v>63.18581008911133</v>
+        <v>55.61536026000977</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>199.5915069580078</v>
+        <v>194.7287902832031</v>
       </c>
       <c r="H55" t="n">
-        <v>39.40000152587891</v>
+        <v>39.8046989440918</v>
       </c>
       <c r="I55" t="n">
-        <v>190.8480834960938</v>
+        <v>167.282470703125</v>
       </c>
       <c r="J55" t="n">
-        <v>62.97875595092773</v>
+        <v>56.69120788574219</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>240.8209686279297</v>
+        <v>232.6991119384766</v>
       </c>
       <c r="H56" t="n">
-        <v>43.87435913085938</v>
+        <v>41.74353790283203</v>
       </c>
       <c r="I56" t="n">
-        <v>200.3068389892578</v>
+        <v>194.1980743408203</v>
       </c>
       <c r="J56" t="n">
-        <v>76.30535125732422</v>
+        <v>67.48390197753906</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>369.6659240722656</v>
+        <v>319.0113830566406</v>
       </c>
       <c r="H57" t="n">
-        <v>105.4753341674805</v>
+        <v>70.96110534667969</v>
       </c>
       <c r="I57" t="n">
-        <v>284.4927062988281</v>
+        <v>279.3865356445312</v>
       </c>
       <c r="J57" t="n">
-        <v>157.9992218017578</v>
+        <v>120.7843551635742</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>617.6217041015625</v>
+        <v>618.1012573242188</v>
       </c>
       <c r="H58" t="n">
-        <v>93.10592651367188</v>
+        <v>99.29109191894531</v>
       </c>
       <c r="I58" t="n">
-        <v>379.8287963867188</v>
+        <v>403.7071838378906</v>
       </c>
       <c r="J58" t="n">
-        <v>228.5902709960938</v>
+        <v>205.21826171875</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>149.0487823486328</v>
+        <v>153.4481048583984</v>
       </c>
       <c r="H59" t="n">
-        <v>50.09343719482422</v>
+        <v>49.59724044799805</v>
       </c>
       <c r="I59" t="n">
-        <v>37.28384399414062</v>
+        <v>33.52294540405273</v>
       </c>
       <c r="J59" t="n">
-        <v>55.97142028808594</v>
+        <v>62.62076568603516</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>158.0891418457031</v>
+        <v>158.0398864746094</v>
       </c>
       <c r="H60" t="n">
-        <v>49.65944671630859</v>
+        <v>48.39252090454102</v>
       </c>
       <c r="I60" t="n">
-        <v>42.18556594848633</v>
+        <v>44.37935638427734</v>
       </c>
       <c r="J60" t="n">
-        <v>55.47543716430664</v>
+        <v>60.45273208618164</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>166.3990783691406</v>
+        <v>169.4546966552734</v>
       </c>
       <c r="H61" t="n">
-        <v>47.23772430419922</v>
+        <v>47.23758316040039</v>
       </c>
       <c r="I61" t="n">
-        <v>61.91440200805664</v>
+        <v>58.53472518920898</v>
       </c>
       <c r="J61" t="n">
-        <v>58.70747756958008</v>
+        <v>63.90456771850586</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>179.7194213867188</v>
+        <v>180.7893981933594</v>
       </c>
       <c r="H62" t="n">
-        <v>46.66485595703125</v>
+        <v>45.31014633178711</v>
       </c>
       <c r="I62" t="n">
-        <v>81.34706115722656</v>
+        <v>84.37595367431641</v>
       </c>
       <c r="J62" t="n">
-        <v>58.62874221801758</v>
+        <v>65.25445556640625</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>195.5799865722656</v>
+        <v>192.6978149414062</v>
       </c>
       <c r="H63" t="n">
-        <v>42.0138053894043</v>
+        <v>42.80707931518555</v>
       </c>
       <c r="I63" t="n">
-        <v>113.1972427368164</v>
+        <v>113.2888641357422</v>
       </c>
       <c r="J63" t="n">
-        <v>53.96762466430664</v>
+        <v>62.22751617431641</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>235.1029663085938</v>
+        <v>225.5741729736328</v>
       </c>
       <c r="H64" t="n">
-        <v>47.56259155273438</v>
+        <v>41.89582443237305</v>
       </c>
       <c r="I64" t="n">
-        <v>134.4612426757812</v>
+        <v>141.2923278808594</v>
       </c>
       <c r="J64" t="n">
-        <v>59.91921234130859</v>
+        <v>58.87061309814453</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>383.675048828125</v>
+        <v>315.1563415527344</v>
       </c>
       <c r="H65" t="n">
-        <v>126.2281723022461</v>
+        <v>77.05952453613281</v>
       </c>
       <c r="I65" t="n">
-        <v>170.7158660888672</v>
+        <v>190.4190216064453</v>
       </c>
       <c r="J65" t="n">
-        <v>90.32833099365234</v>
+        <v>82.08921051025391</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>173.6316375732422</v>
+        <v>175.283935546875</v>
       </c>
       <c r="H66" t="n">
-        <v>48.42183303833008</v>
+        <v>46.55112457275391</v>
       </c>
       <c r="I66" t="n">
-        <v>-23.23145294189453</v>
+        <v>-25.72052001953125</v>
       </c>
       <c r="J66" t="n">
-        <v>66.66194152832031</v>
+        <v>73.52451324462891</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>182.3137969970703</v>
+        <v>178.5202178955078</v>
       </c>
       <c r="H67" t="n">
-        <v>47.87494659423828</v>
+        <v>46.12078094482422</v>
       </c>
       <c r="I67" t="n">
-        <v>-12.33462905883789</v>
+        <v>-10.1461238861084</v>
       </c>
       <c r="J67" t="n">
-        <v>69.48118591308594</v>
+        <v>75.46595001220703</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>194.5125427246094</v>
+        <v>188.7584686279297</v>
       </c>
       <c r="H68" t="n">
-        <v>46.02392196655273</v>
+        <v>46.90737533569336</v>
       </c>
       <c r="I68" t="n">
-        <v>24.1073112487793</v>
+        <v>35.84660339355469</v>
       </c>
       <c r="J68" t="n">
-        <v>68.08860778808594</v>
+        <v>74.64532470703125</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>204.9672546386719</v>
+        <v>197.0293579101562</v>
       </c>
       <c r="H69" t="n">
-        <v>46.48501586914062</v>
+        <v>45.22782135009766</v>
       </c>
       <c r="I69" t="n">
-        <v>49.81913375854492</v>
+        <v>66.58852386474609</v>
       </c>
       <c r="J69" t="n">
-        <v>64.33705139160156</v>
+        <v>73.20176696777344</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>239.2977294921875</v>
+        <v>225.8528137207031</v>
       </c>
       <c r="H70" t="n">
-        <v>55.65053558349609</v>
+        <v>45.92140197753906</v>
       </c>
       <c r="I70" t="n">
-        <v>96.73630523681641</v>
+        <v>111.8473434448242</v>
       </c>
       <c r="J70" t="n">
-        <v>64.75165557861328</v>
+        <v>75.75346374511719</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>microstructure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>H1_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H1_new_pred_KFold_std</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_std</t>
         </is>
@@ -504,17 +509,22 @@
       <c r="F2" t="n">
         <v>14.31699359657089</v>
       </c>
-      <c r="G2" t="n">
-        <v>136.3410034179688</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>52.65165710449219</v>
+        <v>132.0215148925781</v>
       </c>
       <c r="I2" t="n">
-        <v>878.447265625</v>
+        <v>32.13779067993164</v>
       </c>
       <c r="J2" t="n">
-        <v>74.36454772949219</v>
+        <v>904.0909423828125</v>
+      </c>
+      <c r="K2" t="n">
+        <v>55.10268020629883</v>
       </c>
     </row>
     <row r="3">
@@ -536,17 +546,22 @@
       <c r="F3" t="n">
         <v>15.27891067420843</v>
       </c>
-      <c r="G3" t="n">
-        <v>161.1131286621094</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>55.37024307250977</v>
+        <v>146.1163635253906</v>
       </c>
       <c r="I3" t="n">
-        <v>873.2447509765625</v>
+        <v>40.11771011352539</v>
       </c>
       <c r="J3" t="n">
-        <v>82.43366241455078</v>
+        <v>908.5303344726562</v>
+      </c>
+      <c r="K3" t="n">
+        <v>58.5848388671875</v>
       </c>
     </row>
     <row r="4">
@@ -568,17 +583,22 @@
       <c r="F4" t="n">
         <v>15.85974020072816</v>
       </c>
-      <c r="G4" t="n">
-        <v>190.7345733642578</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>63.18058395385742</v>
+        <v>160.2063598632812</v>
       </c>
       <c r="I4" t="n">
-        <v>883.732421875</v>
+        <v>38.95832443237305</v>
       </c>
       <c r="J4" t="n">
-        <v>83.68979644775391</v>
+        <v>910.7736206054688</v>
+      </c>
+      <c r="K4" t="n">
+        <v>59.70282745361328</v>
       </c>
     </row>
     <row r="5">
@@ -600,17 +620,22 @@
       <c r="F5" t="n">
         <v>16.6254486072678</v>
       </c>
-      <c r="G5" t="n">
-        <v>225.8467407226562</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>75.57114410400391</v>
+        <v>181.1087188720703</v>
       </c>
       <c r="I5" t="n">
-        <v>891.319091796875</v>
+        <v>53.67144393920898</v>
       </c>
       <c r="J5" t="n">
-        <v>91.89769744873047</v>
+        <v>912.5267944335938</v>
+      </c>
+      <c r="K5" t="n">
+        <v>62.78985595703125</v>
       </c>
     </row>
     <row r="6">
@@ -632,17 +657,22 @@
       <c r="F6" t="n">
         <v>16.72168606967666</v>
       </c>
-      <c r="G6" t="n">
-        <v>294.2535705566406</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>121.6564559936523</v>
+        <v>227.7680511474609</v>
       </c>
       <c r="I6" t="n">
-        <v>894.9093627929688</v>
+        <v>94.318603515625</v>
       </c>
       <c r="J6" t="n">
-        <v>94.20968627929688</v>
+        <v>912.5371704101562</v>
+      </c>
+      <c r="K6" t="n">
+        <v>60.13736343383789</v>
       </c>
     </row>
     <row r="7">
@@ -664,17 +694,22 @@
       <c r="F7" t="n">
         <v>17.58023045110392</v>
       </c>
-      <c r="G7" t="n">
-        <v>127.5538024902344</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>48.79465103149414</v>
+        <v>124.432373046875</v>
       </c>
       <c r="I7" t="n">
-        <v>960.3126220703125</v>
+        <v>32.64391708374023</v>
       </c>
       <c r="J7" t="n">
-        <v>64.51645660400391</v>
+        <v>940.709716796875</v>
+      </c>
+      <c r="K7" t="n">
+        <v>64.32459259033203</v>
       </c>
     </row>
     <row r="8">
@@ -696,17 +731,22 @@
       <c r="F8" t="n">
         <v>18.57818076528054</v>
       </c>
-      <c r="G8" t="n">
-        <v>131.8121948242188</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>49.90777969360352</v>
+        <v>128.6448516845703</v>
       </c>
       <c r="I8" t="n">
-        <v>933.8330078125</v>
+        <v>31.5334644317627</v>
       </c>
       <c r="J8" t="n">
-        <v>64.36833953857422</v>
+        <v>930.7256469726562</v>
+      </c>
+      <c r="K8" t="n">
+        <v>61.38851165771484</v>
       </c>
     </row>
     <row r="9">
@@ -728,17 +768,22 @@
       <c r="F9" t="n">
         <v>19.60838259075554</v>
       </c>
-      <c r="G9" t="n">
-        <v>148.7989654541016</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>45.85380935668945</v>
+        <v>137.7297821044922</v>
       </c>
       <c r="I9" t="n">
-        <v>916.5557250976562</v>
+        <v>30.48953628540039</v>
       </c>
       <c r="J9" t="n">
-        <v>62.06507110595703</v>
+        <v>920.5767822265625</v>
+      </c>
+      <c r="K9" t="n">
+        <v>58.48760223388672</v>
       </c>
     </row>
     <row r="10">
@@ -760,17 +805,22 @@
       <c r="F10" t="n">
         <v>20.10500298210745</v>
       </c>
-      <c r="G10" t="n">
-        <v>170.9910278320312</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>49.28141403198242</v>
+        <v>146.3718872070312</v>
       </c>
       <c r="I10" t="n">
-        <v>905.8936157226562</v>
+        <v>31.48540306091309</v>
       </c>
       <c r="J10" t="n">
-        <v>72.14652252197266</v>
+        <v>922.8811645507812</v>
+      </c>
+      <c r="K10" t="n">
+        <v>58.27093124389648</v>
       </c>
     </row>
     <row r="11">
@@ -792,17 +842,22 @@
       <c r="F11" t="n">
         <v>20.82282672295324</v>
       </c>
-      <c r="G11" t="n">
-        <v>210.2374877929688</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>62.23403549194336</v>
+        <v>164.5445404052734</v>
       </c>
       <c r="I11" t="n">
-        <v>900.3524780273438</v>
+        <v>34.49871826171875</v>
       </c>
       <c r="J11" t="n">
-        <v>73.43131256103516</v>
+        <v>913.6802368164062</v>
+      </c>
+      <c r="K11" t="n">
+        <v>59.18529891967773</v>
       </c>
     </row>
     <row r="12">
@@ -824,17 +879,22 @@
       <c r="F12" t="n">
         <v>21.05931589769223</v>
       </c>
-      <c r="G12" t="n">
-        <v>276.6072692871094</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>109.8043670654297</v>
+        <v>201.9462127685547</v>
       </c>
       <c r="I12" t="n">
-        <v>896.93408203125</v>
+        <v>53.36008453369141</v>
       </c>
       <c r="J12" t="n">
-        <v>88.2742919921875</v>
+        <v>911.2382202148438</v>
+      </c>
+      <c r="K12" t="n">
+        <v>62.65510559082031</v>
       </c>
     </row>
     <row r="13">
@@ -856,17 +916,22 @@
       <c r="F13" t="n">
         <v>21.38449445236935</v>
       </c>
-      <c r="G13" t="n">
-        <v>430.4528503417969</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>184.6152038574219</v>
+        <v>358.1187744140625</v>
       </c>
       <c r="I13" t="n">
-        <v>896.088134765625</v>
+        <v>163.2567138671875</v>
       </c>
       <c r="J13" t="n">
-        <v>106.4817352294922</v>
+        <v>904.6275024414062</v>
+      </c>
+      <c r="K13" t="n">
+        <v>68.44870758056641</v>
       </c>
     </row>
     <row r="14">
@@ -888,17 +953,22 @@
       <c r="F14" t="n">
         <v>19.79697020692051</v>
       </c>
-      <c r="G14" t="n">
-        <v>119.3372497558594</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>51.59273147583008</v>
+        <v>111.9019546508789</v>
       </c>
       <c r="I14" t="n">
-        <v>615.0380249023438</v>
+        <v>34.28883361816406</v>
       </c>
       <c r="J14" t="n">
-        <v>209.9073333740234</v>
+        <v>685.7321166992188</v>
+      </c>
+      <c r="K14" t="n">
+        <v>202.138427734375</v>
       </c>
     </row>
     <row r="15">
@@ -920,17 +990,22 @@
       <c r="F15" t="n">
         <v>21.48203443327129</v>
       </c>
-      <c r="G15" t="n">
-        <v>122.4165344238281</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>50.12100601196289</v>
+        <v>117.249885559082</v>
       </c>
       <c r="I15" t="n">
-        <v>981.13916015625</v>
+        <v>33.07991790771484</v>
       </c>
       <c r="J15" t="n">
-        <v>72.75254058837891</v>
+        <v>980.0521850585938</v>
+      </c>
+      <c r="K15" t="n">
+        <v>71.51309204101562</v>
       </c>
     </row>
     <row r="16">
@@ -952,17 +1027,22 @@
       <c r="F16" t="n">
         <v>22.47631622738632</v>
       </c>
-      <c r="G16" t="n">
-        <v>136.5665130615234</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>49.44161605834961</v>
+        <v>132.0838928222656</v>
       </c>
       <c r="I16" t="n">
-        <v>968.9022827148438</v>
+        <v>31.49409866333008</v>
       </c>
       <c r="J16" t="n">
-        <v>66.7813720703125</v>
+        <v>967.5416870117188</v>
+      </c>
+      <c r="K16" t="n">
+        <v>66.72976684570312</v>
       </c>
     </row>
     <row r="17">
@@ -984,17 +1064,22 @@
       <c r="F17" t="n">
         <v>24.35763244318183</v>
       </c>
-      <c r="G17" t="n">
-        <v>151.3622131347656</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>45.19523239135742</v>
+        <v>142.0017395019531</v>
       </c>
       <c r="I17" t="n">
-        <v>968.7733154296875</v>
+        <v>31.10331726074219</v>
       </c>
       <c r="J17" t="n">
-        <v>65.06673431396484</v>
+        <v>959.528564453125</v>
+      </c>
+      <c r="K17" t="n">
+        <v>65.63609313964844</v>
       </c>
     </row>
     <row r="18">
@@ -1016,17 +1101,22 @@
       <c r="F18" t="n">
         <v>25.62064236797445</v>
       </c>
-      <c r="G18" t="n">
-        <v>168.7087097167969</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>42.74385452270508</v>
+        <v>150.1520233154297</v>
       </c>
       <c r="I18" t="n">
-        <v>942.3414306640625</v>
+        <v>30.26387596130371</v>
       </c>
       <c r="J18" t="n">
-        <v>66.99798583984375</v>
+        <v>943.7691650390625</v>
+      </c>
+      <c r="K18" t="n">
+        <v>62.67372131347656</v>
       </c>
     </row>
     <row r="19">
@@ -1048,17 +1138,22 @@
       <c r="F19" t="n">
         <v>25.92967709475499</v>
       </c>
-      <c r="G19" t="n">
-        <v>199.3941955566406</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>44.79945755004883</v>
+        <v>166.9732971191406</v>
       </c>
       <c r="I19" t="n">
-        <v>917.7775268554688</v>
+        <v>30.15817832946777</v>
       </c>
       <c r="J19" t="n">
-        <v>75.56712341308594</v>
+        <v>936.9171752929688</v>
+      </c>
+      <c r="K19" t="n">
+        <v>59.05303192138672</v>
       </c>
     </row>
     <row r="20">
@@ -1080,17 +1175,22 @@
       <c r="F20" t="n">
         <v>26.19588155013293</v>
       </c>
-      <c r="G20" t="n">
-        <v>260.9797668457031</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>86.52943420410156</v>
+        <v>196.1039733886719</v>
       </c>
       <c r="I20" t="n">
-        <v>901.3560180664062</v>
+        <v>41.62311935424805</v>
       </c>
       <c r="J20" t="n">
-        <v>84.25152587890625</v>
+        <v>922.225341796875</v>
+      </c>
+      <c r="K20" t="n">
+        <v>65.57747650146484</v>
       </c>
     </row>
     <row r="21">
@@ -1112,17 +1212,22 @@
       <c r="F21" t="n">
         <v>25.87267490890685</v>
       </c>
-      <c r="G21" t="n">
-        <v>440.4602661132812</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>183.9896545410156</v>
+        <v>350.1923828125</v>
       </c>
       <c r="I21" t="n">
-        <v>890.4138793945312</v>
+        <v>143.8883209228516</v>
       </c>
       <c r="J21" t="n">
-        <v>100.8125228881836</v>
+        <v>909.4407348632812</v>
+      </c>
+      <c r="K21" t="n">
+        <v>73.75546264648438</v>
       </c>
     </row>
     <row r="22">
@@ -1144,17 +1249,22 @@
       <c r="F22" t="n">
         <v>24.64055238634836</v>
       </c>
-      <c r="G22" t="n">
-        <v>704.094970703125</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>127.9776840209961</v>
+        <v>708.588623046875</v>
       </c>
       <c r="I22" t="n">
-        <v>909.3114624023438</v>
+        <v>105.9210815429688</v>
       </c>
       <c r="J22" t="n">
-        <v>103.4089126586914</v>
+        <v>896.69970703125</v>
+      </c>
+      <c r="K22" t="n">
+        <v>98.01596069335938</v>
       </c>
     </row>
     <row r="23">
@@ -1176,17 +1286,22 @@
       <c r="F23" t="n">
         <v>24.69862396067251</v>
       </c>
-      <c r="G23" t="n">
-        <v>113.5337371826172</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>54.16130828857422</v>
+        <v>107.1512985229492</v>
       </c>
       <c r="I23" t="n">
-        <v>246.0944061279297</v>
+        <v>34.42025756835938</v>
       </c>
       <c r="J23" t="n">
-        <v>96.36137390136719</v>
+        <v>245.0850219726562</v>
+      </c>
+      <c r="K23" t="n">
+        <v>106.5424499511719</v>
       </c>
     </row>
     <row r="24">
@@ -1208,17 +1323,22 @@
       <c r="F24" t="n">
         <v>27.11629087610016</v>
       </c>
-      <c r="G24" t="n">
-        <v>130.2847442626953</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>49.04122924804688</v>
+        <v>114.851806640625</v>
       </c>
       <c r="I24" t="n">
-        <v>398.6759948730469</v>
+        <v>34.25627899169922</v>
       </c>
       <c r="J24" t="n">
-        <v>158.0912628173828</v>
+        <v>475.9790649414062</v>
+      </c>
+      <c r="K24" t="n">
+        <v>198.2237854003906</v>
       </c>
     </row>
     <row r="25">
@@ -1240,17 +1360,22 @@
       <c r="F25" t="n">
         <v>28.97995691733995</v>
       </c>
-      <c r="G25" t="n">
-        <v>140.6806945800781</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>46.57755279541016</v>
+        <v>126.8473663330078</v>
       </c>
       <c r="I25" t="n">
-        <v>889.0054931640625</v>
+        <v>32.11488342285156</v>
       </c>
       <c r="J25" t="n">
-        <v>118.0829544067383</v>
+        <v>887.1714477539062</v>
+      </c>
+      <c r="K25" t="n">
+        <v>129.242431640625</v>
       </c>
     </row>
     <row r="26">
@@ -1272,17 +1397,22 @@
       <c r="F26" t="n">
         <v>30.34265377319738</v>
       </c>
-      <c r="G26" t="n">
-        <v>151.9054260253906</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>43.39614105224609</v>
+        <v>137.9663848876953</v>
       </c>
       <c r="I26" t="n">
-        <v>974.2281494140625</v>
+        <v>30.54433441162109</v>
       </c>
       <c r="J26" t="n">
-        <v>79.59186553955078</v>
+        <v>969.3292846679688</v>
+      </c>
+      <c r="K26" t="n">
+        <v>74.24500274658203</v>
       </c>
     </row>
     <row r="27">
@@ -1304,17 +1434,22 @@
       <c r="F27" t="n">
         <v>31.86528713449996</v>
       </c>
-      <c r="G27" t="n">
-        <v>170.3939666748047</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>39.67757034301758</v>
+        <v>152.0284576416016</v>
       </c>
       <c r="I27" t="n">
-        <v>965.4732055664062</v>
+        <v>30.26654243469238</v>
       </c>
       <c r="J27" t="n">
-        <v>72.56072998046875</v>
+        <v>966.0366821289062</v>
+      </c>
+      <c r="K27" t="n">
+        <v>67.94075775146484</v>
       </c>
     </row>
     <row r="28">
@@ -1336,17 +1471,22 @@
       <c r="F28" t="n">
         <v>31.70139237157215</v>
       </c>
-      <c r="G28" t="n">
-        <v>203.8499450683594</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>38.42319107055664</v>
+        <v>169.1301879882812</v>
       </c>
       <c r="I28" t="n">
-        <v>935.197265625</v>
+        <v>28.95940971374512</v>
       </c>
       <c r="J28" t="n">
-        <v>78.84379577636719</v>
+        <v>950.9528198242188</v>
+      </c>
+      <c r="K28" t="n">
+        <v>65.56118011474609</v>
       </c>
     </row>
     <row r="29">
@@ -1368,17 +1508,22 @@
       <c r="F29" t="n">
         <v>31.7420363140709</v>
       </c>
-      <c r="G29" t="n">
-        <v>255.2160186767578</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>57.29304122924805</v>
+        <v>197.5435791015625</v>
       </c>
       <c r="I29" t="n">
-        <v>896.44677734375</v>
+        <v>35.02724075317383</v>
       </c>
       <c r="J29" t="n">
-        <v>100.8295440673828</v>
+        <v>932.572998046875</v>
+      </c>
+      <c r="K29" t="n">
+        <v>70.07344055175781</v>
       </c>
     </row>
     <row r="30">
@@ -1400,17 +1545,22 @@
       <c r="F30" t="n">
         <v>30.76237588603813</v>
       </c>
-      <c r="G30" t="n">
-        <v>430.7633361816406</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>168.8925018310547</v>
+        <v>363.3722839355469</v>
       </c>
       <c r="I30" t="n">
-        <v>864.1962280273438</v>
+        <v>123.0706329345703</v>
       </c>
       <c r="J30" t="n">
-        <v>116.269401550293</v>
+        <v>908.78759765625</v>
+      </c>
+      <c r="K30" t="n">
+        <v>90.19255065917969</v>
       </c>
     </row>
     <row r="31">
@@ -1432,17 +1582,22 @@
       <c r="F31" t="n">
         <v>29.73442789455431</v>
       </c>
-      <c r="G31" t="n">
-        <v>732.4749755859375</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>79.58888244628906</v>
+        <v>696.6481323242188</v>
       </c>
       <c r="I31" t="n">
-        <v>861.0138549804688</v>
+        <v>88.54077911376953</v>
       </c>
       <c r="J31" t="n">
-        <v>134.9515228271484</v>
+        <v>868.90869140625</v>
+      </c>
+      <c r="K31" t="n">
+        <v>132.5337982177734</v>
       </c>
     </row>
     <row r="32">
@@ -1464,17 +1619,22 @@
       <c r="F32" t="n">
         <v>30.37782838567884</v>
       </c>
-      <c r="G32" t="n">
-        <v>116.776123046875</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>54.69106292724609</v>
+        <v>104.6256942749023</v>
       </c>
       <c r="I32" t="n">
-        <v>146.3310241699219</v>
+        <v>36.76028442382812</v>
       </c>
       <c r="J32" t="n">
-        <v>60.12343978881836</v>
+        <v>135.4331207275391</v>
+      </c>
+      <c r="K32" t="n">
+        <v>50.55669784545898</v>
       </c>
     </row>
     <row r="33">
@@ -1496,17 +1656,22 @@
       <c r="F33" t="n">
         <v>33.11659379389907</v>
       </c>
-      <c r="G33" t="n">
-        <v>134.2174682617188</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>50.22600173950195</v>
+        <v>113.8834991455078</v>
       </c>
       <c r="I33" t="n">
-        <v>191.5948028564453</v>
+        <v>35.20771026611328</v>
       </c>
       <c r="J33" t="n">
-        <v>75.64141082763672</v>
+        <v>182.1832885742188</v>
+      </c>
+      <c r="K33" t="n">
+        <v>71.70003509521484</v>
       </c>
     </row>
     <row r="34">
@@ -1528,17 +1693,22 @@
       <c r="F34" t="n">
         <v>35.40504769440309</v>
       </c>
-      <c r="G34" t="n">
-        <v>147.0509948730469</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>46.16755294799805</v>
+        <v>123.7980346679688</v>
       </c>
       <c r="I34" t="n">
-        <v>293.8063354492188</v>
+        <v>32.43622970581055</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2167892456055</v>
+        <v>303.9854736328125</v>
+      </c>
+      <c r="K34" t="n">
+        <v>137.1589660644531</v>
       </c>
     </row>
     <row r="35">
@@ -1560,17 +1730,22 @@
       <c r="F35" t="n">
         <v>37.57764389518124</v>
       </c>
-      <c r="G35" t="n">
-        <v>162.5257873535156</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>44.53075790405273</v>
+        <v>135.0419464111328</v>
       </c>
       <c r="I35" t="n">
-        <v>472.1900939941406</v>
+        <v>30.59836959838867</v>
       </c>
       <c r="J35" t="n">
-        <v>176.8208618164062</v>
+        <v>481.142333984375</v>
+      </c>
+      <c r="K35" t="n">
+        <v>194.7329254150391</v>
       </c>
     </row>
     <row r="36">
@@ -1592,17 +1767,22 @@
       <c r="F36" t="n">
         <v>38.09115608907656</v>
       </c>
-      <c r="G36" t="n">
-        <v>181.8780822753906</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>40.96060943603516</v>
+        <v>149.1490325927734</v>
       </c>
       <c r="I36" t="n">
-        <v>800.0472412109375</v>
+        <v>29.7285327911377</v>
       </c>
       <c r="J36" t="n">
-        <v>146.2245635986328</v>
+        <v>777.9671630859375</v>
+      </c>
+      <c r="K36" t="n">
+        <v>157.9983062744141</v>
       </c>
     </row>
     <row r="37">
@@ -1624,17 +1804,22 @@
       <c r="F37" t="n">
         <v>38.33579750611559</v>
       </c>
-      <c r="G37" t="n">
-        <v>210.9765167236328</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H37" t="n">
-        <v>41.46615982055664</v>
+        <v>164.6721649169922</v>
       </c>
       <c r="I37" t="n">
-        <v>803.8941650390625</v>
+        <v>29.71551704406738</v>
       </c>
       <c r="J37" t="n">
-        <v>152.5936431884766</v>
+        <v>786.3528442382812</v>
+      </c>
+      <c r="K37" t="n">
+        <v>140.1707458496094</v>
       </c>
     </row>
     <row r="38">
@@ -1656,17 +1841,22 @@
       <c r="F38" t="n">
         <v>37.89528654115976</v>
       </c>
-      <c r="G38" t="n">
-        <v>271.022216796875</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>61.7601318359375</v>
+        <v>201.4846343994141</v>
       </c>
       <c r="I38" t="n">
-        <v>801.936279296875</v>
+        <v>35.57757949829102</v>
       </c>
       <c r="J38" t="n">
-        <v>156.9496765136719</v>
+        <v>830.7034912109375</v>
+      </c>
+      <c r="K38" t="n">
+        <v>140.5000762939453</v>
       </c>
     </row>
     <row r="39">
@@ -1688,17 +1878,22 @@
       <c r="F39" t="n">
         <v>37.04916938976096</v>
       </c>
-      <c r="G39" t="n">
-        <v>413.4548034667969</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>128.2920532226562</v>
+        <v>353.3551940917969</v>
       </c>
       <c r="I39" t="n">
-        <v>767.7191772460938</v>
+        <v>108.6596221923828</v>
       </c>
       <c r="J39" t="n">
-        <v>190.2572174072266</v>
+        <v>813.5792236328125</v>
+      </c>
+      <c r="K39" t="n">
+        <v>142.7746276855469</v>
       </c>
     </row>
     <row r="40">
@@ -1720,17 +1915,22 @@
       <c r="F40" t="n">
         <v>35.00856026880581</v>
       </c>
-      <c r="G40" t="n">
-        <v>703.4468383789062</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>83.80948638916016</v>
+        <v>665.372802734375</v>
       </c>
       <c r="I40" t="n">
-        <v>755.6876831054688</v>
+        <v>75.91965484619141</v>
       </c>
       <c r="J40" t="n">
-        <v>210.5121154785156</v>
+        <v>756.7711181640625</v>
+      </c>
+      <c r="K40" t="n">
+        <v>174.6932983398438</v>
       </c>
     </row>
     <row r="41">
@@ -1752,17 +1952,22 @@
       <c r="F41" t="n">
         <v>37.58863922492247</v>
       </c>
-      <c r="G41" t="n">
-        <v>121.1906127929688</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>53.04346466064453</v>
+        <v>102.5461654663086</v>
       </c>
       <c r="I41" t="n">
-        <v>110.7553482055664</v>
+        <v>36.28271865844727</v>
       </c>
       <c r="J41" t="n">
-        <v>48.21770095825195</v>
+        <v>106.6546859741211</v>
+      </c>
+      <c r="K41" t="n">
+        <v>45.84654998779297</v>
       </c>
     </row>
     <row r="42">
@@ -1784,17 +1989,22 @@
       <c r="F42" t="n">
         <v>40.4685427958547</v>
       </c>
-      <c r="G42" t="n">
-        <v>134.7263031005859</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>51.10170364379883</v>
+        <v>108.3860397338867</v>
       </c>
       <c r="I42" t="n">
-        <v>129.4790344238281</v>
+        <v>34.15488433837891</v>
       </c>
       <c r="J42" t="n">
-        <v>54.97693252563477</v>
+        <v>125.2389602661133</v>
+      </c>
+      <c r="K42" t="n">
+        <v>45.89400100708008</v>
       </c>
     </row>
     <row r="43">
@@ -1816,17 +2026,22 @@
       <c r="F43" t="n">
         <v>42.41365999634309</v>
       </c>
-      <c r="G43" t="n">
-        <v>147.8089294433594</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>49.07461547851562</v>
+        <v>117.9911956787109</v>
       </c>
       <c r="I43" t="n">
-        <v>142.6087951660156</v>
+        <v>32.8646125793457</v>
       </c>
       <c r="J43" t="n">
-        <v>55.62273025512695</v>
+        <v>145.7203674316406</v>
+      </c>
+      <c r="K43" t="n">
+        <v>56.02420043945312</v>
       </c>
     </row>
     <row r="44">
@@ -1848,17 +2063,22 @@
       <c r="F44" t="n">
         <v>44.05056700894834</v>
       </c>
-      <c r="G44" t="n">
-        <v>163.3995819091797</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>46.34974670410156</v>
+        <v>130.6577453613281</v>
       </c>
       <c r="I44" t="n">
-        <v>198.1104888916016</v>
+        <v>31.11398315429688</v>
       </c>
       <c r="J44" t="n">
-        <v>72.84185791015625</v>
+        <v>210.9039916992188</v>
+      </c>
+      <c r="K44" t="n">
+        <v>78.89545440673828</v>
       </c>
     </row>
     <row r="45">
@@ -1880,17 +2100,22 @@
       <c r="F45" t="n">
         <v>45.28527361475503</v>
       </c>
-      <c r="G45" t="n">
-        <v>177.0353698730469</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>43.06673431396484</v>
+        <v>141.6168518066406</v>
       </c>
       <c r="I45" t="n">
-        <v>242.8330230712891</v>
+        <v>31.69695472717285</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2248764038086</v>
+        <v>253.3858032226562</v>
+      </c>
+      <c r="K45" t="n">
+        <v>94.86915588378906</v>
       </c>
     </row>
     <row r="46">
@@ -1912,17 +2137,22 @@
       <c r="F46" t="n">
         <v>45.11415223222625</v>
       </c>
-      <c r="G46" t="n">
-        <v>201.0437927246094</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>39.3970947265625</v>
+        <v>158.8987579345703</v>
       </c>
       <c r="I46" t="n">
-        <v>318.7034912109375</v>
+        <v>29.44419860839844</v>
       </c>
       <c r="J46" t="n">
-        <v>133.2052459716797</v>
+        <v>351.1651306152344</v>
+      </c>
+      <c r="K46" t="n">
+        <v>133.9529113769531</v>
       </c>
     </row>
     <row r="47">
@@ -1944,17 +2174,22 @@
       <c r="F47" t="n">
         <v>44.97584185956661</v>
       </c>
-      <c r="G47" t="n">
-        <v>248.3706970214844</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>45.58113098144531</v>
+        <v>191.8534545898438</v>
       </c>
       <c r="I47" t="n">
-        <v>413.4534301757812</v>
+        <v>33.38150024414062</v>
       </c>
       <c r="J47" t="n">
-        <v>177.7460021972656</v>
+        <v>438.9323425292969</v>
+      </c>
+      <c r="K47" t="n">
+        <v>173.2864837646484</v>
       </c>
     </row>
     <row r="48">
@@ -1976,17 +2211,22 @@
       <c r="F48" t="n">
         <v>42.0865253634753</v>
       </c>
-      <c r="G48" t="n">
-        <v>401.6015930175781</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>114.1067581176758</v>
+        <v>354.2768249511719</v>
       </c>
       <c r="I48" t="n">
-        <v>568.7613525390625</v>
+        <v>119.2727661132812</v>
       </c>
       <c r="J48" t="n">
-        <v>216.6089019775391</v>
+        <v>566.8021240234375</v>
+      </c>
+      <c r="K48" t="n">
+        <v>184.4850463867188</v>
       </c>
     </row>
     <row r="49">
@@ -2008,17 +2248,22 @@
       <c r="F49" t="n">
         <v>40.81585186348995</v>
       </c>
-      <c r="G49" t="n">
-        <v>657.6192626953125</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>95.85738372802734</v>
+        <v>614.4637451171875</v>
       </c>
       <c r="I49" t="n">
-        <v>631.9924926757812</v>
+        <v>89.84146118164062</v>
       </c>
       <c r="J49" t="n">
-        <v>230.1061553955078</v>
+        <v>615.9966430664062</v>
+      </c>
+      <c r="K49" t="n">
+        <v>191.2308349609375</v>
       </c>
     </row>
     <row r="50">
@@ -2040,17 +2285,22 @@
       <c r="F50" t="n">
         <v>45.37200448015243</v>
       </c>
-      <c r="G50" t="n">
-        <v>125.1278228759766</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>51.2081413269043</v>
+        <v>106.6411437988281</v>
       </c>
       <c r="I50" t="n">
-        <v>77.36188507080078</v>
+        <v>35.94554901123047</v>
       </c>
       <c r="J50" t="n">
-        <v>46.52405166625977</v>
+        <v>76.54002380371094</v>
+      </c>
+      <c r="K50" t="n">
+        <v>44.08438491821289</v>
       </c>
     </row>
     <row r="51">
@@ -2072,17 +2322,22 @@
       <c r="F51" t="n">
         <v>48.78786662406539</v>
       </c>
-      <c r="G51" t="n">
-        <v>140.1902008056641</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>49.31518936157227</v>
+        <v>111.3501052856445</v>
       </c>
       <c r="I51" t="n">
-        <v>85.21779632568359</v>
+        <v>33.81729888916016</v>
       </c>
       <c r="J51" t="n">
-        <v>48.35354995727539</v>
+        <v>92.82500457763672</v>
+      </c>
+      <c r="K51" t="n">
+        <v>47.85404586791992</v>
       </c>
     </row>
     <row r="52">
@@ -2104,17 +2359,22 @@
       <c r="F52" t="n">
         <v>50.73675625671652</v>
       </c>
-      <c r="G52" t="n">
-        <v>152.9213714599609</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H52" t="n">
-        <v>45.70547866821289</v>
+        <v>116.4201431274414</v>
       </c>
       <c r="I52" t="n">
-        <v>96.86297607421875</v>
+        <v>33.53442764282227</v>
       </c>
       <c r="J52" t="n">
-        <v>51.01060485839844</v>
+        <v>99.44393920898438</v>
+      </c>
+      <c r="K52" t="n">
+        <v>49.36909103393555</v>
       </c>
     </row>
     <row r="53">
@@ -2136,17 +2396,22 @@
       <c r="F53" t="n">
         <v>51.96609868449762</v>
       </c>
-      <c r="G53" t="n">
-        <v>166.0358734130859</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>46.02146148681641</v>
+        <v>127.3507537841797</v>
       </c>
       <c r="I53" t="n">
-        <v>116.7393264770508</v>
+        <v>33.25882720947266</v>
       </c>
       <c r="J53" t="n">
-        <v>52.55926132202148</v>
+        <v>122.5413436889648</v>
+      </c>
+      <c r="K53" t="n">
+        <v>53.00013732910156</v>
       </c>
     </row>
     <row r="54">
@@ -2168,17 +2433,22 @@
       <c r="F54" t="n">
         <v>52.45736467440484</v>
       </c>
-      <c r="G54" t="n">
-        <v>178.0010223388672</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>43.10119247436523</v>
+        <v>140.2862091064453</v>
       </c>
       <c r="I54" t="n">
-        <v>139.5872344970703</v>
+        <v>31.19009399414062</v>
       </c>
       <c r="J54" t="n">
-        <v>55.61536026000977</v>
+        <v>150.1551208496094</v>
+      </c>
+      <c r="K54" t="n">
+        <v>53.6983528137207</v>
       </c>
     </row>
     <row r="55">
@@ -2200,17 +2470,22 @@
       <c r="F55" t="n">
         <v>51.85220057025387</v>
       </c>
-      <c r="G55" t="n">
-        <v>194.7287902832031</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>39.8046989440918</v>
+        <v>156.3886108398438</v>
       </c>
       <c r="I55" t="n">
-        <v>167.282470703125</v>
+        <v>32.17715072631836</v>
       </c>
       <c r="J55" t="n">
-        <v>56.69120788574219</v>
+        <v>181.4124145507812</v>
+      </c>
+      <c r="K55" t="n">
+        <v>51.68308639526367</v>
       </c>
     </row>
     <row r="56">
@@ -2232,17 +2507,22 @@
       <c r="F56" t="n">
         <v>51.37276147532685</v>
       </c>
-      <c r="G56" t="n">
-        <v>232.6991119384766</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H56" t="n">
-        <v>41.74353790283203</v>
+        <v>183.4573822021484</v>
       </c>
       <c r="I56" t="n">
-        <v>194.1980743408203</v>
+        <v>33.14249801635742</v>
       </c>
       <c r="J56" t="n">
-        <v>67.48390197753906</v>
+        <v>198.058349609375</v>
+      </c>
+      <c r="K56" t="n">
+        <v>59.80014038085938</v>
       </c>
     </row>
     <row r="57">
@@ -2264,17 +2544,22 @@
       <c r="F57" t="n">
         <v>49.881475732815</v>
       </c>
-      <c r="G57" t="n">
-        <v>319.0113830566406</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>70.96110534667969</v>
+        <v>291.7386169433594</v>
       </c>
       <c r="I57" t="n">
-        <v>279.3865356445312</v>
+        <v>104.5668487548828</v>
       </c>
       <c r="J57" t="n">
-        <v>120.7843551635742</v>
+        <v>287.9093933105469</v>
+      </c>
+      <c r="K57" t="n">
+        <v>115.6882476806641</v>
       </c>
     </row>
     <row r="58">
@@ -2296,17 +2581,22 @@
       <c r="F58" t="n">
         <v>46.147295090649</v>
       </c>
-      <c r="G58" t="n">
-        <v>618.1012573242188</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>99.29109191894531</v>
+        <v>599.5162963867188</v>
       </c>
       <c r="I58" t="n">
-        <v>403.7071838378906</v>
+        <v>95.23489379882812</v>
       </c>
       <c r="J58" t="n">
-        <v>205.21826171875</v>
+        <v>396.2871398925781</v>
+      </c>
+      <c r="K58" t="n">
+        <v>191.3909912109375</v>
       </c>
     </row>
     <row r="59">
@@ -2328,17 +2618,22 @@
       <c r="F59" t="n">
         <v>56.70921047332411</v>
       </c>
-      <c r="G59" t="n">
-        <v>153.4481048583984</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>49.59724044799805</v>
+        <v>114.6608963012695</v>
       </c>
       <c r="I59" t="n">
-        <v>33.52294540405273</v>
+        <v>34.19572448730469</v>
       </c>
       <c r="J59" t="n">
-        <v>62.62076568603516</v>
+        <v>44.13813400268555</v>
+      </c>
+      <c r="K59" t="n">
+        <v>56.8227653503418</v>
       </c>
     </row>
     <row r="60">
@@ -2360,17 +2655,22 @@
       <c r="F60" t="n">
         <v>58.23723423416003</v>
       </c>
-      <c r="G60" t="n">
-        <v>158.0398864746094</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>48.39252090454102</v>
+        <v>120.3016052246094</v>
       </c>
       <c r="I60" t="n">
-        <v>44.37935638427734</v>
+        <v>33.7967643737793</v>
       </c>
       <c r="J60" t="n">
-        <v>60.45273208618164</v>
+        <v>56.26503372192383</v>
+      </c>
+      <c r="K60" t="n">
+        <v>61.94613647460938</v>
       </c>
     </row>
     <row r="61">
@@ -2392,17 +2692,22 @@
       <c r="F61" t="n">
         <v>59.34611390594659</v>
       </c>
-      <c r="G61" t="n">
-        <v>169.4546966552734</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>47.23758316040039</v>
+        <v>126.7844161987305</v>
       </c>
       <c r="I61" t="n">
-        <v>58.53472518920898</v>
+        <v>33.0084114074707</v>
       </c>
       <c r="J61" t="n">
-        <v>63.90456771850586</v>
+        <v>74.56922912597656</v>
+      </c>
+      <c r="K61" t="n">
+        <v>63.29840850830078</v>
       </c>
     </row>
     <row r="62">
@@ -2424,17 +2729,22 @@
       <c r="F62" t="n">
         <v>59.33493295870724</v>
       </c>
-      <c r="G62" t="n">
-        <v>180.7893981933594</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H62" t="n">
-        <v>45.31014633178711</v>
+        <v>136.9891052246094</v>
       </c>
       <c r="I62" t="n">
-        <v>84.37595367431641</v>
+        <v>33.50865936279297</v>
       </c>
       <c r="J62" t="n">
-        <v>65.25445556640625</v>
+        <v>91.99471282958984</v>
+      </c>
+      <c r="K62" t="n">
+        <v>63.35026931762695</v>
       </c>
     </row>
     <row r="63">
@@ -2456,17 +2766,22 @@
       <c r="F63" t="n">
         <v>58.39353789451046</v>
       </c>
-      <c r="G63" t="n">
-        <v>192.6978149414062</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H63" t="n">
-        <v>42.80707931518555</v>
+        <v>149.950439453125</v>
       </c>
       <c r="I63" t="n">
-        <v>113.2888641357422</v>
+        <v>32.51841354370117</v>
       </c>
       <c r="J63" t="n">
-        <v>62.22751617431641</v>
+        <v>116.2256088256836</v>
+      </c>
+      <c r="K63" t="n">
+        <v>58.59307861328125</v>
       </c>
     </row>
     <row r="64">
@@ -2488,17 +2803,22 @@
       <c r="F64" t="n">
         <v>57.3323684814925</v>
       </c>
-      <c r="G64" t="n">
-        <v>225.5741729736328</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H64" t="n">
-        <v>41.89582443237305</v>
+        <v>175.6089782714844</v>
       </c>
       <c r="I64" t="n">
-        <v>141.2923278808594</v>
+        <v>32.25961685180664</v>
       </c>
       <c r="J64" t="n">
-        <v>58.87061309814453</v>
+        <v>139.3749542236328</v>
+      </c>
+      <c r="K64" t="n">
+        <v>53.34242248535156</v>
       </c>
     </row>
     <row r="65">
@@ -2520,17 +2840,22 @@
       <c r="F65" t="n">
         <v>54.83283250514894</v>
       </c>
-      <c r="G65" t="n">
-        <v>315.1563415527344</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H65" t="n">
-        <v>77.05952453613281</v>
+        <v>284.8626403808594</v>
       </c>
       <c r="I65" t="n">
-        <v>190.4190216064453</v>
+        <v>104.5583877563477</v>
       </c>
       <c r="J65" t="n">
-        <v>82.08921051025391</v>
+        <v>189.3908538818359</v>
+      </c>
+      <c r="K65" t="n">
+        <v>80.92431640625</v>
       </c>
     </row>
     <row r="66">
@@ -2552,17 +2877,22 @@
       <c r="F66" t="n">
         <v>66.18771861830042</v>
       </c>
-      <c r="G66" t="n">
-        <v>175.283935546875</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H66" t="n">
-        <v>46.55112457275391</v>
+        <v>127.1298294067383</v>
       </c>
       <c r="I66" t="n">
-        <v>-25.72052001953125</v>
+        <v>32.60417556762695</v>
       </c>
       <c r="J66" t="n">
-        <v>73.52451324462891</v>
+        <v>1.882785081863403</v>
+      </c>
+      <c r="K66" t="n">
+        <v>63.92676162719727</v>
       </c>
     </row>
     <row r="67">
@@ -2584,17 +2914,22 @@
       <c r="F67" t="n">
         <v>66.85471859160208</v>
       </c>
-      <c r="G67" t="n">
-        <v>178.5202178955078</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H67" t="n">
-        <v>46.12078094482422</v>
+        <v>131.1399993896484</v>
       </c>
       <c r="I67" t="n">
-        <v>-10.1461238861084</v>
+        <v>34.1195182800293</v>
       </c>
       <c r="J67" t="n">
-        <v>75.46595001220703</v>
+        <v>14.64370727539062</v>
+      </c>
+      <c r="K67" t="n">
+        <v>66.26217651367188</v>
       </c>
     </row>
     <row r="68">
@@ -2616,17 +2951,22 @@
       <c r="F68" t="n">
         <v>66.29608309198557</v>
       </c>
-      <c r="G68" t="n">
-        <v>188.7584686279297</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>46.90737533569336</v>
+        <v>142.9109954833984</v>
       </c>
       <c r="I68" t="n">
-        <v>35.84660339355469</v>
+        <v>33.30791473388672</v>
       </c>
       <c r="J68" t="n">
-        <v>74.64532470703125</v>
+        <v>45.39928436279297</v>
+      </c>
+      <c r="K68" t="n">
+        <v>67.46723937988281</v>
       </c>
     </row>
     <row r="69">
@@ -2648,17 +2988,22 @@
       <c r="F69" t="n">
         <v>65.32452373485688</v>
       </c>
-      <c r="G69" t="n">
-        <v>197.0293579101562</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H69" t="n">
-        <v>45.22782135009766</v>
+        <v>149.7189178466797</v>
       </c>
       <c r="I69" t="n">
-        <v>66.58852386474609</v>
+        <v>32.68833541870117</v>
       </c>
       <c r="J69" t="n">
-        <v>73.20176696777344</v>
+        <v>67.31410217285156</v>
+      </c>
+      <c r="K69" t="n">
+        <v>67.72381591796875</v>
       </c>
     </row>
     <row r="70">
@@ -2680,17 +3025,22 @@
       <c r="F70" t="n">
         <v>63.37031159981304</v>
       </c>
-      <c r="G70" t="n">
-        <v>225.8528137207031</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H70" t="n">
-        <v>45.92140197753906</v>
+        <v>172.0903930664062</v>
       </c>
       <c r="I70" t="n">
-        <v>111.8473434448242</v>
+        <v>32.23955535888672</v>
       </c>
       <c r="J70" t="n">
-        <v>75.75346374511719</v>
+        <v>104.2447891235352</v>
+      </c>
+      <c r="K70" t="n">
+        <v>59.57153701782227</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>132.0215148925781</v>
+        <v>131.1028594970703</v>
       </c>
       <c r="I2" t="n">
-        <v>32.13779067993164</v>
+        <v>33.63835525512695</v>
       </c>
       <c r="J2" t="n">
-        <v>904.0909423828125</v>
+        <v>903.7791748046875</v>
       </c>
       <c r="K2" t="n">
-        <v>55.10268020629883</v>
+        <v>59.05687713623047</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>146.1163635253906</v>
+        <v>144.6027679443359</v>
       </c>
       <c r="I3" t="n">
-        <v>40.11771011352539</v>
+        <v>35.33105850219727</v>
       </c>
       <c r="J3" t="n">
-        <v>908.5303344726562</v>
+        <v>908.1145629882812</v>
       </c>
       <c r="K3" t="n">
-        <v>58.5848388671875</v>
+        <v>56.44431686401367</v>
       </c>
     </row>
     <row r="4">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>160.2063598632812</v>
+        <v>159.8003234863281</v>
       </c>
       <c r="I4" t="n">
-        <v>38.95832443237305</v>
+        <v>41.18286895751953</v>
       </c>
       <c r="J4" t="n">
-        <v>910.7736206054688</v>
+        <v>913.0797729492188</v>
       </c>
       <c r="K4" t="n">
-        <v>59.70282745361328</v>
+        <v>57.77002334594727</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>181.1087188720703</v>
+        <v>179.9111328125</v>
       </c>
       <c r="I5" t="n">
-        <v>53.67144393920898</v>
+        <v>52.75830078125</v>
       </c>
       <c r="J5" t="n">
-        <v>912.5267944335938</v>
+        <v>911.4822998046875</v>
       </c>
       <c r="K5" t="n">
-        <v>62.78985595703125</v>
+        <v>60.29242324829102</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>227.7680511474609</v>
+        <v>228.8663330078125</v>
       </c>
       <c r="I6" t="n">
-        <v>94.318603515625</v>
+        <v>93.49217224121094</v>
       </c>
       <c r="J6" t="n">
-        <v>912.5371704101562</v>
+        <v>914.5282592773438</v>
       </c>
       <c r="K6" t="n">
-        <v>60.13736343383789</v>
+        <v>64.11071014404297</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>124.432373046875</v>
+        <v>124.9726028442383</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64391708374023</v>
+        <v>31.72144889831543</v>
       </c>
       <c r="J7" t="n">
-        <v>940.709716796875</v>
+        <v>943.08935546875</v>
       </c>
       <c r="K7" t="n">
-        <v>64.32459259033203</v>
+        <v>64.07286071777344</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>128.6448516845703</v>
+        <v>130.2463226318359</v>
       </c>
       <c r="I8" t="n">
-        <v>31.5334644317627</v>
+        <v>32.51920318603516</v>
       </c>
       <c r="J8" t="n">
-        <v>930.7256469726562</v>
+        <v>929.8238525390625</v>
       </c>
       <c r="K8" t="n">
-        <v>61.38851165771484</v>
+        <v>63.34559631347656</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>137.7297821044922</v>
+        <v>137.2572784423828</v>
       </c>
       <c r="I9" t="n">
-        <v>30.48953628540039</v>
+        <v>31.30873680114746</v>
       </c>
       <c r="J9" t="n">
-        <v>920.5767822265625</v>
+        <v>922.0287475585938</v>
       </c>
       <c r="K9" t="n">
-        <v>58.48760223388672</v>
+        <v>59.15427780151367</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>146.3718872070312</v>
+        <v>146.62841796875</v>
       </c>
       <c r="I10" t="n">
-        <v>31.48540306091309</v>
+        <v>30.8277702331543</v>
       </c>
       <c r="J10" t="n">
-        <v>922.8811645507812</v>
+        <v>919.3845825195312</v>
       </c>
       <c r="K10" t="n">
-        <v>58.27093124389648</v>
+        <v>59.85909271240234</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>164.5445404052734</v>
+        <v>165.5616607666016</v>
       </c>
       <c r="I11" t="n">
-        <v>34.49871826171875</v>
+        <v>33.72207641601562</v>
       </c>
       <c r="J11" t="n">
-        <v>913.6802368164062</v>
+        <v>915.6006469726562</v>
       </c>
       <c r="K11" t="n">
-        <v>59.18529891967773</v>
+        <v>62.47365951538086</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>201.9462127685547</v>
+        <v>200.9204711914062</v>
       </c>
       <c r="I12" t="n">
-        <v>53.36008453369141</v>
+        <v>55.44843673706055</v>
       </c>
       <c r="J12" t="n">
-        <v>911.2382202148438</v>
+        <v>912.7694702148438</v>
       </c>
       <c r="K12" t="n">
-        <v>62.65510559082031</v>
+        <v>60.74956512451172</v>
       </c>
     </row>
     <row r="13">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>358.1187744140625</v>
+        <v>353.3660278320312</v>
       </c>
       <c r="I13" t="n">
-        <v>163.2567138671875</v>
+        <v>161.0818176269531</v>
       </c>
       <c r="J13" t="n">
-        <v>904.6275024414062</v>
+        <v>901.1541748046875</v>
       </c>
       <c r="K13" t="n">
-        <v>68.44870758056641</v>
+        <v>70.79562377929688</v>
       </c>
     </row>
     <row r="14">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>111.9019546508789</v>
+        <v>112.5680694580078</v>
       </c>
       <c r="I14" t="n">
-        <v>34.28883361816406</v>
+        <v>33.8537712097168</v>
       </c>
       <c r="J14" t="n">
-        <v>685.7321166992188</v>
+        <v>681.9923706054688</v>
       </c>
       <c r="K14" t="n">
-        <v>202.138427734375</v>
+        <v>204.8188629150391</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>117.249885559082</v>
+        <v>121.0111694335938</v>
       </c>
       <c r="I15" t="n">
-        <v>33.07991790771484</v>
+        <v>32.21109008789062</v>
       </c>
       <c r="J15" t="n">
-        <v>980.0521850585938</v>
+        <v>978.2107543945312</v>
       </c>
       <c r="K15" t="n">
-        <v>71.51309204101562</v>
+        <v>71.35495758056641</v>
       </c>
     </row>
     <row r="16">
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>132.0838928222656</v>
+        <v>134.3351287841797</v>
       </c>
       <c r="I16" t="n">
-        <v>31.49409866333008</v>
+        <v>31.58694458007812</v>
       </c>
       <c r="J16" t="n">
-        <v>967.5416870117188</v>
+        <v>966.142822265625</v>
       </c>
       <c r="K16" t="n">
-        <v>66.72976684570312</v>
+        <v>66.88600158691406</v>
       </c>
     </row>
     <row r="17">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>142.0017395019531</v>
+        <v>141.3618621826172</v>
       </c>
       <c r="I17" t="n">
-        <v>31.10331726074219</v>
+        <v>30.45532417297363</v>
       </c>
       <c r="J17" t="n">
-        <v>959.528564453125</v>
+        <v>958.2584228515625</v>
       </c>
       <c r="K17" t="n">
-        <v>65.63609313964844</v>
+        <v>64.61190032958984</v>
       </c>
     </row>
     <row r="18">
@@ -1107,16 +1107,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>150.1520233154297</v>
+        <v>149.9937896728516</v>
       </c>
       <c r="I18" t="n">
-        <v>30.26387596130371</v>
+        <v>30.94615745544434</v>
       </c>
       <c r="J18" t="n">
-        <v>943.7691650390625</v>
+        <v>941.5477905273438</v>
       </c>
       <c r="K18" t="n">
-        <v>62.67372131347656</v>
+        <v>63.64143753051758</v>
       </c>
     </row>
     <row r="19">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>166.9732971191406</v>
+        <v>167.7226104736328</v>
       </c>
       <c r="I19" t="n">
-        <v>30.15817832946777</v>
+        <v>30.18954467773438</v>
       </c>
       <c r="J19" t="n">
-        <v>936.9171752929688</v>
+        <v>934.5307006835938</v>
       </c>
       <c r="K19" t="n">
-        <v>59.05303192138672</v>
+        <v>62.50981521606445</v>
       </c>
     </row>
     <row r="20">
@@ -1181,16 +1181,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>196.1039733886719</v>
+        <v>196.9051971435547</v>
       </c>
       <c r="I20" t="n">
-        <v>41.62311935424805</v>
+        <v>38.30183792114258</v>
       </c>
       <c r="J20" t="n">
-        <v>922.225341796875</v>
+        <v>922.5322875976562</v>
       </c>
       <c r="K20" t="n">
-        <v>65.57747650146484</v>
+        <v>63.68144607543945</v>
       </c>
     </row>
     <row r="21">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>350.1923828125</v>
+        <v>355.2257995605469</v>
       </c>
       <c r="I21" t="n">
-        <v>143.8883209228516</v>
+        <v>151.7514190673828</v>
       </c>
       <c r="J21" t="n">
-        <v>909.4407348632812</v>
+        <v>910.193115234375</v>
       </c>
       <c r="K21" t="n">
-        <v>73.75546264648438</v>
+        <v>73.23918914794922</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>708.588623046875</v>
+        <v>705.6643676757812</v>
       </c>
       <c r="I22" t="n">
-        <v>105.9210815429688</v>
+        <v>108.8084106445312</v>
       </c>
       <c r="J22" t="n">
-        <v>896.69970703125</v>
+        <v>891.8541870117188</v>
       </c>
       <c r="K22" t="n">
-        <v>98.01596069335938</v>
+        <v>101.9840698242188</v>
       </c>
     </row>
     <row r="23">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>107.1512985229492</v>
+        <v>108.8096694946289</v>
       </c>
       <c r="I23" t="n">
-        <v>34.42025756835938</v>
+        <v>36.64783477783203</v>
       </c>
       <c r="J23" t="n">
-        <v>245.0850219726562</v>
+        <v>244.0243988037109</v>
       </c>
       <c r="K23" t="n">
-        <v>106.5424499511719</v>
+        <v>103.8645172119141</v>
       </c>
     </row>
     <row r="24">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>114.851806640625</v>
+        <v>116.3301467895508</v>
       </c>
       <c r="I24" t="n">
-        <v>34.25627899169922</v>
+        <v>32.81223297119141</v>
       </c>
       <c r="J24" t="n">
-        <v>475.9790649414062</v>
+        <v>478.822509765625</v>
       </c>
       <c r="K24" t="n">
-        <v>198.2237854003906</v>
+        <v>199.3062438964844</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>126.8473663330078</v>
+        <v>124.5651168823242</v>
       </c>
       <c r="I25" t="n">
-        <v>32.11488342285156</v>
+        <v>32.1803092956543</v>
       </c>
       <c r="J25" t="n">
-        <v>887.1714477539062</v>
+        <v>889.17333984375</v>
       </c>
       <c r="K25" t="n">
-        <v>129.242431640625</v>
+        <v>131.8301239013672</v>
       </c>
     </row>
     <row r="26">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>137.9663848876953</v>
+        <v>137.8565521240234</v>
       </c>
       <c r="I26" t="n">
-        <v>30.54433441162109</v>
+        <v>31.0511417388916</v>
       </c>
       <c r="J26" t="n">
-        <v>969.3292846679688</v>
+        <v>969.7297973632812</v>
       </c>
       <c r="K26" t="n">
-        <v>74.24500274658203</v>
+        <v>76.28781890869141</v>
       </c>
     </row>
     <row r="27">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>152.0284576416016</v>
+        <v>150.887939453125</v>
       </c>
       <c r="I27" t="n">
-        <v>30.26654243469238</v>
+        <v>30.49029922485352</v>
       </c>
       <c r="J27" t="n">
-        <v>966.0366821289062</v>
+        <v>967.7183227539062</v>
       </c>
       <c r="K27" t="n">
-        <v>67.94075775146484</v>
+        <v>66.94080352783203</v>
       </c>
     </row>
     <row r="28">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>169.1301879882812</v>
+        <v>168.2902679443359</v>
       </c>
       <c r="I28" t="n">
-        <v>28.95940971374512</v>
+        <v>29.30554962158203</v>
       </c>
       <c r="J28" t="n">
-        <v>950.9528198242188</v>
+        <v>949.0264282226562</v>
       </c>
       <c r="K28" t="n">
-        <v>65.56118011474609</v>
+        <v>68.81337738037109</v>
       </c>
     </row>
     <row r="29">
@@ -1514,16 +1514,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>197.5435791015625</v>
+        <v>198.4487762451172</v>
       </c>
       <c r="I29" t="n">
-        <v>35.02724075317383</v>
+        <v>35.14020538330078</v>
       </c>
       <c r="J29" t="n">
-        <v>932.572998046875</v>
+        <v>929.838134765625</v>
       </c>
       <c r="K29" t="n">
-        <v>70.07344055175781</v>
+        <v>71.00123596191406</v>
       </c>
     </row>
     <row r="30">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>363.3722839355469</v>
+        <v>360.1651916503906</v>
       </c>
       <c r="I30" t="n">
-        <v>123.0706329345703</v>
+        <v>119.6161041259766</v>
       </c>
       <c r="J30" t="n">
-        <v>908.78759765625</v>
+        <v>910.2266845703125</v>
       </c>
       <c r="K30" t="n">
-        <v>90.19255065917969</v>
+        <v>88.31039428710938</v>
       </c>
     </row>
     <row r="31">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>696.6481323242188</v>
+        <v>702.3394165039062</v>
       </c>
       <c r="I31" t="n">
-        <v>88.54077911376953</v>
+        <v>81.91554260253906</v>
       </c>
       <c r="J31" t="n">
-        <v>868.90869140625</v>
+        <v>862.8616943359375</v>
       </c>
       <c r="K31" t="n">
-        <v>132.5337982177734</v>
+        <v>128.5847930908203</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>104.6256942749023</v>
+        <v>103.1654815673828</v>
       </c>
       <c r="I32" t="n">
-        <v>36.76028442382812</v>
+        <v>36.14068222045898</v>
       </c>
       <c r="J32" t="n">
-        <v>135.4331207275391</v>
+        <v>135.4581451416016</v>
       </c>
       <c r="K32" t="n">
-        <v>50.55669784545898</v>
+        <v>50.23139572143555</v>
       </c>
     </row>
     <row r="33">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>113.8834991455078</v>
+        <v>111.9690475463867</v>
       </c>
       <c r="I33" t="n">
-        <v>35.20771026611328</v>
+        <v>34.11658096313477</v>
       </c>
       <c r="J33" t="n">
-        <v>182.1832885742188</v>
+        <v>183.3042297363281</v>
       </c>
       <c r="K33" t="n">
-        <v>71.70003509521484</v>
+        <v>74.78583526611328</v>
       </c>
     </row>
     <row r="34">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>123.7980346679688</v>
+        <v>123.1012496948242</v>
       </c>
       <c r="I34" t="n">
-        <v>32.43622970581055</v>
+        <v>32.63467407226562</v>
       </c>
       <c r="J34" t="n">
-        <v>303.9854736328125</v>
+        <v>309.4823608398438</v>
       </c>
       <c r="K34" t="n">
-        <v>137.1589660644531</v>
+        <v>141.0363616943359</v>
       </c>
     </row>
     <row r="35">
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>135.0419464111328</v>
+        <v>134.9452209472656</v>
       </c>
       <c r="I35" t="n">
-        <v>30.59836959838867</v>
+        <v>30.98312759399414</v>
       </c>
       <c r="J35" t="n">
-        <v>481.142333984375</v>
+        <v>483.5773010253906</v>
       </c>
       <c r="K35" t="n">
-        <v>194.7329254150391</v>
+        <v>187.2582397460938</v>
       </c>
     </row>
     <row r="36">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>149.1490325927734</v>
+        <v>148.8969116210938</v>
       </c>
       <c r="I36" t="n">
-        <v>29.7285327911377</v>
+        <v>29.61751937866211</v>
       </c>
       <c r="J36" t="n">
-        <v>777.9671630859375</v>
+        <v>772.1521606445312</v>
       </c>
       <c r="K36" t="n">
-        <v>157.9983062744141</v>
+        <v>158.1230163574219</v>
       </c>
     </row>
     <row r="37">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>164.6721649169922</v>
+        <v>162.9718017578125</v>
       </c>
       <c r="I37" t="n">
-        <v>29.71551704406738</v>
+        <v>30.19901084899902</v>
       </c>
       <c r="J37" t="n">
-        <v>786.3528442382812</v>
+        <v>787.143310546875</v>
       </c>
       <c r="K37" t="n">
-        <v>140.1707458496094</v>
+        <v>143.7913970947266</v>
       </c>
     </row>
     <row r="38">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>201.4846343994141</v>
+        <v>202.6302337646484</v>
       </c>
       <c r="I38" t="n">
-        <v>35.57757949829102</v>
+        <v>36.32835388183594</v>
       </c>
       <c r="J38" t="n">
-        <v>830.7034912109375</v>
+        <v>834.6646728515625</v>
       </c>
       <c r="K38" t="n">
-        <v>140.5000762939453</v>
+        <v>134.1415863037109</v>
       </c>
     </row>
     <row r="39">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>353.3551940917969</v>
+        <v>357.9473571777344</v>
       </c>
       <c r="I39" t="n">
-        <v>108.6596221923828</v>
+        <v>108.9474792480469</v>
       </c>
       <c r="J39" t="n">
-        <v>813.5792236328125</v>
+        <v>815.0176391601562</v>
       </c>
       <c r="K39" t="n">
-        <v>142.7746276855469</v>
+        <v>143.5650939941406</v>
       </c>
     </row>
     <row r="40">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>665.372802734375</v>
+        <v>665.1666870117188</v>
       </c>
       <c r="I40" t="n">
-        <v>75.91965484619141</v>
+        <v>75.34555816650391</v>
       </c>
       <c r="J40" t="n">
-        <v>756.7711181640625</v>
+        <v>759.0003051757812</v>
       </c>
       <c r="K40" t="n">
-        <v>174.6932983398438</v>
+        <v>175.4074249267578</v>
       </c>
     </row>
     <row r="41">
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>102.5461654663086</v>
+        <v>102.779899597168</v>
       </c>
       <c r="I41" t="n">
-        <v>36.28271865844727</v>
+        <v>37.92148208618164</v>
       </c>
       <c r="J41" t="n">
-        <v>106.6546859741211</v>
+        <v>104.8221817016602</v>
       </c>
       <c r="K41" t="n">
-        <v>45.84654998779297</v>
+        <v>44.15005111694336</v>
       </c>
     </row>
     <row r="42">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>108.3860397338867</v>
+        <v>109.8987274169922</v>
       </c>
       <c r="I42" t="n">
-        <v>34.15488433837891</v>
+        <v>33.67927551269531</v>
       </c>
       <c r="J42" t="n">
-        <v>125.2389602661133</v>
+        <v>125.391975402832</v>
       </c>
       <c r="K42" t="n">
-        <v>45.89400100708008</v>
+        <v>48.65790176391602</v>
       </c>
     </row>
     <row r="43">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>117.9911956787109</v>
+        <v>117.8862228393555</v>
       </c>
       <c r="I43" t="n">
-        <v>32.8646125793457</v>
+        <v>34.49775314331055</v>
       </c>
       <c r="J43" t="n">
-        <v>145.7203674316406</v>
+        <v>145.2731018066406</v>
       </c>
       <c r="K43" t="n">
-        <v>56.02420043945312</v>
+        <v>51.77053070068359</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>130.6577453613281</v>
+        <v>128.1106872558594</v>
       </c>
       <c r="I44" t="n">
-        <v>31.11398315429688</v>
+        <v>32.18515777587891</v>
       </c>
       <c r="J44" t="n">
-        <v>210.9039916992188</v>
+        <v>210.2637023925781</v>
       </c>
       <c r="K44" t="n">
-        <v>78.89545440673828</v>
+        <v>78.34044647216797</v>
       </c>
     </row>
     <row r="45">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>141.6168518066406</v>
+        <v>138.7092132568359</v>
       </c>
       <c r="I45" t="n">
-        <v>31.69695472717285</v>
+        <v>30.73349952697754</v>
       </c>
       <c r="J45" t="n">
-        <v>253.3858032226562</v>
+        <v>255.9075775146484</v>
       </c>
       <c r="K45" t="n">
-        <v>94.86915588378906</v>
+        <v>98.79344177246094</v>
       </c>
     </row>
     <row r="46">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>158.8987579345703</v>
+        <v>158.4145965576172</v>
       </c>
       <c r="I46" t="n">
-        <v>29.44419860839844</v>
+        <v>29.28528594970703</v>
       </c>
       <c r="J46" t="n">
-        <v>351.1651306152344</v>
+        <v>350.9447631835938</v>
       </c>
       <c r="K46" t="n">
-        <v>133.9529113769531</v>
+        <v>136.2272338867188</v>
       </c>
     </row>
     <row r="47">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>191.8534545898438</v>
+        <v>192.0254516601562</v>
       </c>
       <c r="I47" t="n">
-        <v>33.38150024414062</v>
+        <v>33.06818771362305</v>
       </c>
       <c r="J47" t="n">
-        <v>438.9323425292969</v>
+        <v>441.3654174804688</v>
       </c>
       <c r="K47" t="n">
-        <v>173.2864837646484</v>
+        <v>168.9759063720703</v>
       </c>
     </row>
     <row r="48">
@@ -2217,16 +2217,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>354.2768249511719</v>
+        <v>355.5968933105469</v>
       </c>
       <c r="I48" t="n">
-        <v>119.2727661132812</v>
+        <v>121.2956848144531</v>
       </c>
       <c r="J48" t="n">
-        <v>566.8021240234375</v>
+        <v>559.46240234375</v>
       </c>
       <c r="K48" t="n">
-        <v>184.4850463867188</v>
+        <v>184.1743469238281</v>
       </c>
     </row>
     <row r="49">
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>614.4637451171875</v>
+        <v>615.5178833007812</v>
       </c>
       <c r="I49" t="n">
-        <v>89.84146118164062</v>
+        <v>90.18594360351562</v>
       </c>
       <c r="J49" t="n">
-        <v>615.9966430664062</v>
+        <v>614.9501953125</v>
       </c>
       <c r="K49" t="n">
-        <v>191.2308349609375</v>
+        <v>190.1082611083984</v>
       </c>
     </row>
     <row r="50">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>106.6411437988281</v>
+        <v>105.2359085083008</v>
       </c>
       <c r="I50" t="n">
-        <v>35.94554901123047</v>
+        <v>36.04333114624023</v>
       </c>
       <c r="J50" t="n">
-        <v>76.54002380371094</v>
+        <v>73.97672271728516</v>
       </c>
       <c r="K50" t="n">
-        <v>44.08438491821289</v>
+        <v>45.23173522949219</v>
       </c>
     </row>
     <row r="51">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>111.3501052856445</v>
+        <v>111.3527374267578</v>
       </c>
       <c r="I51" t="n">
-        <v>33.81729888916016</v>
+        <v>34.98334121704102</v>
       </c>
       <c r="J51" t="n">
-        <v>92.82500457763672</v>
+        <v>92.18327331542969</v>
       </c>
       <c r="K51" t="n">
-        <v>47.85404586791992</v>
+        <v>45.29768753051758</v>
       </c>
     </row>
     <row r="52">
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>116.4201431274414</v>
+        <v>118.4878540039062</v>
       </c>
       <c r="I52" t="n">
-        <v>33.53442764282227</v>
+        <v>32.90406036376953</v>
       </c>
       <c r="J52" t="n">
-        <v>99.44393920898438</v>
+        <v>99.18910980224609</v>
       </c>
       <c r="K52" t="n">
-        <v>49.36909103393555</v>
+        <v>51.28877258300781</v>
       </c>
     </row>
     <row r="53">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>127.3507537841797</v>
+        <v>126.7081756591797</v>
       </c>
       <c r="I53" t="n">
-        <v>33.25882720947266</v>
+        <v>32.21991348266602</v>
       </c>
       <c r="J53" t="n">
-        <v>122.5413436889648</v>
+        <v>124.7197265625</v>
       </c>
       <c r="K53" t="n">
-        <v>53.00013732910156</v>
+        <v>53.13876724243164</v>
       </c>
     </row>
     <row r="54">
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>140.2862091064453</v>
+        <v>139.4069976806641</v>
       </c>
       <c r="I54" t="n">
-        <v>31.19009399414062</v>
+        <v>32.14128494262695</v>
       </c>
       <c r="J54" t="n">
-        <v>150.1551208496094</v>
+        <v>151.0812835693359</v>
       </c>
       <c r="K54" t="n">
-        <v>53.6983528137207</v>
+        <v>50.99979782104492</v>
       </c>
     </row>
     <row r="55">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>156.3886108398438</v>
+        <v>157.4455718994141</v>
       </c>
       <c r="I55" t="n">
-        <v>32.17715072631836</v>
+        <v>30.6576099395752</v>
       </c>
       <c r="J55" t="n">
-        <v>181.4124145507812</v>
+        <v>182.2472991943359</v>
       </c>
       <c r="K55" t="n">
-        <v>51.68308639526367</v>
+        <v>53.88030624389648</v>
       </c>
     </row>
     <row r="56">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>183.4573822021484</v>
+        <v>183.5649566650391</v>
       </c>
       <c r="I56" t="n">
-        <v>33.14249801635742</v>
+        <v>31.5596981048584</v>
       </c>
       <c r="J56" t="n">
-        <v>198.058349609375</v>
+        <v>199.4230499267578</v>
       </c>
       <c r="K56" t="n">
-        <v>59.80014038085938</v>
+        <v>67.07911682128906</v>
       </c>
     </row>
     <row r="57">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>291.7386169433594</v>
+        <v>288.9645690917969</v>
       </c>
       <c r="I57" t="n">
-        <v>104.5668487548828</v>
+        <v>102.6359252929688</v>
       </c>
       <c r="J57" t="n">
-        <v>287.9093933105469</v>
+        <v>284.2429809570312</v>
       </c>
       <c r="K57" t="n">
-        <v>115.6882476806641</v>
+        <v>114.1648941040039</v>
       </c>
     </row>
     <row r="58">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>599.5162963867188</v>
+        <v>605.456298828125</v>
       </c>
       <c r="I58" t="n">
-        <v>95.23489379882812</v>
+        <v>90.14459228515625</v>
       </c>
       <c r="J58" t="n">
-        <v>396.2871398925781</v>
+        <v>398.898681640625</v>
       </c>
       <c r="K58" t="n">
-        <v>191.3909912109375</v>
+        <v>196.3911437988281</v>
       </c>
     </row>
     <row r="59">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>114.6608963012695</v>
+        <v>113.8539962768555</v>
       </c>
       <c r="I59" t="n">
-        <v>34.19572448730469</v>
+        <v>34.98215484619141</v>
       </c>
       <c r="J59" t="n">
-        <v>44.13813400268555</v>
+        <v>46.12575149536133</v>
       </c>
       <c r="K59" t="n">
-        <v>56.8227653503418</v>
+        <v>56.76080322265625</v>
       </c>
     </row>
     <row r="60">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>120.3016052246094</v>
+        <v>119.3493194580078</v>
       </c>
       <c r="I60" t="n">
-        <v>33.7967643737793</v>
+        <v>33.64968872070312</v>
       </c>
       <c r="J60" t="n">
-        <v>56.26503372192383</v>
+        <v>56.22296905517578</v>
       </c>
       <c r="K60" t="n">
-        <v>61.94613647460938</v>
+        <v>59.87799453735352</v>
       </c>
     </row>
     <row r="61">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>126.7844161987305</v>
+        <v>126.2975616455078</v>
       </c>
       <c r="I61" t="n">
-        <v>33.0084114074707</v>
+        <v>34.75662612915039</v>
       </c>
       <c r="J61" t="n">
-        <v>74.56922912597656</v>
+        <v>70.92699432373047</v>
       </c>
       <c r="K61" t="n">
-        <v>63.29840850830078</v>
+        <v>60.89627456665039</v>
       </c>
     </row>
     <row r="62">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>136.9891052246094</v>
+        <v>137.6606903076172</v>
       </c>
       <c r="I62" t="n">
-        <v>33.50865936279297</v>
+        <v>33.11214447021484</v>
       </c>
       <c r="J62" t="n">
-        <v>91.99471282958984</v>
+        <v>91.13588714599609</v>
       </c>
       <c r="K62" t="n">
-        <v>63.35026931762695</v>
+        <v>63.91566467285156</v>
       </c>
     </row>
     <row r="63">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>149.950439453125</v>
+        <v>150.9546051025391</v>
       </c>
       <c r="I63" t="n">
-        <v>32.51841354370117</v>
+        <v>31.72393226623535</v>
       </c>
       <c r="J63" t="n">
-        <v>116.2256088256836</v>
+        <v>114.8087387084961</v>
       </c>
       <c r="K63" t="n">
-        <v>58.59307861328125</v>
+        <v>55.31419372558594</v>
       </c>
     </row>
     <row r="64">
@@ -2809,16 +2809,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>175.6089782714844</v>
+        <v>176.5308074951172</v>
       </c>
       <c r="I64" t="n">
-        <v>32.25961685180664</v>
+        <v>32.15672302246094</v>
       </c>
       <c r="J64" t="n">
-        <v>139.3749542236328</v>
+        <v>139.5547332763672</v>
       </c>
       <c r="K64" t="n">
-        <v>53.34242248535156</v>
+        <v>50.95309448242188</v>
       </c>
     </row>
     <row r="65">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>284.8626403808594</v>
+        <v>288.0003356933594</v>
       </c>
       <c r="I65" t="n">
-        <v>104.5583877563477</v>
+        <v>106.7698745727539</v>
       </c>
       <c r="J65" t="n">
-        <v>189.3908538818359</v>
+        <v>187.3502502441406</v>
       </c>
       <c r="K65" t="n">
-        <v>80.92431640625</v>
+        <v>76.7071533203125</v>
       </c>
     </row>
     <row r="66">
@@ -2883,16 +2883,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>127.1298294067383</v>
+        <v>126.6605758666992</v>
       </c>
       <c r="I66" t="n">
-        <v>32.60417556762695</v>
+        <v>34.8487663269043</v>
       </c>
       <c r="J66" t="n">
-        <v>1.882785081863403</v>
+        <v>4.210168361663818</v>
       </c>
       <c r="K66" t="n">
-        <v>63.92676162719727</v>
+        <v>63.37728118896484</v>
       </c>
     </row>
     <row r="67">
@@ -2920,16 +2920,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>131.1399993896484</v>
+        <v>131.4685516357422</v>
       </c>
       <c r="I67" t="n">
-        <v>34.1195182800293</v>
+        <v>34.77888107299805</v>
       </c>
       <c r="J67" t="n">
-        <v>14.64370727539062</v>
+        <v>13.71003723144531</v>
       </c>
       <c r="K67" t="n">
-        <v>66.26217651367188</v>
+        <v>68.06482696533203</v>
       </c>
     </row>
     <row r="68">
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>142.9109954833984</v>
+        <v>143.4793853759766</v>
       </c>
       <c r="I68" t="n">
-        <v>33.30791473388672</v>
+        <v>33.23146057128906</v>
       </c>
       <c r="J68" t="n">
-        <v>45.39928436279297</v>
+        <v>50.08868026733398</v>
       </c>
       <c r="K68" t="n">
-        <v>67.46723937988281</v>
+        <v>67.56264495849609</v>
       </c>
     </row>
     <row r="69">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>149.7189178466797</v>
+        <v>153.0319213867188</v>
       </c>
       <c r="I69" t="n">
-        <v>32.68833541870117</v>
+        <v>32.28436279296875</v>
       </c>
       <c r="J69" t="n">
-        <v>67.31410217285156</v>
+        <v>67.32622528076172</v>
       </c>
       <c r="K69" t="n">
-        <v>67.72381591796875</v>
+        <v>67.55403900146484</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>172.0903930664062</v>
+        <v>172.8739166259766</v>
       </c>
       <c r="I70" t="n">
-        <v>32.23955535888672</v>
+        <v>36.13043975830078</v>
       </c>
       <c r="J70" t="n">
-        <v>104.2447891235352</v>
+        <v>103.5902481079102</v>
       </c>
       <c r="K70" t="n">
-        <v>59.57153701782227</v>
+        <v>61.22270584106445</v>
       </c>
     </row>
   </sheetData>
